--- a/data/trans_orig/P6902-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P6902-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{437A6406-CB4B-4DDF-9102-8FA79CFB7814}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{22FDDCAC-C5BD-442D-AA0A-4168207B5532}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6C8F9E65-9E7F-4D3F-BC8E-F42EE843B030}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F043C210-6FCE-4E2C-803F-A4F0AD764972}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="448">
   <si>
     <t>Población según si su trabajo le afecta de manera que se siente nervioso y estresado en 2007 (Tasa respuesta: 10,21%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>39,09%</t>
   </si>
   <si>
-    <t>26,41%</t>
-  </si>
-  <si>
-    <t>55,12%</t>
+    <t>25,96%</t>
+  </si>
+  <si>
+    <t>54,5%</t>
   </si>
   <si>
     <t>47,61%</t>
   </si>
   <si>
-    <t>27,49%</t>
-  </si>
-  <si>
-    <t>70,92%</t>
+    <t>27,97%</t>
+  </si>
+  <si>
+    <t>71,11%</t>
   </si>
   <si>
     <t>41,65%</t>
   </si>
   <si>
-    <t>29,57%</t>
-  </si>
-  <si>
-    <t>54,15%</t>
+    <t>30,36%</t>
+  </si>
+  <si>
+    <t>52,82%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>60,91%</t>
   </si>
   <si>
-    <t>44,88%</t>
-  </si>
-  <si>
-    <t>73,59%</t>
+    <t>45,5%</t>
+  </si>
+  <si>
+    <t>74,04%</t>
   </si>
   <si>
     <t>52,39%</t>
   </si>
   <si>
-    <t>29,08%</t>
-  </si>
-  <si>
-    <t>72,51%</t>
+    <t>28,89%</t>
+  </si>
+  <si>
+    <t>72,03%</t>
   </si>
   <si>
     <t>58,35%</t>
   </si>
   <si>
-    <t>45,85%</t>
-  </si>
-  <si>
-    <t>70,43%</t>
+    <t>47,18%</t>
+  </si>
+  <si>
+    <t>69,64%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,55 +140,55 @@
     <t>43,78%</t>
   </si>
   <si>
-    <t>34,5%</t>
-  </si>
-  <si>
-    <t>53,28%</t>
+    <t>35,22%</t>
+  </si>
+  <si>
+    <t>52,13%</t>
   </si>
   <si>
     <t>56,62%</t>
   </si>
   <si>
-    <t>45,48%</t>
-  </si>
-  <si>
-    <t>67,65%</t>
+    <t>45,86%</t>
+  </si>
+  <si>
+    <t>67,66%</t>
   </si>
   <si>
     <t>48,37%</t>
   </si>
   <si>
-    <t>41,48%</t>
-  </si>
-  <si>
-    <t>55,24%</t>
+    <t>41,56%</t>
+  </si>
+  <si>
+    <t>55,64%</t>
   </si>
   <si>
     <t>56,22%</t>
   </si>
   <si>
-    <t>46,72%</t>
-  </si>
-  <si>
-    <t>65,5%</t>
+    <t>47,87%</t>
+  </si>
+  <si>
+    <t>64,78%</t>
   </si>
   <si>
     <t>43,38%</t>
   </si>
   <si>
-    <t>32,35%</t>
-  </si>
-  <si>
-    <t>54,52%</t>
+    <t>32,34%</t>
+  </si>
+  <si>
+    <t>54,14%</t>
   </si>
   <si>
     <t>51,63%</t>
   </si>
   <si>
-    <t>44,76%</t>
-  </si>
-  <si>
-    <t>58,52%</t>
+    <t>44,36%</t>
+  </si>
+  <si>
+    <t>58,44%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -197,55 +197,55 @@
     <t>46,27%</t>
   </si>
   <si>
-    <t>36,59%</t>
-  </si>
-  <si>
-    <t>55,23%</t>
+    <t>37,84%</t>
+  </si>
+  <si>
+    <t>55,96%</t>
   </si>
   <si>
     <t>50,35%</t>
   </si>
   <si>
-    <t>38,1%</t>
-  </si>
-  <si>
-    <t>61,22%</t>
+    <t>38,93%</t>
+  </si>
+  <si>
+    <t>62,94%</t>
   </si>
   <si>
     <t>47,73%</t>
   </si>
   <si>
-    <t>40,5%</t>
-  </si>
-  <si>
-    <t>54,73%</t>
+    <t>40,68%</t>
+  </si>
+  <si>
+    <t>55,37%</t>
   </si>
   <si>
     <t>53,73%</t>
   </si>
   <si>
-    <t>44,77%</t>
-  </si>
-  <si>
-    <t>63,41%</t>
+    <t>44,04%</t>
+  </si>
+  <si>
+    <t>62,16%</t>
   </si>
   <si>
     <t>49,65%</t>
   </si>
   <si>
-    <t>38,78%</t>
-  </si>
-  <si>
-    <t>61,9%</t>
+    <t>37,06%</t>
+  </si>
+  <si>
+    <t>61,07%</t>
   </si>
   <si>
     <t>52,27%</t>
   </si>
   <si>
-    <t>45,27%</t>
-  </si>
-  <si>
-    <t>59,5%</t>
+    <t>44,63%</t>
+  </si>
+  <si>
+    <t>59,32%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -254,55 +254,55 @@
     <t>46,57%</t>
   </si>
   <si>
-    <t>37,01%</t>
-  </si>
-  <si>
-    <t>56,52%</t>
+    <t>37,16%</t>
+  </si>
+  <si>
+    <t>56,66%</t>
   </si>
   <si>
     <t>49,66%</t>
   </si>
   <si>
-    <t>34,24%</t>
-  </si>
-  <si>
-    <t>66,77%</t>
+    <t>34,32%</t>
+  </si>
+  <si>
+    <t>65,18%</t>
   </si>
   <si>
     <t>47,34%</t>
   </si>
   <si>
-    <t>39,19%</t>
-  </si>
-  <si>
-    <t>56,74%</t>
+    <t>38,86%</t>
+  </si>
+  <si>
+    <t>55,92%</t>
   </si>
   <si>
     <t>53,43%</t>
   </si>
   <si>
-    <t>43,48%</t>
-  </si>
-  <si>
-    <t>62,99%</t>
+    <t>43,34%</t>
+  </si>
+  <si>
+    <t>62,84%</t>
   </si>
   <si>
     <t>50,34%</t>
   </si>
   <si>
-    <t>33,23%</t>
-  </si>
-  <si>
-    <t>65,76%</t>
+    <t>34,82%</t>
+  </si>
+  <si>
+    <t>65,68%</t>
   </si>
   <si>
     <t>52,66%</t>
   </si>
   <si>
-    <t>43,26%</t>
-  </si>
-  <si>
-    <t>60,81%</t>
+    <t>44,08%</t>
+  </si>
+  <si>
+    <t>61,14%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -311,55 +311,55 @@
     <t>30,17%</t>
   </si>
   <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>45,34%</t>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>43,37%</t>
   </si>
   <si>
     <t>36,11%</t>
   </si>
   <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>64,66%</t>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>65,05%</t>
   </si>
   <si>
     <t>31,55%</t>
   </si>
   <si>
-    <t>20,68%</t>
-  </si>
-  <si>
-    <t>44,79%</t>
+    <t>20,31%</t>
+  </si>
+  <si>
+    <t>44,13%</t>
   </si>
   <si>
     <t>69,83%</t>
   </si>
   <si>
-    <t>54,66%</t>
-  </si>
-  <si>
-    <t>82,17%</t>
+    <t>56,63%</t>
+  </si>
+  <si>
+    <t>81,87%</t>
   </si>
   <si>
     <t>63,89%</t>
   </si>
   <si>
-    <t>35,34%</t>
-  </si>
-  <si>
-    <t>85,57%</t>
+    <t>34,95%</t>
+  </si>
+  <si>
+    <t>85,76%</t>
   </si>
   <si>
     <t>68,45%</t>
   </si>
   <si>
-    <t>55,21%</t>
-  </si>
-  <si>
-    <t>79,32%</t>
+    <t>55,87%</t>
+  </si>
+  <si>
+    <t>79,69%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -386,931 +386,913 @@
     <t>43,42%</t>
   </si>
   <si>
-    <t>38,46%</t>
-  </si>
-  <si>
-    <t>48,43%</t>
+    <t>38,92%</t>
+  </si>
+  <si>
+    <t>48,27%</t>
   </si>
   <si>
     <t>51,34%</t>
   </si>
   <si>
-    <t>44,12%</t>
-  </si>
-  <si>
-    <t>57,5%</t>
+    <t>44,17%</t>
+  </si>
+  <si>
+    <t>58,36%</t>
   </si>
   <si>
     <t>45,94%</t>
   </si>
   <si>
-    <t>41,73%</t>
+    <t>42,43%</t>
+  </si>
+  <si>
+    <t>50,05%</t>
+  </si>
+  <si>
+    <t>56,58%</t>
+  </si>
+  <si>
+    <t>51,73%</t>
+  </si>
+  <si>
+    <t>61,08%</t>
+  </si>
+  <si>
+    <t>48,66%</t>
+  </si>
+  <si>
+    <t>41,64%</t>
+  </si>
+  <si>
+    <t>55,83%</t>
+  </si>
+  <si>
+    <t>54,06%</t>
+  </si>
+  <si>
+    <t>49,95%</t>
+  </si>
+  <si>
+    <t>57,57%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo le afecta de manera que se siente nervioso y estresado en 2012 (Tasa respuesta: 7,84%)</t>
+  </si>
+  <si>
+    <t>67,61%</t>
+  </si>
+  <si>
+    <t>31,48%</t>
+  </si>
+  <si>
+    <t>91,84%</t>
+  </si>
+  <si>
+    <t>58,86%</t>
+  </si>
+  <si>
+    <t>28,61%</t>
+  </si>
+  <si>
+    <t>89,76%</t>
+  </si>
+  <si>
+    <t>63,3%</t>
+  </si>
+  <si>
+    <t>38,16%</t>
+  </si>
+  <si>
+    <t>82,25%</t>
+  </si>
+  <si>
+    <t>32,39%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>68,52%</t>
+  </si>
+  <si>
+    <t>41,14%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>71,39%</t>
+  </si>
+  <si>
+    <t>36,7%</t>
+  </si>
+  <si>
+    <t>17,75%</t>
+  </si>
+  <si>
+    <t>61,84%</t>
+  </si>
+  <si>
+    <t>53,18%</t>
+  </si>
+  <si>
+    <t>42,59%</t>
+  </si>
+  <si>
+    <t>65,36%</t>
+  </si>
+  <si>
+    <t>54,74%</t>
+  </si>
+  <si>
+    <t>41,75%</t>
+  </si>
+  <si>
+    <t>67,28%</t>
+  </si>
+  <si>
+    <t>53,86%</t>
+  </si>
+  <si>
+    <t>45,33%</t>
+  </si>
+  <si>
+    <t>62,01%</t>
+  </si>
+  <si>
+    <t>46,82%</t>
+  </si>
+  <si>
+    <t>34,64%</t>
+  </si>
+  <si>
+    <t>57,41%</t>
+  </si>
+  <si>
+    <t>45,26%</t>
+  </si>
+  <si>
+    <t>32,72%</t>
+  </si>
+  <si>
+    <t>58,25%</t>
+  </si>
+  <si>
+    <t>46,14%</t>
+  </si>
+  <si>
+    <t>37,99%</t>
+  </si>
+  <si>
+    <t>54,67%</t>
+  </si>
+  <si>
+    <t>47,38%</t>
+  </si>
+  <si>
+    <t>37,27%</t>
+  </si>
+  <si>
+    <t>57,9%</t>
+  </si>
+  <si>
+    <t>61,53%</t>
+  </si>
+  <si>
+    <t>49,79%</t>
+  </si>
+  <si>
+    <t>73,98%</t>
+  </si>
+  <si>
+    <t>53,41%</t>
+  </si>
+  <si>
+    <t>46,05%</t>
+  </si>
+  <si>
+    <t>61,39%</t>
+  </si>
+  <si>
+    <t>52,62%</t>
+  </si>
+  <si>
+    <t>42,1%</t>
+  </si>
+  <si>
+    <t>62,73%</t>
+  </si>
+  <si>
+    <t>38,47%</t>
+  </si>
+  <si>
+    <t>26,02%</t>
+  </si>
+  <si>
+    <t>50,21%</t>
+  </si>
+  <si>
+    <t>46,59%</t>
+  </si>
+  <si>
+    <t>38,61%</t>
+  </si>
+  <si>
+    <t>53,95%</t>
+  </si>
+  <si>
+    <t>38,36%</t>
+  </si>
+  <si>
+    <t>27,68%</t>
+  </si>
+  <si>
+    <t>50,17%</t>
+  </si>
+  <si>
+    <t>51,21%</t>
+  </si>
+  <si>
+    <t>35,01%</t>
+  </si>
+  <si>
+    <t>67,45%</t>
+  </si>
+  <si>
+    <t>42,45%</t>
+  </si>
+  <si>
+    <t>34,16%</t>
+  </si>
+  <si>
+    <t>61,64%</t>
+  </si>
+  <si>
+    <t>49,83%</t>
+  </si>
+  <si>
+    <t>72,32%</t>
+  </si>
+  <si>
+    <t>48,79%</t>
+  </si>
+  <si>
+    <t>32,55%</t>
+  </si>
+  <si>
+    <t>64,99%</t>
+  </si>
+  <si>
+    <t>57,55%</t>
+  </si>
+  <si>
+    <t>65,84%</t>
+  </si>
+  <si>
+    <t>45,59%</t>
+  </si>
+  <si>
+    <t>30,32%</t>
+  </si>
+  <si>
+    <t>60,66%</t>
+  </si>
+  <si>
+    <t>63,53%</t>
+  </si>
+  <si>
+    <t>82,65%</t>
+  </si>
+  <si>
+    <t>52,23%</t>
+  </si>
+  <si>
+    <t>39,36%</t>
+  </si>
+  <si>
+    <t>65,12%</t>
+  </si>
+  <si>
+    <t>54,41%</t>
+  </si>
+  <si>
+    <t>39,34%</t>
+  </si>
+  <si>
+    <t>69,68%</t>
+  </si>
+  <si>
+    <t>36,47%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>47,77%</t>
+  </si>
+  <si>
+    <t>34,88%</t>
+  </si>
+  <si>
+    <t>60,64%</t>
+  </si>
+  <si>
+    <t>46,87%</t>
+  </si>
+  <si>
+    <t>40,83%</t>
+  </si>
+  <si>
+    <t>51,97%</t>
+  </si>
+  <si>
+    <t>57,54%</t>
+  </si>
+  <si>
+    <t>50,71%</t>
+  </si>
+  <si>
+    <t>64,23%</t>
+  </si>
+  <si>
+    <t>51,13%</t>
+  </si>
+  <si>
+    <t>46,62%</t>
+  </si>
+  <si>
+    <t>53,13%</t>
+  </si>
+  <si>
+    <t>48,03%</t>
+  </si>
+  <si>
+    <t>59,17%</t>
+  </si>
+  <si>
+    <t>42,46%</t>
+  </si>
+  <si>
+    <t>35,77%</t>
+  </si>
+  <si>
+    <t>49,29%</t>
+  </si>
+  <si>
+    <t>48,87%</t>
+  </si>
+  <si>
+    <t>53,38%</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo le afecta de manera que se siente nervioso y estresado en 2015 (Tasa respuesta: 8,05%)</t>
+  </si>
+  <si>
+    <t>34,09%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>59,96%</t>
+  </si>
+  <si>
+    <t>66,12%</t>
+  </si>
+  <si>
+    <t>33,77%</t>
+  </si>
+  <si>
+    <t>91,23%</t>
+  </si>
+  <si>
+    <t>47,04%</t>
+  </si>
+  <si>
+    <t>28,0%</t>
+  </si>
+  <si>
+    <t>64,74%</t>
+  </si>
+  <si>
+    <t>65,91%</t>
+  </si>
+  <si>
+    <t>40,04%</t>
+  </si>
+  <si>
+    <t>87,37%</t>
+  </si>
+  <si>
+    <t>33,88%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>66,23%</t>
+  </si>
+  <si>
+    <t>52,96%</t>
+  </si>
+  <si>
+    <t>35,26%</t>
+  </si>
+  <si>
+    <t>72,0%</t>
+  </si>
+  <si>
+    <t>36,35%</t>
+  </si>
+  <si>
+    <t>26,25%</t>
+  </si>
+  <si>
+    <t>48,53%</t>
+  </si>
+  <si>
+    <t>60,14%</t>
+  </si>
+  <si>
+    <t>45,91%</t>
+  </si>
+  <si>
+    <t>73,48%</t>
+  </si>
+  <si>
+    <t>44,97%</t>
+  </si>
+  <si>
+    <t>37,2%</t>
+  </si>
+  <si>
+    <t>54,01%</t>
+  </si>
+  <si>
+    <t>63,65%</t>
+  </si>
+  <si>
+    <t>51,47%</t>
+  </si>
+  <si>
+    <t>73,75%</t>
+  </si>
+  <si>
+    <t>39,86%</t>
+  </si>
+  <si>
+    <t>26,52%</t>
+  </si>
+  <si>
+    <t>54,09%</t>
+  </si>
+  <si>
+    <t>55,03%</t>
+  </si>
+  <si>
+    <t>45,99%</t>
+  </si>
+  <si>
+    <t>62,8%</t>
+  </si>
+  <si>
+    <t>38,57%</t>
+  </si>
+  <si>
+    <t>29,58%</t>
   </si>
   <si>
     <t>49,52%</t>
   </si>
   <si>
-    <t>56,58%</t>
-  </si>
-  <si>
-    <t>51,57%</t>
-  </si>
-  <si>
-    <t>61,54%</t>
-  </si>
-  <si>
-    <t>48,66%</t>
-  </si>
-  <si>
-    <t>42,5%</t>
-  </si>
-  <si>
-    <t>55,88%</t>
-  </si>
-  <si>
-    <t>54,06%</t>
+    <t>62,26%</t>
+  </si>
+  <si>
+    <t>51,06%</t>
+  </si>
+  <si>
+    <t>73,16%</t>
+  </si>
+  <si>
+    <t>47,74%</t>
+  </si>
+  <si>
+    <t>40,37%</t>
+  </si>
+  <si>
+    <t>54,99%</t>
+  </si>
+  <si>
+    <t>61,43%</t>
   </si>
   <si>
     <t>50,48%</t>
   </si>
   <si>
-    <t>58,27%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo le afecta de manera que se siente nervioso y estresado en 2012 (Tasa respuesta: 7,84%)</t>
-  </si>
-  <si>
-    <t>67,61%</t>
-  </si>
-  <si>
-    <t>31,45%</t>
-  </si>
-  <si>
-    <t>91,02%</t>
-  </si>
-  <si>
-    <t>58,86%</t>
-  </si>
-  <si>
-    <t>27,62%</t>
-  </si>
-  <si>
-    <t>88,41%</t>
-  </si>
-  <si>
-    <t>63,3%</t>
-  </si>
-  <si>
-    <t>37,94%</t>
-  </si>
-  <si>
-    <t>81,05%</t>
-  </si>
-  <si>
-    <t>32,39%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>68,55%</t>
-  </si>
-  <si>
-    <t>41,14%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>72,38%</t>
-  </si>
-  <si>
-    <t>36,7%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>62,06%</t>
-  </si>
-  <si>
-    <t>53,18%</t>
-  </si>
-  <si>
-    <t>42,09%</t>
-  </si>
-  <si>
-    <t>64,26%</t>
-  </si>
-  <si>
-    <t>54,74%</t>
-  </si>
-  <si>
-    <t>41,89%</t>
-  </si>
-  <si>
-    <t>67,48%</t>
-  </si>
-  <si>
-    <t>53,86%</t>
-  </si>
-  <si>
-    <t>45,38%</t>
-  </si>
-  <si>
-    <t>46,82%</t>
-  </si>
-  <si>
-    <t>35,74%</t>
-  </si>
-  <si>
-    <t>57,91%</t>
-  </si>
-  <si>
-    <t>45,26%</t>
-  </si>
-  <si>
-    <t>32,52%</t>
-  </si>
-  <si>
-    <t>58,11%</t>
-  </si>
-  <si>
-    <t>46,14%</t>
-  </si>
-  <si>
-    <t>54,62%</t>
-  </si>
-  <si>
-    <t>47,38%</t>
-  </si>
-  <si>
-    <t>37,57%</t>
+    <t>70,42%</t>
+  </si>
+  <si>
+    <t>37,74%</t>
+  </si>
+  <si>
+    <t>26,84%</t>
+  </si>
+  <si>
+    <t>48,94%</t>
+  </si>
+  <si>
+    <t>52,26%</t>
+  </si>
+  <si>
+    <t>45,01%</t>
+  </si>
+  <si>
+    <t>59,63%</t>
+  </si>
+  <si>
+    <t>50,64%</t>
+  </si>
+  <si>
+    <t>40,46%</t>
+  </si>
+  <si>
+    <t>62,38%</t>
+  </si>
+  <si>
+    <t>55,95%</t>
+  </si>
+  <si>
+    <t>40,97%</t>
+  </si>
+  <si>
+    <t>68,66%</t>
+  </si>
+  <si>
+    <t>44,32%</t>
+  </si>
+  <si>
+    <t>61,59%</t>
+  </si>
+  <si>
+    <t>49,36%</t>
+  </si>
+  <si>
+    <t>37,62%</t>
+  </si>
+  <si>
+    <t>59,54%</t>
+  </si>
+  <si>
+    <t>44,05%</t>
+  </si>
+  <si>
+    <t>31,34%</t>
+  </si>
+  <si>
+    <t>59,03%</t>
+  </si>
+  <si>
+    <t>38,41%</t>
+  </si>
+  <si>
+    <t>55,68%</t>
+  </si>
+  <si>
+    <t>55,05%</t>
+  </si>
+  <si>
+    <t>39,18%</t>
+  </si>
+  <si>
+    <t>70,22%</t>
+  </si>
+  <si>
+    <t>63,68%</t>
+  </si>
+  <si>
+    <t>42,32%</t>
+  </si>
+  <si>
+    <t>81,41%</t>
+  </si>
+  <si>
+    <t>58,56%</t>
+  </si>
+  <si>
+    <t>45,47%</t>
+  </si>
+  <si>
+    <t>69,52%</t>
+  </si>
+  <si>
+    <t>44,95%</t>
+  </si>
+  <si>
+    <t>29,78%</t>
+  </si>
+  <si>
+    <t>60,82%</t>
+  </si>
+  <si>
+    <t>36,32%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>57,68%</t>
+  </si>
+  <si>
+    <t>41,44%</t>
+  </si>
+  <si>
+    <t>30,48%</t>
+  </si>
+  <si>
+    <t>54,53%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>43,43%</t>
+  </si>
+  <si>
+    <t>38,31%</t>
+  </si>
+  <si>
+    <t>60,58%</t>
+  </si>
+  <si>
+    <t>66,93%</t>
+  </si>
+  <si>
+    <t>49,98%</t>
+  </si>
+  <si>
+    <t>45,56%</t>
+  </si>
+  <si>
+    <t>54,33%</t>
+  </si>
+  <si>
+    <t>56,57%</t>
+  </si>
+  <si>
+    <t>61,69%</t>
+  </si>
+  <si>
+    <t>39,42%</t>
+  </si>
+  <si>
+    <t>33,07%</t>
+  </si>
+  <si>
+    <t>50,02%</t>
+  </si>
+  <si>
+    <t>45,67%</t>
+  </si>
+  <si>
+    <t>54,44%</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo le afecta de manera que se siente nervioso y estresado en 2023 (Tasa respuesta: 9,29%)</t>
+  </si>
+  <si>
+    <t>54,78%</t>
+  </si>
+  <si>
+    <t>85,82%</t>
+  </si>
+  <si>
+    <t>52,2%</t>
+  </si>
+  <si>
+    <t>77,35%</t>
+  </si>
+  <si>
+    <t>40,29%</t>
+  </si>
+  <si>
+    <t>95,23%</t>
+  </si>
+  <si>
+    <t>45,22%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>47,8%</t>
+  </si>
+  <si>
+    <t>22,65%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>59,71%</t>
+  </si>
+  <si>
+    <t>73,65%</t>
   </si>
   <si>
     <t>57,44%</t>
   </si>
   <si>
-    <t>61,53%</t>
-  </si>
-  <si>
-    <t>49,88%</t>
-  </si>
-  <si>
-    <t>72,94%</t>
-  </si>
-  <si>
-    <t>53,41%</t>
-  </si>
-  <si>
-    <t>45,69%</t>
-  </si>
-  <si>
-    <t>61,3%</t>
-  </si>
-  <si>
-    <t>52,62%</t>
+    <t>87,03%</t>
+  </si>
+  <si>
+    <t>71,29%</t>
+  </si>
+  <si>
+    <t>57,46%</t>
+  </si>
+  <si>
+    <t>82,29%</t>
+  </si>
+  <si>
+    <t>72,5%</t>
+  </si>
+  <si>
+    <t>61,06%</t>
+  </si>
+  <si>
+    <t>81,67%</t>
+  </si>
+  <si>
+    <t>26,35%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
   </si>
   <si>
     <t>42,56%</t>
   </si>
   <si>
-    <t>62,43%</t>
-  </si>
-  <si>
-    <t>38,47%</t>
-  </si>
-  <si>
-    <t>27,06%</t>
-  </si>
-  <si>
-    <t>50,12%</t>
-  </si>
-  <si>
-    <t>46,59%</t>
-  </si>
-  <si>
-    <t>38,7%</t>
-  </si>
-  <si>
-    <t>54,31%</t>
-  </si>
-  <si>
-    <t>38,36%</t>
-  </si>
-  <si>
-    <t>28,44%</t>
-  </si>
-  <si>
-    <t>49,71%</t>
-  </si>
-  <si>
-    <t>51,21%</t>
-  </si>
-  <si>
-    <t>36,05%</t>
-  </si>
-  <si>
-    <t>68,18%</t>
-  </si>
-  <si>
-    <t>42,45%</t>
-  </si>
-  <si>
-    <t>33,79%</t>
-  </si>
-  <si>
-    <t>52,11%</t>
-  </si>
-  <si>
-    <t>61,64%</t>
-  </si>
-  <si>
-    <t>50,29%</t>
-  </si>
-  <si>
-    <t>71,56%</t>
-  </si>
-  <si>
-    <t>48,79%</t>
-  </si>
-  <si>
-    <t>31,82%</t>
-  </si>
-  <si>
-    <t>63,95%</t>
-  </si>
-  <si>
-    <t>57,55%</t>
-  </si>
-  <si>
-    <t>47,89%</t>
-  </si>
-  <si>
-    <t>66,21%</t>
-  </si>
-  <si>
-    <t>45,59%</t>
-  </si>
-  <si>
-    <t>31,22%</t>
-  </si>
-  <si>
-    <t>60,85%</t>
-  </si>
-  <si>
-    <t>63,53%</t>
-  </si>
-  <si>
-    <t>41,37%</t>
-  </si>
-  <si>
-    <t>82,51%</t>
-  </si>
-  <si>
-    <t>52,23%</t>
-  </si>
-  <si>
-    <t>39,31%</t>
+    <t>28,71%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>42,54%</t>
+  </si>
+  <si>
+    <t>27,5%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>38,94%</t>
+  </si>
+  <si>
+    <t>42,71%</t>
+  </si>
+  <si>
+    <t>65,02%</t>
+  </si>
+  <si>
+    <t>51,37%</t>
+  </si>
+  <si>
+    <t>69,58%</t>
+  </si>
+  <si>
+    <t>57,43%</t>
+  </si>
+  <si>
+    <t>50,31%</t>
   </si>
   <si>
     <t>64,39%</t>
   </si>
   <si>
-    <t>54,41%</t>
-  </si>
-  <si>
-    <t>39,15%</t>
-  </si>
-  <si>
-    <t>68,78%</t>
-  </si>
-  <si>
-    <t>36,47%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>58,63%</t>
-  </si>
-  <si>
-    <t>47,77%</t>
+    <t>34,98%</t>
+  </si>
+  <si>
+    <t>57,29%</t>
+  </si>
+  <si>
+    <t>30,42%</t>
+  </si>
+  <si>
+    <t>48,63%</t>
+  </si>
+  <si>
+    <t>42,57%</t>
   </si>
   <si>
     <t>35,61%</t>
   </si>
   <si>
-    <t>60,69%</t>
-  </si>
-  <si>
-    <t>46,87%</t>
-  </si>
-  <si>
-    <t>41,03%</t>
-  </si>
-  <si>
-    <t>52,06%</t>
-  </si>
-  <si>
-    <t>57,54%</t>
-  </si>
-  <si>
-    <t>49,47%</t>
-  </si>
-  <si>
-    <t>63,88%</t>
-  </si>
-  <si>
-    <t>51,13%</t>
-  </si>
-  <si>
-    <t>47,09%</t>
-  </si>
-  <si>
-    <t>55,93%</t>
-  </si>
-  <si>
-    <t>53,13%</t>
-  </si>
-  <si>
-    <t>47,94%</t>
-  </si>
-  <si>
-    <t>58,97%</t>
-  </si>
-  <si>
-    <t>42,46%</t>
-  </si>
-  <si>
-    <t>36,12%</t>
-  </si>
-  <si>
-    <t>50,53%</t>
-  </si>
-  <si>
-    <t>48,87%</t>
-  </si>
-  <si>
-    <t>44,07%</t>
-  </si>
-  <si>
-    <t>52,91%</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo le afecta de manera que se siente nervioso y estresado en 2015 (Tasa respuesta: 8,05%)</t>
-  </si>
-  <si>
-    <t>34,09%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>62,83%</t>
-  </si>
-  <si>
-    <t>66,12%</t>
-  </si>
-  <si>
-    <t>32,84%</t>
-  </si>
-  <si>
-    <t>91,44%</t>
-  </si>
-  <si>
-    <t>47,04%</t>
-  </si>
-  <si>
-    <t>28,26%</t>
-  </si>
-  <si>
-    <t>65,58%</t>
-  </si>
-  <si>
-    <t>65,91%</t>
-  </si>
-  <si>
-    <t>37,17%</t>
-  </si>
-  <si>
-    <t>87,27%</t>
-  </si>
-  <si>
-    <t>33,88%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>67,16%</t>
-  </si>
-  <si>
-    <t>52,96%</t>
-  </si>
-  <si>
-    <t>34,42%</t>
-  </si>
-  <si>
-    <t>71,74%</t>
-  </si>
-  <si>
-    <t>36,35%</t>
-  </si>
-  <si>
-    <t>26,09%</t>
-  </si>
-  <si>
-    <t>47,29%</t>
-  </si>
-  <si>
-    <t>60,14%</t>
-  </si>
-  <si>
-    <t>44,0%</t>
-  </si>
-  <si>
-    <t>73,2%</t>
-  </si>
-  <si>
-    <t>44,97%</t>
-  </si>
-  <si>
-    <t>35,89%</t>
-  </si>
-  <si>
-    <t>53,78%</t>
-  </si>
-  <si>
-    <t>63,65%</t>
-  </si>
-  <si>
-    <t>52,71%</t>
-  </si>
-  <si>
-    <t>73,91%</t>
-  </si>
-  <si>
-    <t>39,86%</t>
-  </si>
-  <si>
-    <t>26,8%</t>
-  </si>
-  <si>
-    <t>56,0%</t>
-  </si>
-  <si>
-    <t>55,03%</t>
-  </si>
-  <si>
-    <t>46,22%</t>
-  </si>
-  <si>
-    <t>64,11%</t>
-  </si>
-  <si>
-    <t>38,57%</t>
-  </si>
-  <si>
-    <t>29,02%</t>
-  </si>
-  <si>
-    <t>48,45%</t>
-  </si>
-  <si>
-    <t>62,26%</t>
-  </si>
-  <si>
-    <t>51,65%</t>
-  </si>
-  <si>
-    <t>72,69%</t>
-  </si>
-  <si>
-    <t>47,74%</t>
-  </si>
-  <si>
-    <t>40,29%</t>
-  </si>
-  <si>
-    <t>54,84%</t>
-  </si>
-  <si>
-    <t>61,43%</t>
-  </si>
-  <si>
-    <t>51,55%</t>
-  </si>
-  <si>
-    <t>70,98%</t>
-  </si>
-  <si>
-    <t>37,74%</t>
-  </si>
-  <si>
-    <t>27,31%</t>
-  </si>
-  <si>
-    <t>48,35%</t>
-  </si>
-  <si>
-    <t>52,26%</t>
-  </si>
-  <si>
-    <t>45,16%</t>
-  </si>
-  <si>
-    <t>59,71%</t>
-  </si>
-  <si>
-    <t>50,64%</t>
-  </si>
-  <si>
-    <t>39,1%</t>
-  </si>
-  <si>
-    <t>61,56%</t>
-  </si>
-  <si>
-    <t>55,95%</t>
-  </si>
-  <si>
-    <t>42,38%</t>
-  </si>
-  <si>
-    <t>68,71%</t>
-  </si>
-  <si>
-    <t>43,2%</t>
-  </si>
-  <si>
-    <t>61,48%</t>
-  </si>
-  <si>
-    <t>49,36%</t>
-  </si>
-  <si>
-    <t>38,44%</t>
-  </si>
-  <si>
-    <t>60,9%</t>
-  </si>
-  <si>
-    <t>44,05%</t>
-  </si>
-  <si>
-    <t>31,29%</t>
-  </si>
-  <si>
-    <t>57,62%</t>
-  </si>
-  <si>
-    <t>38,52%</t>
-  </si>
-  <si>
-    <t>56,8%</t>
-  </si>
-  <si>
-    <t>55,05%</t>
-  </si>
-  <si>
-    <t>68,81%</t>
-  </si>
-  <si>
-    <t>63,68%</t>
-  </si>
-  <si>
-    <t>42,42%</t>
-  </si>
-  <si>
-    <t>82,29%</t>
-  </si>
-  <si>
-    <t>58,56%</t>
-  </si>
-  <si>
-    <t>45,67%</t>
-  </si>
-  <si>
-    <t>69,5%</t>
-  </si>
-  <si>
-    <t>44,95%</t>
-  </si>
-  <si>
-    <t>31,19%</t>
-  </si>
-  <si>
-    <t>36,32%</t>
-  </si>
-  <si>
-    <t>17,71%</t>
-  </si>
-  <si>
-    <t>57,58%</t>
-  </si>
-  <si>
-    <t>41,44%</t>
-  </si>
-  <si>
-    <t>30,5%</t>
-  </si>
-  <si>
-    <t>54,33%</t>
-  </si>
-  <si>
-    <t>43,07%</t>
-  </si>
-  <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>43,43%</t>
-  </si>
-  <si>
-    <t>38,13%</t>
-  </si>
-  <si>
-    <t>49,1%</t>
-  </si>
-  <si>
-    <t>60,58%</t>
-  </si>
-  <si>
-    <t>53,42%</t>
-  </si>
-  <si>
-    <t>66,65%</t>
-  </si>
-  <si>
-    <t>49,98%</t>
-  </si>
-  <si>
-    <t>45,54%</t>
-  </si>
-  <si>
-    <t>54,18%</t>
-  </si>
-  <si>
-    <t>56,57%</t>
-  </si>
-  <si>
-    <t>50,9%</t>
-  </si>
-  <si>
-    <t>61,87%</t>
-  </si>
-  <si>
-    <t>39,42%</t>
-  </si>
-  <si>
-    <t>33,35%</t>
-  </si>
-  <si>
-    <t>46,58%</t>
-  </si>
-  <si>
-    <t>50,02%</t>
-  </si>
-  <si>
-    <t>45,82%</t>
-  </si>
-  <si>
-    <t>54,46%</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo le afecta de manera que se siente nervioso y estresado en 2023 (Tasa respuesta: 9,29%)</t>
-  </si>
-  <si>
-    <t>54,78%</t>
-  </si>
-  <si>
-    <t>85,82%</t>
-  </si>
-  <si>
-    <t>53,21%</t>
-  </si>
-  <si>
-    <t>77,35%</t>
-  </si>
-  <si>
-    <t>46,51%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>45,22%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>46,79%</t>
-  </si>
-  <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>53,49%</t>
-  </si>
-  <si>
-    <t>73,65%</t>
-  </si>
-  <si>
-    <t>57,93%</t>
-  </si>
-  <si>
-    <t>86,17%</t>
-  </si>
-  <si>
-    <t>71,29%</t>
-  </si>
-  <si>
-    <t>58,37%</t>
-  </si>
-  <si>
-    <t>83,54%</t>
-  </si>
-  <si>
-    <t>72,5%</t>
-  </si>
-  <si>
-    <t>61,32%</t>
-  </si>
-  <si>
-    <t>81,6%</t>
-  </si>
-  <si>
-    <t>26,35%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>42,07%</t>
-  </si>
-  <si>
-    <t>28,71%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>41,63%</t>
-  </si>
-  <si>
-    <t>27,5%</t>
-  </si>
-  <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>38,68%</t>
-  </si>
-  <si>
-    <t>44,63%</t>
-  </si>
-  <si>
-    <t>64,79%</t>
-  </si>
-  <si>
-    <t>60,66%</t>
-  </si>
-  <si>
-    <t>51,44%</t>
-  </si>
-  <si>
-    <t>69,31%</t>
-  </si>
-  <si>
-    <t>57,43%</t>
-  </si>
-  <si>
-    <t>50,24%</t>
-  </si>
-  <si>
-    <t>64,23%</t>
-  </si>
-  <si>
-    <t>35,21%</t>
-  </si>
-  <si>
-    <t>55,37%</t>
-  </si>
-  <si>
-    <t>39,34%</t>
-  </si>
-  <si>
-    <t>30,69%</t>
-  </si>
-  <si>
-    <t>48,56%</t>
-  </si>
-  <si>
-    <t>42,57%</t>
-  </si>
-  <si>
-    <t>35,77%</t>
-  </si>
-  <si>
-    <t>49,76%</t>
+    <t>49,69%</t>
   </si>
   <si>
     <t>63,56%</t>
   </si>
   <si>
-    <t>72,6%</t>
+    <t>54,21%</t>
+  </si>
+  <si>
+    <t>73,25%</t>
   </si>
   <si>
     <t>61,8%</t>
   </si>
   <si>
-    <t>71,53%</t>
+    <t>71,88%</t>
   </si>
   <si>
     <t>62,58%</t>
   </si>
   <si>
-    <t>53,5%</t>
+    <t>69,45%</t>
   </si>
   <si>
     <t>36,44%</t>
   </si>
   <si>
-    <t>27,4%</t>
+    <t>26,75%</t>
+  </si>
+  <si>
+    <t>45,79%</t>
   </si>
   <si>
     <t>38,2%</t>
   </si>
   <si>
-    <t>28,47%</t>
+    <t>28,12%</t>
   </si>
   <si>
     <t>37,42%</t>
   </si>
   <si>
-    <t>46,5%</t>
+    <t>30,55%</t>
   </si>
   <si>
     <t>64,08%</t>
   </si>
   <si>
-    <t>51,97%</t>
-  </si>
-  <si>
-    <t>74,9%</t>
+    <t>52,09%</t>
+  </si>
+  <si>
+    <t>74,61%</t>
   </si>
   <si>
     <t>66,61%</t>
   </si>
   <si>
-    <t>56,88%</t>
-  </si>
-  <si>
-    <t>74,77%</t>
+    <t>57,51%</t>
+  </si>
+  <si>
+    <t>75,01%</t>
   </si>
   <si>
     <t>65,24%</t>
   </si>
   <si>
-    <t>57,95%</t>
-  </si>
-  <si>
-    <t>72,44%</t>
+    <t>57,47%</t>
+  </si>
+  <si>
+    <t>72,42%</t>
   </si>
   <si>
     <t>35,92%</t>
   </si>
   <si>
-    <t>25,1%</t>
-  </si>
-  <si>
-    <t>48,03%</t>
+    <t>25,39%</t>
+  </si>
+  <si>
+    <t>47,91%</t>
   </si>
   <si>
     <t>33,39%</t>
   </si>
   <si>
-    <t>25,23%</t>
-  </si>
-  <si>
-    <t>43,12%</t>
+    <t>24,99%</t>
+  </si>
+  <si>
+    <t>42,49%</t>
   </si>
   <si>
     <t>34,76%</t>
   </si>
   <si>
-    <t>27,56%</t>
-  </si>
-  <si>
-    <t>42,05%</t>
+    <t>27,58%</t>
+  </si>
+  <si>
+    <t>42,53%</t>
   </si>
   <si>
     <t>25,91%</t>
@@ -1322,16 +1304,16 @@
     <t>65,6%</t>
   </si>
   <si>
-    <t>25,27%</t>
+    <t>12,95%</t>
   </si>
   <si>
     <t>45,88%</t>
   </si>
   <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>76,81%</t>
+    <t>18,43%</t>
+  </si>
+  <si>
+    <t>80,86%</t>
   </si>
   <si>
     <t>74,09%</t>
@@ -1343,70 +1325,64 @@
     <t>34,4%</t>
   </si>
   <si>
-    <t>74,73%</t>
+    <t>87,05%</t>
   </si>
   <si>
     <t>54,12%</t>
   </si>
   <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>82,37%</t>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>81,57%</t>
   </si>
   <si>
     <t>62,39%</t>
   </si>
   <si>
-    <t>56,43%</t>
-  </si>
-  <si>
-    <t>67,18%</t>
+    <t>67,46%</t>
   </si>
   <si>
     <t>64,98%</t>
   </si>
   <si>
-    <t>57,3%</t>
-  </si>
-  <si>
-    <t>70,0%</t>
+    <t>57,15%</t>
+  </si>
+  <si>
+    <t>69,7%</t>
   </si>
   <si>
     <t>63,7%</t>
   </si>
   <si>
-    <t>58,81%</t>
-  </si>
-  <si>
-    <t>67,57%</t>
+    <t>59,1%</t>
+  </si>
+  <si>
+    <t>67,4%</t>
   </si>
   <si>
     <t>37,61%</t>
   </si>
   <si>
-    <t>32,82%</t>
-  </si>
-  <si>
-    <t>43,57%</t>
+    <t>32,54%</t>
   </si>
   <si>
     <t>35,02%</t>
   </si>
   <si>
-    <t>30,0%</t>
-  </si>
-  <si>
-    <t>42,7%</t>
+    <t>30,3%</t>
+  </si>
+  <si>
+    <t>42,85%</t>
   </si>
   <si>
     <t>36,3%</t>
   </si>
   <si>
-    <t>32,43%</t>
-  </si>
-  <si>
-    <t>41,19%</t>
+    <t>32,6%</t>
+  </si>
+  <si>
+    <t>40,9%</t>
   </si>
 </sst>
 </file>
@@ -1818,7 +1794,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B4290E0-AC68-4571-AB26-71A8A5B4D1ED}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE13632C-03E5-4B65-9469-43AC796CCF11}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3031,7 +3007,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6079748-5AD1-4D2F-BD3C-7BBF020E8BD4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85EB2283-D525-4FB7-9569-ACD1A63166EC}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3346,7 +3322,7 @@
         <v>159</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3361,13 +3337,13 @@
         <v>40400</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H8" s="7">
         <v>28</v>
@@ -3376,13 +3352,13 @@
         <v>30377</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M8" s="7">
         <v>68</v>
@@ -3391,13 +3367,13 @@
         <v>70776</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>141</v>
+        <v>168</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3465,13 +3441,13 @@
         <v>46375</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H10" s="7">
         <v>43</v>
@@ -3480,13 +3456,13 @@
         <v>44690</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="M10" s="7">
         <v>86</v>
@@ -3495,13 +3471,13 @@
         <v>91065</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3516,13 +3492,13 @@
         <v>51501</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H11" s="7">
         <v>25</v>
@@ -3531,13 +3507,13 @@
         <v>27941</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="M11" s="7">
         <v>78</v>
@@ -3546,13 +3522,13 @@
         <v>79442</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3620,13 +3596,13 @@
         <v>34053</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="H13" s="7">
         <v>19</v>
@@ -3635,13 +3611,13 @@
         <v>21224</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="M13" s="7">
         <v>52</v>
@@ -3650,13 +3626,13 @@
         <v>55277</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>194</v>
+        <v>124</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3671,13 +3647,13 @@
         <v>54727</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H14" s="7">
         <v>18</v>
@@ -3686,13 +3662,13 @@
         <v>20222</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M14" s="7">
         <v>67</v>
@@ -3701,10 +3677,10 @@
         <v>74949</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>202</v>
+        <v>116</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>203</v>
@@ -3793,10 +3769,10 @@
         <v>207</v>
       </c>
       <c r="K16" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>209</v>
       </c>
       <c r="M16" s="7">
         <v>33</v>
@@ -3805,13 +3781,13 @@
         <v>34690</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3826,13 +3802,13 @@
         <v>22761</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>215</v>
       </c>
       <c r="H17" s="7">
         <v>8</v>
@@ -3841,13 +3817,13 @@
         <v>8965</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="K17" s="7" t="s">
-        <v>217</v>
-      </c>
       <c r="L17" s="7" t="s">
-        <v>218</v>
+        <v>166</v>
       </c>
       <c r="M17" s="7">
         <v>30</v>
@@ -3856,13 +3832,13 @@
         <v>31726</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4067,13 +4043,13 @@
         <v>152372</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>224</v>
       </c>
       <c r="H22" s="7">
         <v>115</v>
@@ -4082,13 +4058,13 @@
         <v>124186</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>227</v>
       </c>
       <c r="M22" s="7">
         <v>260</v>
@@ -4097,13 +4073,13 @@
         <v>276557</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>230</v>
+        <v>105</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4118,13 +4094,13 @@
         <v>172733</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="H23" s="7">
         <v>83</v>
@@ -4133,13 +4109,13 @@
         <v>91642</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="M23" s="7">
         <v>250</v>
@@ -4148,13 +4124,13 @@
         <v>264375</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>238</v>
+        <v>97</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4232,7 +4208,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D254E60-A2F6-44D1-8BCB-95269EDBF148}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7C815A0-F025-4958-8CB5-DDCA3BF3B71C}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4249,7 +4225,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4356,13 +4332,13 @@
         <v>5846</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="H4" s="7">
         <v>8</v>
@@ -4371,13 +4347,13 @@
         <v>7698</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="M4" s="7">
         <v>13</v>
@@ -4386,13 +4362,13 @@
         <v>13544</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4407,13 +4383,13 @@
         <v>11305</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="H5" s="7">
         <v>4</v>
@@ -4422,13 +4398,13 @@
         <v>3945</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="M5" s="7">
         <v>15</v>
@@ -4437,13 +4413,13 @@
         <v>15250</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4511,13 +4487,13 @@
         <v>29655</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="H7" s="7">
         <v>29</v>
@@ -4526,13 +4502,13 @@
         <v>27839</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="M7" s="7">
         <v>57</v>
@@ -4541,13 +4517,13 @@
         <v>57494</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4562,13 +4538,13 @@
         <v>51917</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="H8" s="7">
         <v>19</v>
@@ -4577,13 +4553,13 @@
         <v>18452</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="M8" s="7">
         <v>67</v>
@@ -4592,13 +4568,13 @@
         <v>70369</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4666,13 +4642,13 @@
         <v>43626</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="H10" s="7">
         <v>44</v>
@@ -4681,13 +4657,13 @@
         <v>44490</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="M10" s="7">
         <v>83</v>
@@ -4696,13 +4672,13 @@
         <v>88117</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4717,13 +4693,13 @@
         <v>69497</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="H11" s="7">
         <v>27</v>
@@ -4732,13 +4708,13 @@
         <v>26968</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="M11" s="7">
         <v>94</v>
@@ -4747,13 +4723,13 @@
         <v>96464</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4821,13 +4797,13 @@
         <v>46301</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="H13" s="7">
         <v>27</v>
@@ -4836,13 +4812,13 @@
         <v>31394</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="M13" s="7">
         <v>68</v>
@@ -4854,10 +4830,10 @@
         <v>85</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4872,13 +4848,13 @@
         <v>45127</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="H14" s="7">
         <v>23</v>
@@ -4887,13 +4863,13 @@
         <v>24713</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="M14" s="7">
         <v>64</v>
@@ -4905,10 +4881,10 @@
         <v>76</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4976,13 +4952,13 @@
         <v>24687</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>11</v>
+        <v>308</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="H16" s="7">
         <v>17</v>
@@ -4991,13 +4967,13 @@
         <v>19613</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="M16" s="7">
         <v>39</v>
@@ -5006,13 +4982,13 @@
         <v>44300</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5027,13 +5003,13 @@
         <v>20161</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>21</v>
+        <v>318</v>
       </c>
       <c r="H17" s="7">
         <v>9</v>
@@ -5042,13 +5018,13 @@
         <v>11186</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>321</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>323</v>
       </c>
       <c r="M17" s="7">
         <v>27</v>
@@ -5057,13 +5033,13 @@
         <v>31346</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>324</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5134,7 +5110,7 @@
         <v>108</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>30</v>
@@ -5162,7 +5138,7 @@
         <v>108</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>30</v>
@@ -5186,7 +5162,7 @@
         <v>112</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -5214,7 +5190,7 @@
         <v>112</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5280,13 +5256,13 @@
         <v>151995</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>331</v>
+        <v>233</v>
       </c>
       <c r="H22" s="7">
         <v>125</v>
@@ -5295,13 +5271,13 @@
         <v>131034</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>333</v>
+        <v>263</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="M22" s="7">
         <v>262</v>
@@ -5310,13 +5286,13 @@
         <v>283029</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5331,13 +5307,13 @@
         <v>198006</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>339</v>
+        <v>224</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="H23" s="7">
         <v>82</v>
@@ -5346,13 +5322,13 @@
         <v>85264</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>343</v>
+        <v>271</v>
       </c>
       <c r="M23" s="7">
         <v>267</v>
@@ -5361,13 +5337,13 @@
         <v>283270</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5445,7 +5421,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA6D959F-1546-4CB3-907E-4D2BE4C39785}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{219524E0-D0A7-4A0B-AC69-704C40E2F723}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5462,7 +5438,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5569,7 +5545,7 @@
         <v>3505</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>111</v>
@@ -5584,10 +5560,10 @@
         <v>14621</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>108</v>
@@ -5599,13 +5575,13 @@
         <v>18126</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5620,7 +5596,7 @@
         <v>2893</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>111</v>
@@ -5635,13 +5611,13 @@
         <v>2416</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>111</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="M5" s="7">
         <v>4</v>
@@ -5650,13 +5626,13 @@
         <v>5309</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5724,13 +5700,13 @@
         <v>43035</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="H7" s="7">
         <v>33</v>
@@ -5739,13 +5715,13 @@
         <v>39848</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="M7" s="7">
         <v>64</v>
@@ -5754,13 +5730,13 @@
         <v>82883</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5775,13 +5751,13 @@
         <v>15397</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="H8" s="7">
         <v>15</v>
@@ -5790,13 +5766,13 @@
         <v>16049</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="M8" s="7">
         <v>26</v>
@@ -5805,13 +5781,13 @@
         <v>31446</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5879,13 +5855,13 @@
         <v>54087</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="H10" s="7">
         <v>69</v>
@@ -5894,13 +5870,13 @@
         <v>49168</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>380</v>
+        <v>206</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="M10" s="7">
         <v>120</v>
@@ -5909,13 +5885,13 @@
         <v>103254</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5930,13 +5906,13 @@
         <v>44653</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="H11" s="7">
         <v>48</v>
@@ -5945,13 +5921,13 @@
         <v>31882</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>388</v>
+        <v>213</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="M11" s="7">
         <v>94</v>
@@ -5960,13 +5936,13 @@
         <v>76536</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6034,13 +6010,13 @@
         <v>72834</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>19</v>
+        <v>387</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="H13" s="7">
         <v>133</v>
@@ -6049,13 +6025,13 @@
         <v>89008</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>76</v>
+        <v>28</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="M13" s="7">
         <v>202</v>
@@ -6064,13 +6040,13 @@
         <v>161843</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>399</v>
+        <v>209</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>98</v>
+        <v>392</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6085,13 +6061,13 @@
         <v>41760</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>28</v>
+        <v>395</v>
       </c>
       <c r="H14" s="7">
         <v>58</v>
@@ -6100,13 +6076,13 @@
         <v>55023</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="M14" s="7">
         <v>102</v>
@@ -6115,13 +6091,13 @@
         <v>96783</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>89</v>
+        <v>399</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>405</v>
+        <v>217</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6189,13 +6165,13 @@
         <v>45986</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="H16" s="7">
         <v>66</v>
@@ -6204,13 +6180,13 @@
         <v>40012</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="M16" s="7">
         <v>114</v>
@@ -6219,13 +6195,13 @@
         <v>85998</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6240,13 +6216,13 @@
         <v>25777</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="H17" s="7">
         <v>36</v>
@@ -6255,13 +6231,13 @@
         <v>20053</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="M17" s="7">
         <v>65</v>
@@ -6270,13 +6246,13 @@
         <v>45830</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6344,13 +6320,13 @@
         <v>801</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>111</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="H19" s="7">
         <v>4</v>
@@ -6359,10 +6335,10 @@
         <v>2054</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>108</v>
@@ -6374,13 +6350,13 @@
         <v>2855</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6395,10 +6371,10 @@
         <v>2289</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>108</v>
@@ -6410,13 +6386,13 @@
         <v>1077</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>111</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="M20" s="7">
         <v>6</v>
@@ -6425,13 +6401,13 @@
         <v>3366</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6499,13 +6475,13 @@
         <v>220248</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>439</v>
+        <v>41</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="H22" s="7">
         <v>313</v>
@@ -6514,13 +6490,13 @@
         <v>234711</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="M22" s="7">
         <v>515</v>
@@ -6529,13 +6505,13 @@
         <v>454958</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6550,13 +6526,13 @@
         <v>132770</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>449</v>
+        <v>32</v>
       </c>
       <c r="H23" s="7">
         <v>161</v>
@@ -6565,13 +6541,13 @@
         <v>126500</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="M23" s="7">
         <v>297</v>
@@ -6580,13 +6556,13 @@
         <v>259270</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P6902-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P6902-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{22FDDCAC-C5BD-442D-AA0A-4168207B5532}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0F851F2F-CA7E-49CF-8C81-B88749564DE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F043C210-6FCE-4E2C-803F-A4F0AD764972}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6C7C8904-83A7-4FA8-AB98-CB6E154AAD71}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="448">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="442">
   <si>
     <t>Población según si su trabajo le afecta de manera que se siente nervioso y estresado en 2007 (Tasa respuesta: 10,21%)</t>
   </si>
@@ -77,1167 +77,1155 @@
     <t>39,09%</t>
   </si>
   <si>
-    <t>25,96%</t>
-  </si>
-  <si>
-    <t>54,5%</t>
+    <t>26,53%</t>
+  </si>
+  <si>
+    <t>55,42%</t>
   </si>
   <si>
     <t>47,61%</t>
   </si>
   <si>
-    <t>27,97%</t>
-  </si>
-  <si>
-    <t>71,11%</t>
+    <t>28,23%</t>
+  </si>
+  <si>
+    <t>71,22%</t>
   </si>
   <si>
     <t>41,65%</t>
   </si>
   <si>
-    <t>30,36%</t>
+    <t>28,78%</t>
+  </si>
+  <si>
+    <t>53,9%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>60,91%</t>
+  </si>
+  <si>
+    <t>44,58%</t>
+  </si>
+  <si>
+    <t>73,47%</t>
+  </si>
+  <si>
+    <t>52,39%</t>
+  </si>
+  <si>
+    <t>71,77%</t>
+  </si>
+  <si>
+    <t>58,35%</t>
+  </si>
+  <si>
+    <t>46,1%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>43,78%</t>
+  </si>
+  <si>
+    <t>36,37%</t>
+  </si>
+  <si>
+    <t>52,92%</t>
+  </si>
+  <si>
+    <t>56,62%</t>
+  </si>
+  <si>
+    <t>44,53%</t>
+  </si>
+  <si>
+    <t>67,63%</t>
+  </si>
+  <si>
+    <t>48,37%</t>
+  </si>
+  <si>
+    <t>41,14%</t>
+  </si>
+  <si>
+    <t>54,6%</t>
+  </si>
+  <si>
+    <t>56,22%</t>
+  </si>
+  <si>
+    <t>47,08%</t>
+  </si>
+  <si>
+    <t>63,63%</t>
+  </si>
+  <si>
+    <t>43,38%</t>
+  </si>
+  <si>
+    <t>32,37%</t>
+  </si>
+  <si>
+    <t>55,47%</t>
+  </si>
+  <si>
+    <t>51,63%</t>
+  </si>
+  <si>
+    <t>45,4%</t>
+  </si>
+  <si>
+    <t>58,86%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>46,27%</t>
+  </si>
+  <si>
+    <t>37,9%</t>
+  </si>
+  <si>
+    <t>55,75%</t>
+  </si>
+  <si>
+    <t>50,35%</t>
+  </si>
+  <si>
+    <t>37,61%</t>
+  </si>
+  <si>
+    <t>62,09%</t>
+  </si>
+  <si>
+    <t>47,73%</t>
+  </si>
+  <si>
+    <t>40,29%</t>
+  </si>
+  <si>
+    <t>54,64%</t>
+  </si>
+  <si>
+    <t>53,73%</t>
+  </si>
+  <si>
+    <t>44,25%</t>
+  </si>
+  <si>
+    <t>62,1%</t>
+  </si>
+  <si>
+    <t>49,65%</t>
+  </si>
+  <si>
+    <t>37,91%</t>
+  </si>
+  <si>
+    <t>62,39%</t>
+  </si>
+  <si>
+    <t>52,27%</t>
+  </si>
+  <si>
+    <t>45,36%</t>
+  </si>
+  <si>
+    <t>59,71%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>46,57%</t>
+  </si>
+  <si>
+    <t>37,21%</t>
+  </si>
+  <si>
+    <t>57,26%</t>
+  </si>
+  <si>
+    <t>49,66%</t>
+  </si>
+  <si>
+    <t>32,62%</t>
+  </si>
+  <si>
+    <t>65,23%</t>
+  </si>
+  <si>
+    <t>47,34%</t>
+  </si>
+  <si>
+    <t>38,66%</t>
+  </si>
+  <si>
+    <t>55,31%</t>
+  </si>
+  <si>
+    <t>53,43%</t>
+  </si>
+  <si>
+    <t>42,74%</t>
+  </si>
+  <si>
+    <t>62,79%</t>
+  </si>
+  <si>
+    <t>50,34%</t>
+  </si>
+  <si>
+    <t>34,77%</t>
+  </si>
+  <si>
+    <t>67,38%</t>
+  </si>
+  <si>
+    <t>52,66%</t>
+  </si>
+  <si>
+    <t>44,69%</t>
+  </si>
+  <si>
+    <t>61,34%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>30,17%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>44,73%</t>
+  </si>
+  <si>
+    <t>36,11%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>65,17%</t>
+  </si>
+  <si>
+    <t>31,55%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>43,48%</t>
+  </si>
+  <si>
+    <t>69,83%</t>
+  </si>
+  <si>
+    <t>55,27%</t>
+  </si>
+  <si>
+    <t>82,44%</t>
+  </si>
+  <si>
+    <t>63,89%</t>
+  </si>
+  <si>
+    <t>34,83%</t>
+  </si>
+  <si>
+    <t>85,47%</t>
+  </si>
+  <si>
+    <t>68,45%</t>
+  </si>
+  <si>
+    <t>56,52%</t>
+  </si>
+  <si>
+    <t>79,85%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>43,42%</t>
+  </si>
+  <si>
+    <t>38,54%</t>
+  </si>
+  <si>
+    <t>48,64%</t>
+  </si>
+  <si>
+    <t>51,34%</t>
+  </si>
+  <si>
+    <t>44,47%</t>
+  </si>
+  <si>
+    <t>57,62%</t>
+  </si>
+  <si>
+    <t>45,94%</t>
+  </si>
+  <si>
+    <t>42,05%</t>
+  </si>
+  <si>
+    <t>49,44%</t>
+  </si>
+  <si>
+    <t>56,58%</t>
+  </si>
+  <si>
+    <t>51,36%</t>
+  </si>
+  <si>
+    <t>61,46%</t>
+  </si>
+  <si>
+    <t>48,66%</t>
+  </si>
+  <si>
+    <t>42,38%</t>
+  </si>
+  <si>
+    <t>55,53%</t>
+  </si>
+  <si>
+    <t>54,06%</t>
+  </si>
+  <si>
+    <t>50,56%</t>
+  </si>
+  <si>
+    <t>57,95%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo le afecta de manera que se siente nervioso y estresado en 2012 (Tasa respuesta: 7,84%)</t>
+  </si>
+  <si>
+    <t>67,61%</t>
+  </si>
+  <si>
+    <t>30,58%</t>
+  </si>
+  <si>
+    <t>91,1%</t>
+  </si>
+  <si>
+    <t>28,24%</t>
+  </si>
+  <si>
+    <t>89,36%</t>
+  </si>
+  <si>
+    <t>63,3%</t>
+  </si>
+  <si>
+    <t>39,32%</t>
+  </si>
+  <si>
+    <t>83,73%</t>
+  </si>
+  <si>
+    <t>32,39%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>69,42%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>71,76%</t>
+  </si>
+  <si>
+    <t>36,7%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>60,68%</t>
+  </si>
+  <si>
+    <t>53,18%</t>
+  </si>
+  <si>
+    <t>42,67%</t>
+  </si>
+  <si>
+    <t>64,24%</t>
+  </si>
+  <si>
+    <t>54,74%</t>
+  </si>
+  <si>
+    <t>42,92%</t>
+  </si>
+  <si>
+    <t>65,88%</t>
+  </si>
+  <si>
+    <t>53,86%</t>
+  </si>
+  <si>
+    <t>45,84%</t>
+  </si>
+  <si>
+    <t>62,12%</t>
+  </si>
+  <si>
+    <t>46,82%</t>
+  </si>
+  <si>
+    <t>35,76%</t>
+  </si>
+  <si>
+    <t>57,33%</t>
+  </si>
+  <si>
+    <t>45,26%</t>
+  </si>
+  <si>
+    <t>34,12%</t>
+  </si>
+  <si>
+    <t>57,08%</t>
+  </si>
+  <si>
+    <t>46,14%</t>
+  </si>
+  <si>
+    <t>37,88%</t>
+  </si>
+  <si>
+    <t>54,16%</t>
+  </si>
+  <si>
+    <t>47,38%</t>
+  </si>
+  <si>
+    <t>37,1%</t>
+  </si>
+  <si>
+    <t>58,17%</t>
+  </si>
+  <si>
+    <t>61,53%</t>
+  </si>
+  <si>
+    <t>49,77%</t>
+  </si>
+  <si>
+    <t>73,95%</t>
+  </si>
+  <si>
+    <t>53,41%</t>
+  </si>
+  <si>
+    <t>45,77%</t>
+  </si>
+  <si>
+    <t>52,62%</t>
+  </si>
+  <si>
+    <t>41,83%</t>
+  </si>
+  <si>
+    <t>62,9%</t>
+  </si>
+  <si>
+    <t>38,47%</t>
+  </si>
+  <si>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>50,23%</t>
+  </si>
+  <si>
+    <t>46,59%</t>
+  </si>
+  <si>
+    <t>54,23%</t>
+  </si>
+  <si>
+    <t>38,36%</t>
+  </si>
+  <si>
+    <t>28,3%</t>
+  </si>
+  <si>
+    <t>49,1%</t>
+  </si>
+  <si>
+    <t>51,21%</t>
+  </si>
+  <si>
+    <t>34,61%</t>
+  </si>
+  <si>
+    <t>67,72%</t>
+  </si>
+  <si>
+    <t>42,45%</t>
+  </si>
+  <si>
+    <t>33,77%</t>
+  </si>
+  <si>
+    <t>51,88%</t>
+  </si>
+  <si>
+    <t>61,64%</t>
+  </si>
+  <si>
+    <t>50,9%</t>
+  </si>
+  <si>
+    <t>71,7%</t>
+  </si>
+  <si>
+    <t>48,79%</t>
+  </si>
+  <si>
+    <t>32,28%</t>
+  </si>
+  <si>
+    <t>65,39%</t>
+  </si>
+  <si>
+    <t>57,55%</t>
+  </si>
+  <si>
+    <t>48,12%</t>
+  </si>
+  <si>
+    <t>66,23%</t>
+  </si>
+  <si>
+    <t>45,59%</t>
+  </si>
+  <si>
+    <t>31,22%</t>
+  </si>
+  <si>
+    <t>60,52%</t>
+  </si>
+  <si>
+    <t>63,53%</t>
+  </si>
+  <si>
+    <t>42,29%</t>
+  </si>
+  <si>
+    <t>84,23%</t>
+  </si>
+  <si>
+    <t>52,23%</t>
+  </si>
+  <si>
+    <t>40,63%</t>
+  </si>
+  <si>
+    <t>65,08%</t>
+  </si>
+  <si>
+    <t>54,41%</t>
+  </si>
+  <si>
+    <t>39,48%</t>
+  </si>
+  <si>
+    <t>68,78%</t>
+  </si>
+  <si>
+    <t>36,47%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>57,71%</t>
+  </si>
+  <si>
+    <t>47,77%</t>
+  </si>
+  <si>
+    <t>34,92%</t>
+  </si>
+  <si>
+    <t>59,37%</t>
+  </si>
+  <si>
+    <t>46,87%</t>
+  </si>
+  <si>
+    <t>41,61%</t>
+  </si>
+  <si>
+    <t>57,54%</t>
+  </si>
+  <si>
+    <t>49,89%</t>
+  </si>
+  <si>
+    <t>64,06%</t>
+  </si>
+  <si>
+    <t>51,13%</t>
+  </si>
+  <si>
+    <t>46,92%</t>
+  </si>
+  <si>
+    <t>55,89%</t>
+  </si>
+  <si>
+    <t>53,13%</t>
+  </si>
+  <si>
+    <t>58,39%</t>
+  </si>
+  <si>
+    <t>42,46%</t>
+  </si>
+  <si>
+    <t>35,94%</t>
+  </si>
+  <si>
+    <t>50,11%</t>
+  </si>
+  <si>
+    <t>48,87%</t>
+  </si>
+  <si>
+    <t>44,11%</t>
+  </si>
+  <si>
+    <t>53,08%</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo le afecta de manera que se siente nervioso y estresado en 2016 (Tasa respuesta: 8,05%)</t>
+  </si>
+  <si>
+    <t>34,09%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>60,58%</t>
+  </si>
+  <si>
+    <t>66,12%</t>
+  </si>
+  <si>
+    <t>33,41%</t>
+  </si>
+  <si>
+    <t>87,06%</t>
+  </si>
+  <si>
+    <t>47,04%</t>
+  </si>
+  <si>
+    <t>28,69%</t>
+  </si>
+  <si>
+    <t>64,61%</t>
+  </si>
+  <si>
+    <t>65,91%</t>
+  </si>
+  <si>
+    <t>39,42%</t>
+  </si>
+  <si>
+    <t>87,24%</t>
+  </si>
+  <si>
+    <t>33,88%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>66,59%</t>
+  </si>
+  <si>
+    <t>52,96%</t>
+  </si>
+  <si>
+    <t>35,39%</t>
+  </si>
+  <si>
+    <t>71,31%</t>
+  </si>
+  <si>
+    <t>36,35%</t>
+  </si>
+  <si>
+    <t>27,36%</t>
+  </si>
+  <si>
+    <t>48,3%</t>
+  </si>
+  <si>
+    <t>60,14%</t>
+  </si>
+  <si>
+    <t>44,13%</t>
+  </si>
+  <si>
+    <t>73,96%</t>
+  </si>
+  <si>
+    <t>44,97%</t>
+  </si>
+  <si>
+    <t>52,88%</t>
+  </si>
+  <si>
+    <t>63,65%</t>
+  </si>
+  <si>
+    <t>51,7%</t>
+  </si>
+  <si>
+    <t>72,64%</t>
+  </si>
+  <si>
+    <t>39,86%</t>
+  </si>
+  <si>
+    <t>26,04%</t>
+  </si>
+  <si>
+    <t>55,87%</t>
+  </si>
+  <si>
+    <t>55,03%</t>
+  </si>
+  <si>
+    <t>47,12%</t>
+  </si>
+  <si>
+    <t>38,57%</t>
+  </si>
+  <si>
+    <t>29,73%</t>
+  </si>
+  <si>
+    <t>48,47%</t>
+  </si>
+  <si>
+    <t>62,26%</t>
+  </si>
+  <si>
+    <t>49,99%</t>
+  </si>
+  <si>
+    <t>73,32%</t>
+  </si>
+  <si>
+    <t>47,74%</t>
+  </si>
+  <si>
+    <t>39,52%</t>
+  </si>
+  <si>
+    <t>54,88%</t>
+  </si>
+  <si>
+    <t>61,43%</t>
+  </si>
+  <si>
+    <t>51,53%</t>
+  </si>
+  <si>
+    <t>70,27%</t>
+  </si>
+  <si>
+    <t>37,74%</t>
+  </si>
+  <si>
+    <t>26,68%</t>
+  </si>
+  <si>
+    <t>50,01%</t>
+  </si>
+  <si>
+    <t>52,26%</t>
+  </si>
+  <si>
+    <t>45,12%</t>
+  </si>
+  <si>
+    <t>60,48%</t>
+  </si>
+  <si>
+    <t>50,64%</t>
+  </si>
+  <si>
+    <t>39,84%</t>
+  </si>
+  <si>
+    <t>61,54%</t>
+  </si>
+  <si>
+    <t>55,95%</t>
+  </si>
+  <si>
+    <t>42,42%</t>
+  </si>
+  <si>
+    <t>68,94%</t>
+  </si>
+  <si>
+    <t>44,31%</t>
+  </si>
+  <si>
+    <t>61,33%</t>
+  </si>
+  <si>
+    <t>49,36%</t>
+  </si>
+  <si>
+    <t>38,46%</t>
+  </si>
+  <si>
+    <t>60,16%</t>
+  </si>
+  <si>
+    <t>44,05%</t>
+  </si>
+  <si>
+    <t>31,06%</t>
+  </si>
+  <si>
+    <t>57,58%</t>
+  </si>
+  <si>
+    <t>38,67%</t>
+  </si>
+  <si>
+    <t>55,69%</t>
+  </si>
+  <si>
+    <t>55,05%</t>
+  </si>
+  <si>
+    <t>39,23%</t>
+  </si>
+  <si>
+    <t>70,66%</t>
+  </si>
+  <si>
+    <t>63,68%</t>
+  </si>
+  <si>
+    <t>44,34%</t>
+  </si>
+  <si>
+    <t>80,27%</t>
+  </si>
+  <si>
+    <t>58,56%</t>
+  </si>
+  <si>
+    <t>46,78%</t>
+  </si>
+  <si>
+    <t>70,02%</t>
+  </si>
+  <si>
+    <t>44,95%</t>
+  </si>
+  <si>
+    <t>29,34%</t>
+  </si>
+  <si>
+    <t>60,77%</t>
+  </si>
+  <si>
+    <t>36,32%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>55,66%</t>
+  </si>
+  <si>
+    <t>41,44%</t>
+  </si>
+  <si>
+    <t>29,98%</t>
+  </si>
+  <si>
+    <t>53,22%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>43,43%</t>
+  </si>
+  <si>
+    <t>37,42%</t>
+  </si>
+  <si>
+    <t>49,09%</t>
+  </si>
+  <si>
+    <t>53,57%</t>
+  </si>
+  <si>
+    <t>67,32%</t>
+  </si>
+  <si>
+    <t>49,98%</t>
+  </si>
+  <si>
+    <t>45,91%</t>
+  </si>
+  <si>
+    <t>56,57%</t>
+  </si>
+  <si>
+    <t>50,91%</t>
+  </si>
+  <si>
+    <t>62,58%</t>
+  </si>
+  <si>
+    <t>32,68%</t>
+  </si>
+  <si>
+    <t>46,43%</t>
+  </si>
+  <si>
+    <t>50,02%</t>
+  </si>
+  <si>
+    <t>54,09%</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo le afecta de manera que se siente nervioso y estresado en 2023 (Tasa respuesta: 9,29%)</t>
+  </si>
+  <si>
+    <t>54,78%</t>
+  </si>
+  <si>
+    <t>85,82%</t>
+  </si>
+  <si>
+    <t>52,2%</t>
+  </si>
+  <si>
+    <t>77,35%</t>
+  </si>
+  <si>
+    <t>95,23%</t>
+  </si>
+  <si>
+    <t>45,22%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>47,8%</t>
+  </si>
+  <si>
+    <t>22,65%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>73,65%</t>
+  </si>
+  <si>
+    <t>57,44%</t>
+  </si>
+  <si>
+    <t>87,03%</t>
+  </si>
+  <si>
+    <t>71,29%</t>
+  </si>
+  <si>
+    <t>57,46%</t>
+  </si>
+  <si>
+    <t>82,29%</t>
+  </si>
+  <si>
+    <t>72,5%</t>
+  </si>
+  <si>
+    <t>61,06%</t>
+  </si>
+  <si>
+    <t>81,67%</t>
+  </si>
+  <si>
+    <t>26,35%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>42,56%</t>
+  </si>
+  <si>
+    <t>28,71%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>42,54%</t>
+  </si>
+  <si>
+    <t>27,5%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>38,94%</t>
+  </si>
+  <si>
+    <t>42,71%</t>
+  </si>
+  <si>
+    <t>65,02%</t>
+  </si>
+  <si>
+    <t>60,66%</t>
+  </si>
+  <si>
+    <t>51,37%</t>
+  </si>
+  <si>
+    <t>69,58%</t>
+  </si>
+  <si>
+    <t>57,43%</t>
+  </si>
+  <si>
+    <t>50,31%</t>
+  </si>
+  <si>
+    <t>64,39%</t>
+  </si>
+  <si>
+    <t>34,98%</t>
+  </si>
+  <si>
+    <t>57,29%</t>
+  </si>
+  <si>
+    <t>39,34%</t>
+  </si>
+  <si>
+    <t>30,42%</t>
+  </si>
+  <si>
+    <t>48,63%</t>
+  </si>
+  <si>
+    <t>42,57%</t>
+  </si>
+  <si>
+    <t>35,61%</t>
+  </si>
+  <si>
+    <t>49,69%</t>
+  </si>
+  <si>
+    <t>63,56%</t>
+  </si>
+  <si>
+    <t>54,21%</t>
+  </si>
+  <si>
+    <t>73,25%</t>
+  </si>
+  <si>
+    <t>61,8%</t>
+  </si>
+  <si>
+    <t>47,18%</t>
+  </si>
+  <si>
+    <t>71,88%</t>
+  </si>
+  <si>
+    <t>69,45%</t>
+  </si>
+  <si>
+    <t>36,44%</t>
+  </si>
+  <si>
+    <t>26,75%</t>
+  </si>
+  <si>
+    <t>45,79%</t>
+  </si>
+  <si>
+    <t>38,2%</t>
+  </si>
+  <si>
+    <t>28,12%</t>
   </si>
   <si>
     <t>52,82%</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>60,91%</t>
-  </si>
-  <si>
-    <t>45,5%</t>
-  </si>
-  <si>
-    <t>74,04%</t>
-  </si>
-  <si>
-    <t>52,39%</t>
-  </si>
-  <si>
-    <t>28,89%</t>
-  </si>
-  <si>
-    <t>72,03%</t>
-  </si>
-  <si>
-    <t>58,35%</t>
-  </si>
-  <si>
-    <t>47,18%</t>
-  </si>
-  <si>
-    <t>69,64%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>43,78%</t>
-  </si>
-  <si>
-    <t>35,22%</t>
-  </si>
-  <si>
-    <t>52,13%</t>
-  </si>
-  <si>
-    <t>56,62%</t>
-  </si>
-  <si>
-    <t>45,86%</t>
-  </si>
-  <si>
-    <t>67,66%</t>
-  </si>
-  <si>
-    <t>48,37%</t>
-  </si>
-  <si>
-    <t>41,56%</t>
-  </si>
-  <si>
-    <t>55,64%</t>
-  </si>
-  <si>
-    <t>56,22%</t>
-  </si>
-  <si>
-    <t>47,87%</t>
-  </si>
-  <si>
-    <t>64,78%</t>
-  </si>
-  <si>
-    <t>43,38%</t>
-  </si>
-  <si>
-    <t>32,34%</t>
-  </si>
-  <si>
-    <t>54,14%</t>
-  </si>
-  <si>
-    <t>51,63%</t>
-  </si>
-  <si>
-    <t>44,36%</t>
-  </si>
-  <si>
-    <t>58,44%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>46,27%</t>
-  </si>
-  <si>
-    <t>37,84%</t>
-  </si>
-  <si>
-    <t>55,96%</t>
-  </si>
-  <si>
-    <t>50,35%</t>
-  </si>
-  <si>
-    <t>38,93%</t>
-  </si>
-  <si>
-    <t>62,94%</t>
-  </si>
-  <si>
-    <t>47,73%</t>
-  </si>
-  <si>
-    <t>40,68%</t>
-  </si>
-  <si>
-    <t>55,37%</t>
-  </si>
-  <si>
-    <t>53,73%</t>
-  </si>
-  <si>
-    <t>44,04%</t>
-  </si>
-  <si>
-    <t>62,16%</t>
-  </si>
-  <si>
-    <t>49,65%</t>
-  </si>
-  <si>
-    <t>37,06%</t>
-  </si>
-  <si>
-    <t>61,07%</t>
-  </si>
-  <si>
-    <t>52,27%</t>
-  </si>
-  <si>
-    <t>44,63%</t>
-  </si>
-  <si>
-    <t>59,32%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>46,57%</t>
-  </si>
-  <si>
-    <t>37,16%</t>
-  </si>
-  <si>
-    <t>56,66%</t>
-  </si>
-  <si>
-    <t>49,66%</t>
-  </si>
-  <si>
-    <t>34,32%</t>
-  </si>
-  <si>
-    <t>65,18%</t>
-  </si>
-  <si>
-    <t>47,34%</t>
-  </si>
-  <si>
-    <t>38,86%</t>
-  </si>
-  <si>
-    <t>55,92%</t>
-  </si>
-  <si>
-    <t>53,43%</t>
-  </si>
-  <si>
-    <t>43,34%</t>
-  </si>
-  <si>
-    <t>62,84%</t>
-  </si>
-  <si>
-    <t>50,34%</t>
-  </si>
-  <si>
-    <t>34,82%</t>
-  </si>
-  <si>
-    <t>65,68%</t>
-  </si>
-  <si>
-    <t>52,66%</t>
-  </si>
-  <si>
-    <t>44,08%</t>
-  </si>
-  <si>
-    <t>61,14%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>30,17%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>43,37%</t>
-  </si>
-  <si>
-    <t>36,11%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>65,05%</t>
-  </si>
-  <si>
-    <t>31,55%</t>
-  </si>
-  <si>
-    <t>20,31%</t>
-  </si>
-  <si>
-    <t>44,13%</t>
-  </si>
-  <si>
-    <t>69,83%</t>
-  </si>
-  <si>
-    <t>56,63%</t>
-  </si>
-  <si>
-    <t>81,87%</t>
-  </si>
-  <si>
-    <t>63,89%</t>
-  </si>
-  <si>
-    <t>34,95%</t>
-  </si>
-  <si>
-    <t>85,76%</t>
-  </si>
-  <si>
-    <t>68,45%</t>
-  </si>
-  <si>
-    <t>55,87%</t>
-  </si>
-  <si>
-    <t>79,69%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>43,42%</t>
-  </si>
-  <si>
-    <t>38,92%</t>
-  </si>
-  <si>
-    <t>48,27%</t>
-  </si>
-  <si>
-    <t>51,34%</t>
-  </si>
-  <si>
-    <t>44,17%</t>
-  </si>
-  <si>
-    <t>58,36%</t>
-  </si>
-  <si>
-    <t>45,94%</t>
-  </si>
-  <si>
-    <t>42,43%</t>
-  </si>
-  <si>
-    <t>50,05%</t>
-  </si>
-  <si>
-    <t>56,58%</t>
-  </si>
-  <si>
-    <t>51,73%</t>
-  </si>
-  <si>
-    <t>61,08%</t>
-  </si>
-  <si>
-    <t>48,66%</t>
-  </si>
-  <si>
-    <t>41,64%</t>
-  </si>
-  <si>
-    <t>55,83%</t>
-  </si>
-  <si>
-    <t>54,06%</t>
-  </si>
-  <si>
-    <t>49,95%</t>
-  </si>
-  <si>
-    <t>57,57%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo le afecta de manera que se siente nervioso y estresado en 2012 (Tasa respuesta: 7,84%)</t>
-  </si>
-  <si>
-    <t>67,61%</t>
-  </si>
-  <si>
-    <t>31,48%</t>
-  </si>
-  <si>
-    <t>91,84%</t>
-  </si>
-  <si>
-    <t>58,86%</t>
-  </si>
-  <si>
-    <t>28,61%</t>
-  </si>
-  <si>
-    <t>89,76%</t>
-  </si>
-  <si>
-    <t>63,3%</t>
-  </si>
-  <si>
-    <t>38,16%</t>
-  </si>
-  <si>
-    <t>82,25%</t>
-  </si>
-  <si>
-    <t>32,39%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>68,52%</t>
-  </si>
-  <si>
-    <t>41,14%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>71,39%</t>
-  </si>
-  <si>
-    <t>36,7%</t>
-  </si>
-  <si>
-    <t>17,75%</t>
-  </si>
-  <si>
-    <t>61,84%</t>
-  </si>
-  <si>
-    <t>53,18%</t>
-  </si>
-  <si>
-    <t>42,59%</t>
-  </si>
-  <si>
-    <t>65,36%</t>
-  </si>
-  <si>
-    <t>54,74%</t>
-  </si>
-  <si>
-    <t>41,75%</t>
-  </si>
-  <si>
-    <t>67,28%</t>
-  </si>
-  <si>
-    <t>53,86%</t>
-  </si>
-  <si>
-    <t>45,33%</t>
-  </si>
-  <si>
-    <t>62,01%</t>
-  </si>
-  <si>
-    <t>46,82%</t>
-  </si>
-  <si>
-    <t>34,64%</t>
-  </si>
-  <si>
-    <t>57,41%</t>
-  </si>
-  <si>
-    <t>45,26%</t>
-  </si>
-  <si>
-    <t>32,72%</t>
-  </si>
-  <si>
-    <t>58,25%</t>
-  </si>
-  <si>
-    <t>46,14%</t>
-  </si>
-  <si>
-    <t>37,99%</t>
-  </si>
-  <si>
-    <t>54,67%</t>
-  </si>
-  <si>
-    <t>47,38%</t>
-  </si>
-  <si>
-    <t>37,27%</t>
-  </si>
-  <si>
-    <t>57,9%</t>
-  </si>
-  <si>
-    <t>61,53%</t>
-  </si>
-  <si>
-    <t>49,79%</t>
-  </si>
-  <si>
-    <t>73,98%</t>
-  </si>
-  <si>
-    <t>53,41%</t>
-  </si>
-  <si>
-    <t>46,05%</t>
-  </si>
-  <si>
-    <t>61,39%</t>
-  </si>
-  <si>
-    <t>52,62%</t>
-  </si>
-  <si>
-    <t>42,1%</t>
-  </si>
-  <si>
-    <t>62,73%</t>
-  </si>
-  <si>
-    <t>38,47%</t>
-  </si>
-  <si>
-    <t>26,02%</t>
-  </si>
-  <si>
-    <t>50,21%</t>
-  </si>
-  <si>
-    <t>46,59%</t>
-  </si>
-  <si>
-    <t>38,61%</t>
-  </si>
-  <si>
-    <t>53,95%</t>
-  </si>
-  <si>
-    <t>38,36%</t>
-  </si>
-  <si>
-    <t>27,68%</t>
-  </si>
-  <si>
-    <t>50,17%</t>
-  </si>
-  <si>
-    <t>51,21%</t>
-  </si>
-  <si>
-    <t>35,01%</t>
-  </si>
-  <si>
-    <t>67,45%</t>
-  </si>
-  <si>
-    <t>42,45%</t>
-  </si>
-  <si>
-    <t>34,16%</t>
-  </si>
-  <si>
-    <t>61,64%</t>
-  </si>
-  <si>
-    <t>49,83%</t>
-  </si>
-  <si>
-    <t>72,32%</t>
-  </si>
-  <si>
-    <t>48,79%</t>
-  </si>
-  <si>
-    <t>32,55%</t>
-  </si>
-  <si>
-    <t>64,99%</t>
-  </si>
-  <si>
-    <t>57,55%</t>
-  </si>
-  <si>
-    <t>65,84%</t>
-  </si>
-  <si>
-    <t>45,59%</t>
-  </si>
-  <si>
-    <t>30,32%</t>
-  </si>
-  <si>
-    <t>60,66%</t>
-  </si>
-  <si>
-    <t>63,53%</t>
-  </si>
-  <si>
-    <t>82,65%</t>
-  </si>
-  <si>
-    <t>52,23%</t>
-  </si>
-  <si>
-    <t>39,36%</t>
-  </si>
-  <si>
-    <t>65,12%</t>
-  </si>
-  <si>
-    <t>54,41%</t>
-  </si>
-  <si>
-    <t>39,34%</t>
-  </si>
-  <si>
-    <t>69,68%</t>
-  </si>
-  <si>
-    <t>36,47%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>47,77%</t>
-  </si>
-  <si>
-    <t>34,88%</t>
-  </si>
-  <si>
-    <t>60,64%</t>
-  </si>
-  <si>
-    <t>46,87%</t>
-  </si>
-  <si>
-    <t>40,83%</t>
-  </si>
-  <si>
-    <t>51,97%</t>
-  </si>
-  <si>
-    <t>57,54%</t>
-  </si>
-  <si>
-    <t>50,71%</t>
-  </si>
-  <si>
-    <t>64,23%</t>
-  </si>
-  <si>
-    <t>51,13%</t>
-  </si>
-  <si>
-    <t>46,62%</t>
-  </si>
-  <si>
-    <t>53,13%</t>
-  </si>
-  <si>
-    <t>48,03%</t>
-  </si>
-  <si>
-    <t>59,17%</t>
-  </si>
-  <si>
-    <t>42,46%</t>
-  </si>
-  <si>
-    <t>35,77%</t>
-  </si>
-  <si>
-    <t>49,29%</t>
-  </si>
-  <si>
-    <t>48,87%</t>
-  </si>
-  <si>
-    <t>53,38%</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo le afecta de manera que se siente nervioso y estresado en 2015 (Tasa respuesta: 8,05%)</t>
-  </si>
-  <si>
-    <t>34,09%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>59,96%</t>
-  </si>
-  <si>
-    <t>66,12%</t>
-  </si>
-  <si>
-    <t>33,77%</t>
-  </si>
-  <si>
-    <t>91,23%</t>
-  </si>
-  <si>
-    <t>47,04%</t>
-  </si>
-  <si>
-    <t>28,0%</t>
-  </si>
-  <si>
-    <t>64,74%</t>
-  </si>
-  <si>
-    <t>65,91%</t>
-  </si>
-  <si>
-    <t>40,04%</t>
-  </si>
-  <si>
-    <t>87,37%</t>
-  </si>
-  <si>
-    <t>33,88%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>66,23%</t>
-  </si>
-  <si>
-    <t>52,96%</t>
-  </si>
-  <si>
-    <t>35,26%</t>
-  </si>
-  <si>
-    <t>72,0%</t>
-  </si>
-  <si>
-    <t>36,35%</t>
-  </si>
-  <si>
-    <t>26,25%</t>
-  </si>
-  <si>
-    <t>48,53%</t>
-  </si>
-  <si>
-    <t>60,14%</t>
-  </si>
-  <si>
-    <t>45,91%</t>
-  </si>
-  <si>
-    <t>73,48%</t>
-  </si>
-  <si>
-    <t>44,97%</t>
-  </si>
-  <si>
-    <t>37,2%</t>
-  </si>
-  <si>
-    <t>54,01%</t>
-  </si>
-  <si>
-    <t>63,65%</t>
-  </si>
-  <si>
-    <t>51,47%</t>
-  </si>
-  <si>
-    <t>73,75%</t>
-  </si>
-  <si>
-    <t>39,86%</t>
-  </si>
-  <si>
-    <t>26,52%</t>
-  </si>
-  <si>
-    <t>54,09%</t>
-  </si>
-  <si>
-    <t>55,03%</t>
-  </si>
-  <si>
-    <t>45,99%</t>
-  </si>
-  <si>
-    <t>62,8%</t>
-  </si>
-  <si>
-    <t>38,57%</t>
-  </si>
-  <si>
-    <t>29,58%</t>
-  </si>
-  <si>
-    <t>49,52%</t>
-  </si>
-  <si>
-    <t>62,26%</t>
-  </si>
-  <si>
-    <t>51,06%</t>
-  </si>
-  <si>
-    <t>73,16%</t>
-  </si>
-  <si>
-    <t>47,74%</t>
-  </si>
-  <si>
-    <t>40,37%</t>
-  </si>
-  <si>
-    <t>54,99%</t>
-  </si>
-  <si>
-    <t>61,43%</t>
-  </si>
-  <si>
-    <t>50,48%</t>
-  </si>
-  <si>
-    <t>70,42%</t>
-  </si>
-  <si>
-    <t>37,74%</t>
-  </si>
-  <si>
-    <t>26,84%</t>
-  </si>
-  <si>
-    <t>48,94%</t>
-  </si>
-  <si>
-    <t>52,26%</t>
-  </si>
-  <si>
-    <t>45,01%</t>
-  </si>
-  <si>
-    <t>59,63%</t>
-  </si>
-  <si>
-    <t>50,64%</t>
-  </si>
-  <si>
-    <t>40,46%</t>
-  </si>
-  <si>
-    <t>62,38%</t>
-  </si>
-  <si>
-    <t>55,95%</t>
-  </si>
-  <si>
-    <t>40,97%</t>
-  </si>
-  <si>
-    <t>68,66%</t>
-  </si>
-  <si>
-    <t>44,32%</t>
-  </si>
-  <si>
-    <t>61,59%</t>
-  </si>
-  <si>
-    <t>49,36%</t>
-  </si>
-  <si>
-    <t>37,62%</t>
-  </si>
-  <si>
-    <t>59,54%</t>
-  </si>
-  <si>
-    <t>44,05%</t>
-  </si>
-  <si>
-    <t>31,34%</t>
-  </si>
-  <si>
-    <t>59,03%</t>
-  </si>
-  <si>
-    <t>38,41%</t>
-  </si>
-  <si>
-    <t>55,68%</t>
-  </si>
-  <si>
-    <t>55,05%</t>
-  </si>
-  <si>
-    <t>39,18%</t>
-  </si>
-  <si>
-    <t>70,22%</t>
-  </si>
-  <si>
-    <t>63,68%</t>
-  </si>
-  <si>
-    <t>42,32%</t>
-  </si>
-  <si>
-    <t>81,41%</t>
-  </si>
-  <si>
-    <t>58,56%</t>
-  </si>
-  <si>
-    <t>45,47%</t>
-  </si>
-  <si>
-    <t>69,52%</t>
-  </si>
-  <si>
-    <t>44,95%</t>
-  </si>
-  <si>
-    <t>29,78%</t>
-  </si>
-  <si>
-    <t>60,82%</t>
-  </si>
-  <si>
-    <t>36,32%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>57,68%</t>
-  </si>
-  <si>
-    <t>41,44%</t>
-  </si>
-  <si>
-    <t>30,48%</t>
-  </si>
-  <si>
-    <t>54,53%</t>
-  </si>
-  <si>
-    <t>43,07%</t>
-  </si>
-  <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>43,43%</t>
-  </si>
-  <si>
-    <t>38,31%</t>
-  </si>
-  <si>
-    <t>60,58%</t>
-  </si>
-  <si>
-    <t>66,93%</t>
-  </si>
-  <si>
-    <t>49,98%</t>
-  </si>
-  <si>
-    <t>45,56%</t>
-  </si>
-  <si>
-    <t>54,33%</t>
-  </si>
-  <si>
-    <t>56,57%</t>
-  </si>
-  <si>
-    <t>61,69%</t>
-  </si>
-  <si>
-    <t>39,42%</t>
-  </si>
-  <si>
-    <t>33,07%</t>
-  </si>
-  <si>
-    <t>50,02%</t>
-  </si>
-  <si>
-    <t>45,67%</t>
-  </si>
-  <si>
-    <t>54,44%</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo le afecta de manera que se siente nervioso y estresado en 2023 (Tasa respuesta: 9,29%)</t>
-  </si>
-  <si>
-    <t>54,78%</t>
-  </si>
-  <si>
-    <t>85,82%</t>
-  </si>
-  <si>
-    <t>52,2%</t>
-  </si>
-  <si>
-    <t>77,35%</t>
-  </si>
-  <si>
-    <t>40,29%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>45,22%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>47,8%</t>
-  </si>
-  <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>59,71%</t>
-  </si>
-  <si>
-    <t>73,65%</t>
-  </si>
-  <si>
-    <t>57,44%</t>
-  </si>
-  <si>
-    <t>87,03%</t>
-  </si>
-  <si>
-    <t>71,29%</t>
-  </si>
-  <si>
-    <t>57,46%</t>
-  </si>
-  <si>
-    <t>82,29%</t>
-  </si>
-  <si>
-    <t>72,5%</t>
-  </si>
-  <si>
-    <t>61,06%</t>
-  </si>
-  <si>
-    <t>81,67%</t>
-  </si>
-  <si>
-    <t>26,35%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>42,56%</t>
-  </si>
-  <si>
-    <t>28,71%</t>
-  </si>
-  <si>
-    <t>17,71%</t>
-  </si>
-  <si>
-    <t>42,54%</t>
-  </si>
-  <si>
-    <t>27,5%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>38,94%</t>
-  </si>
-  <si>
-    <t>42,71%</t>
-  </si>
-  <si>
-    <t>65,02%</t>
-  </si>
-  <si>
-    <t>51,37%</t>
-  </si>
-  <si>
-    <t>69,58%</t>
-  </si>
-  <si>
-    <t>57,43%</t>
-  </si>
-  <si>
-    <t>50,31%</t>
-  </si>
-  <si>
-    <t>64,39%</t>
-  </si>
-  <si>
-    <t>34,98%</t>
-  </si>
-  <si>
-    <t>57,29%</t>
-  </si>
-  <si>
-    <t>30,42%</t>
-  </si>
-  <si>
-    <t>48,63%</t>
-  </si>
-  <si>
-    <t>42,57%</t>
-  </si>
-  <si>
-    <t>35,61%</t>
-  </si>
-  <si>
-    <t>49,69%</t>
-  </si>
-  <si>
-    <t>63,56%</t>
-  </si>
-  <si>
-    <t>54,21%</t>
-  </si>
-  <si>
-    <t>73,25%</t>
-  </si>
-  <si>
-    <t>61,8%</t>
-  </si>
-  <si>
-    <t>71,88%</t>
-  </si>
-  <si>
-    <t>62,58%</t>
-  </si>
-  <si>
-    <t>69,45%</t>
-  </si>
-  <si>
-    <t>36,44%</t>
-  </si>
-  <si>
-    <t>26,75%</t>
-  </si>
-  <si>
-    <t>45,79%</t>
-  </si>
-  <si>
-    <t>38,2%</t>
-  </si>
-  <si>
-    <t>28,12%</t>
-  </si>
-  <si>
-    <t>37,42%</t>
-  </si>
-  <si>
     <t>30,55%</t>
   </si>
   <si>
@@ -1337,9 +1325,6 @@
     <t>81,57%</t>
   </si>
   <si>
-    <t>62,39%</t>
-  </si>
-  <si>
     <t>67,46%</t>
   </si>
   <si>
@@ -1359,9 +1344,6 @@
   </si>
   <si>
     <t>67,4%</t>
-  </si>
-  <si>
-    <t>37,61%</t>
   </si>
   <si>
     <t>32,54%</t>
@@ -1794,7 +1776,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE13632C-03E5-4B65-9469-43AC796CCF11}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8925B0FC-1486-49EB-829C-6D7CE6929326}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1987,10 +1969,10 @@
         <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>25</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>26</v>
       </c>
       <c r="M5" s="7">
         <v>40</v>
@@ -1999,13 +1981,13 @@
         <v>38528</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="P5" s="7" t="s">
-        <v>28</v>
-      </c>
       <c r="Q5" s="7" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2020,13 +2002,13 @@
         <v>46172</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H6" s="7">
         <v>21</v>
@@ -2035,13 +2017,13 @@
         <v>19859</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M6" s="7">
         <v>67</v>
@@ -2050,18 +2032,18 @@
         <v>66031</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -2073,13 +2055,13 @@
         <v>62296</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>34</v>
       </c>
       <c r="H7" s="7">
         <v>43</v>
@@ -2088,13 +2070,13 @@
         <v>44884</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="M7" s="7">
         <v>100</v>
@@ -2103,13 +2085,13 @@
         <v>107180</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2124,13 +2106,13 @@
         <v>79995</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>33</v>
@@ -2139,13 +2121,13 @@
         <v>34391</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>109</v>
@@ -2154,13 +2136,13 @@
         <v>114386</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2175,13 +2157,13 @@
         <v>142291</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H9" s="7">
         <v>76</v>
@@ -2190,13 +2172,13 @@
         <v>79275</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M9" s="7">
         <v>209</v>
@@ -2205,18 +2187,18 @@
         <v>221566</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2228,13 +2210,13 @@
         <v>58315</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>34</v>
@@ -2243,13 +2225,13 @@
         <v>35266</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>90</v>
@@ -2258,13 +2240,13 @@
         <v>93580</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2279,13 +2261,13 @@
         <v>67713</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>33</v>
@@ -2294,13 +2276,13 @@
         <v>34776</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>99</v>
@@ -2309,13 +2291,13 @@
         <v>102490</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2330,13 +2312,13 @@
         <v>126028</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H12" s="7">
         <v>67</v>
@@ -2345,13 +2327,13 @@
         <v>70042</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M12" s="7">
         <v>189</v>
@@ -2360,18 +2342,18 @@
         <v>196070</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2383,13 +2365,13 @@
         <v>51740</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>19</v>
@@ -2398,13 +2380,13 @@
         <v>18391</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>65</v>
@@ -2413,13 +2395,13 @@
         <v>70131</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2434,13 +2416,13 @@
         <v>59370</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>18</v>
@@ -2449,13 +2431,13 @@
         <v>18646</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>73</v>
@@ -2464,13 +2446,13 @@
         <v>78016</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2485,13 +2467,13 @@
         <v>111110</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H15" s="7">
         <v>37</v>
@@ -2500,13 +2482,13 @@
         <v>37037</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M15" s="7">
         <v>138</v>
@@ -2515,18 +2497,18 @@
         <v>148147</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2538,13 +2520,13 @@
         <v>13841</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>5</v>
@@ -2553,13 +2535,13 @@
         <v>5022</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>19</v>
@@ -2568,13 +2550,13 @@
         <v>18863</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2589,13 +2571,13 @@
         <v>32041</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>9</v>
@@ -2604,13 +2586,13 @@
         <v>8887</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>42</v>
@@ -2619,13 +2601,13 @@
         <v>40928</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2640,13 +2622,13 @@
         <v>45882</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H18" s="7">
         <v>14</v>
@@ -2655,13 +2637,13 @@
         <v>13909</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M18" s="7">
         <v>61</v>
@@ -2670,18 +2652,18 @@
         <v>59791</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2693,26 +2675,26 @@
         <v>821</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
       </c>
       <c r="I19" s="7"/>
       <c r="J19" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M19" s="7">
         <v>1</v>
@@ -2721,13 +2703,13 @@
         <v>821</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2742,26 +2724,26 @@
         <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
       </c>
       <c r="I20" s="7"/>
       <c r="J20" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -2770,13 +2752,13 @@
         <v>0</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2791,26 +2773,26 @@
         <v>821</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
       </c>
       <c r="I21" s="7"/>
       <c r="J21" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M21" s="7">
         <v>1</v>
@@ -2819,13 +2801,13 @@
         <v>821</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2842,13 +2824,13 @@
         <v>205061</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="H22" s="7">
         <v>111</v>
@@ -2857,13 +2839,13 @@
         <v>113018</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="M22" s="7">
         <v>302</v>
@@ -2872,13 +2854,13 @@
         <v>318079</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2893,13 +2875,13 @@
         <v>267244</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="H23" s="7">
         <v>104</v>
@@ -2908,13 +2890,13 @@
         <v>107103</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="M23" s="7">
         <v>363</v>
@@ -2923,13 +2905,13 @@
         <v>374348</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2944,13 +2926,13 @@
         <v>472305</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H24" s="7">
         <v>215</v>
@@ -2959,13 +2941,13 @@
         <v>220121</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M24" s="7">
         <v>665</v>
@@ -2974,18 +2956,18 @@
         <v>692427</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -3007,7 +2989,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85EB2283-D525-4FB7-9569-ACD1A63166EC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76C3A783-CF77-4605-B957-3F8A9B894238}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3024,7 +3006,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3131,13 +3113,13 @@
         <v>6982</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="H4" s="7">
         <v>6</v>
@@ -3146,13 +3128,13 @@
         <v>5919</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>137</v>
+        <v>47</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="M4" s="7">
         <v>13</v>
@@ -3161,13 +3143,13 @@
         <v>12901</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3182,13 +3164,13 @@
         <v>3345</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="H5" s="7">
         <v>4</v>
@@ -3197,13 +3179,13 @@
         <v>4137</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>146</v>
+        <v>37</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="M5" s="7">
         <v>7</v>
@@ -3212,13 +3194,13 @@
         <v>7482</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3233,13 +3215,13 @@
         <v>10327</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H6" s="7">
         <v>10</v>
@@ -3248,13 +3230,13 @@
         <v>10056</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M6" s="7">
         <v>20</v>
@@ -3263,18 +3245,18 @@
         <v>20383</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -3286,13 +3268,13 @@
         <v>45888</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="H7" s="7">
         <v>33</v>
@@ -3301,13 +3283,13 @@
         <v>36735</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="M7" s="7">
         <v>76</v>
@@ -3316,13 +3298,13 @@
         <v>82624</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3337,13 +3319,13 @@
         <v>40400</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="H8" s="7">
         <v>28</v>
@@ -3352,13 +3334,13 @@
         <v>30377</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="M8" s="7">
         <v>68</v>
@@ -3367,13 +3349,13 @@
         <v>70776</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3388,13 +3370,13 @@
         <v>86288</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H9" s="7">
         <v>61</v>
@@ -3403,13 +3385,13 @@
         <v>67112</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M9" s="7">
         <v>144</v>
@@ -3418,18 +3400,18 @@
         <v>153400</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3441,13 +3423,13 @@
         <v>46375</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="H10" s="7">
         <v>43</v>
@@ -3456,13 +3438,13 @@
         <v>44690</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="M10" s="7">
         <v>86</v>
@@ -3471,13 +3453,13 @@
         <v>91065</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>178</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3492,13 +3474,13 @@
         <v>51501</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="H11" s="7">
         <v>25</v>
@@ -3507,13 +3489,13 @@
         <v>27941</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="M11" s="7">
         <v>78</v>
@@ -3522,13 +3504,13 @@
         <v>79442</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>186</v>
+        <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3543,13 +3525,13 @@
         <v>97876</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H12" s="7">
         <v>68</v>
@@ -3558,13 +3540,13 @@
         <v>72631</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M12" s="7">
         <v>164</v>
@@ -3573,18 +3555,18 @@
         <v>170507</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3596,13 +3578,13 @@
         <v>34053</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="H13" s="7">
         <v>19</v>
@@ -3611,13 +3593,13 @@
         <v>21224</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="M13" s="7">
         <v>52</v>
@@ -3626,13 +3608,13 @@
         <v>55277</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>124</v>
+        <v>190</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3647,13 +3629,13 @@
         <v>54727</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="H14" s="7">
         <v>18</v>
@@ -3662,13 +3644,13 @@
         <v>20222</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="M14" s="7">
         <v>67</v>
@@ -3677,13 +3659,13 @@
         <v>74949</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>116</v>
+        <v>198</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3698,13 +3680,13 @@
         <v>88780</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H15" s="7">
         <v>37</v>
@@ -3713,13 +3695,13 @@
         <v>41446</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M15" s="7">
         <v>119</v>
@@ -3728,18 +3710,18 @@
         <v>130226</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3751,13 +3733,13 @@
         <v>19073</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="H16" s="7">
         <v>14</v>
@@ -3766,13 +3748,13 @@
         <v>15617</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>156</v>
+        <v>204</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="M16" s="7">
         <v>33</v>
@@ -3781,13 +3763,13 @@
         <v>34690</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3802,13 +3784,13 @@
         <v>22761</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="H17" s="7">
         <v>8</v>
@@ -3817,13 +3799,13 @@
         <v>8965</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>166</v>
+        <v>214</v>
       </c>
       <c r="M17" s="7">
         <v>30</v>
@@ -3832,13 +3814,13 @@
         <v>31726</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3853,13 +3835,13 @@
         <v>41834</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H18" s="7">
         <v>22</v>
@@ -3868,13 +3850,13 @@
         <v>24582</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M18" s="7">
         <v>63</v>
@@ -3883,18 +3865,18 @@
         <v>66416</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3904,39 +3886,39 @@
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
       </c>
       <c r="I19" s="7"/>
       <c r="J19" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
       </c>
       <c r="N19" s="7"/>
       <c r="O19" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3949,39 +3931,39 @@
       </c>
       <c r="D20" s="7"/>
       <c r="E20" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
       </c>
       <c r="I20" s="7"/>
       <c r="J20" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
       </c>
       <c r="N20" s="7"/>
       <c r="O20" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3994,39 +3976,39 @@
       </c>
       <c r="D21" s="7"/>
       <c r="E21" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
       </c>
       <c r="I21" s="7"/>
       <c r="J21" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
       </c>
       <c r="N21" s="7"/>
       <c r="O21" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4043,13 +4025,13 @@
         <v>152372</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>222</v>
+        <v>172</v>
       </c>
       <c r="H22" s="7">
         <v>115</v>
@@ -4058,13 +4040,13 @@
         <v>124186</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="M22" s="7">
         <v>260</v>
@@ -4073,13 +4055,13 @@
         <v>276557</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>105</v>
+        <v>225</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4094,13 +4076,13 @@
         <v>172733</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>229</v>
+        <v>180</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="H23" s="7">
         <v>83</v>
@@ -4109,13 +4091,13 @@
         <v>91642</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="M23" s="7">
         <v>250</v>
@@ -4124,13 +4106,13 @@
         <v>264375</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>97</v>
+        <v>232</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4145,13 +4127,13 @@
         <v>325105</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H24" s="7">
         <v>198</v>
@@ -4160,13 +4142,13 @@
         <v>215828</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M24" s="7">
         <v>510</v>
@@ -4175,18 +4157,18 @@
         <v>540932</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -4208,7 +4190,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7C815A0-F025-4958-8CB5-DDCA3BF3B71C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F2BBB07-E184-4EB2-AF2D-F49889B7B28D}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4225,7 +4207,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4332,13 +4314,13 @@
         <v>5846</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>239</v>
       </c>
       <c r="H4" s="7">
         <v>8</v>
@@ -4347,13 +4329,13 @@
         <v>7698</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>242</v>
       </c>
       <c r="M4" s="7">
         <v>13</v>
@@ -4362,13 +4344,13 @@
         <v>13544</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4383,13 +4365,13 @@
         <v>11305</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>248</v>
       </c>
       <c r="H5" s="7">
         <v>4</v>
@@ -4398,13 +4380,13 @@
         <v>3945</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>251</v>
       </c>
       <c r="M5" s="7">
         <v>15</v>
@@ -4413,13 +4395,13 @@
         <v>15250</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4434,13 +4416,13 @@
         <v>17151</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H6" s="7">
         <v>12</v>
@@ -4449,13 +4431,13 @@
         <v>11643</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M6" s="7">
         <v>28</v>
@@ -4464,18 +4446,18 @@
         <v>28794</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -4487,13 +4469,13 @@
         <v>29655</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>257</v>
       </c>
       <c r="H7" s="7">
         <v>29</v>
@@ -4502,13 +4484,13 @@
         <v>27839</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>260</v>
       </c>
       <c r="M7" s="7">
         <v>57</v>
@@ -4517,13 +4499,13 @@
         <v>57494</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>262</v>
+        <v>31</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4538,13 +4520,13 @@
         <v>51917</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="H8" s="7">
         <v>19</v>
@@ -4553,13 +4535,13 @@
         <v>18452</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="M8" s="7">
         <v>67</v>
@@ -4568,13 +4550,13 @@
         <v>70369</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>272</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4589,13 +4571,13 @@
         <v>81572</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H9" s="7">
         <v>48</v>
@@ -4604,13 +4586,13 @@
         <v>46291</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M9" s="7">
         <v>124</v>
@@ -4619,18 +4601,18 @@
         <v>127863</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -4642,13 +4624,13 @@
         <v>43626</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="H10" s="7">
         <v>44</v>
@@ -4657,13 +4639,13 @@
         <v>44490</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="M10" s="7">
         <v>83</v>
@@ -4672,13 +4654,13 @@
         <v>88117</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4693,13 +4675,13 @@
         <v>69497</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="H11" s="7">
         <v>27</v>
@@ -4708,13 +4690,13 @@
         <v>26968</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="M11" s="7">
         <v>94</v>
@@ -4723,13 +4705,13 @@
         <v>96464</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4744,13 +4726,13 @@
         <v>113123</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H12" s="7">
         <v>71</v>
@@ -4759,13 +4741,13 @@
         <v>71458</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M12" s="7">
         <v>177</v>
@@ -4774,18 +4756,18 @@
         <v>184581</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4797,13 +4779,13 @@
         <v>46301</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="H13" s="7">
         <v>27</v>
@@ -4812,13 +4794,13 @@
         <v>31394</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="M13" s="7">
         <v>68</v>
@@ -4827,13 +4809,13 @@
         <v>77695</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4848,13 +4830,13 @@
         <v>45127</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="H14" s="7">
         <v>23</v>
@@ -4863,13 +4845,13 @@
         <v>24713</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="M14" s="7">
         <v>64</v>
@@ -4878,13 +4860,13 @@
         <v>69840</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4899,13 +4881,13 @@
         <v>91428</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H15" s="7">
         <v>50</v>
@@ -4914,13 +4896,13 @@
         <v>56107</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M15" s="7">
         <v>132</v>
@@ -4929,18 +4911,18 @@
         <v>147535</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4952,13 +4934,13 @@
         <v>24687</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="H16" s="7">
         <v>17</v>
@@ -4967,13 +4949,13 @@
         <v>19613</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="M16" s="7">
         <v>39</v>
@@ -4982,13 +4964,13 @@
         <v>44300</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5003,13 +4985,13 @@
         <v>20161</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="H17" s="7">
         <v>9</v>
@@ -5018,13 +5000,13 @@
         <v>11186</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="M17" s="7">
         <v>27</v>
@@ -5033,13 +5015,13 @@
         <v>31346</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5054,13 +5036,13 @@
         <v>44848</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H18" s="7">
         <v>26</v>
@@ -5069,13 +5051,13 @@
         <v>30799</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M18" s="7">
         <v>66</v>
@@ -5084,18 +5066,18 @@
         <v>75646</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5107,26 +5089,26 @@
         <v>1880</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
       </c>
       <c r="I19" s="7"/>
       <c r="J19" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M19" s="7">
         <v>2</v>
@@ -5135,13 +5117,13 @@
         <v>1880</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5156,26 +5138,26 @@
         <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
       </c>
       <c r="I20" s="7"/>
       <c r="J20" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -5184,13 +5166,13 @@
         <v>0</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5205,26 +5187,26 @@
         <v>1880</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
       </c>
       <c r="I21" s="7"/>
       <c r="J21" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M21" s="7">
         <v>2</v>
@@ -5233,13 +5215,13 @@
         <v>1880</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5256,13 +5238,13 @@
         <v>151995</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>233</v>
+        <v>325</v>
       </c>
       <c r="H22" s="7">
         <v>125</v>
@@ -5271,13 +5253,13 @@
         <v>131034</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>329</v>
+        <v>237</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>263</v>
+        <v>326</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="M22" s="7">
         <v>262</v>
@@ -5286,13 +5268,13 @@
         <v>283029</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>333</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5307,13 +5289,13 @@
         <v>198006</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>224</v>
+        <v>331</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="H23" s="7">
         <v>82</v>
@@ -5322,13 +5304,13 @@
         <v>85264</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>336</v>
+        <v>245</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>271</v>
+        <v>334</v>
       </c>
       <c r="M23" s="7">
         <v>267</v>
@@ -5337,13 +5319,13 @@
         <v>283270</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>339</v>
+        <v>46</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5358,13 +5340,13 @@
         <v>350001</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H24" s="7">
         <v>207</v>
@@ -5373,13 +5355,13 @@
         <v>216298</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M24" s="7">
         <v>529</v>
@@ -5388,18 +5370,18 @@
         <v>566299</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -5421,7 +5403,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{219524E0-D0A7-4A0B-AC69-704C40E2F723}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83B1159A-D467-4383-BD84-4CCA8FCADDE4}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5438,7 +5420,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5545,13 +5527,13 @@
         <v>3505</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H4" s="7">
         <v>8</v>
@@ -5560,13 +5542,13 @@
         <v>14621</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="M4" s="7">
         <v>10</v>
@@ -5575,13 +5557,13 @@
         <v>18126</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>346</v>
+        <v>56</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5596,13 +5578,13 @@
         <v>2893</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H5" s="7">
         <v>2</v>
@@ -5611,13 +5593,13 @@
         <v>2416</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="M5" s="7">
         <v>4</v>
@@ -5626,13 +5608,13 @@
         <v>5309</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>353</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5647,13 +5629,13 @@
         <v>6398</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H6" s="7">
         <v>10</v>
@@ -5662,13 +5644,13 @@
         <v>17037</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M6" s="7">
         <v>14</v>
@@ -5677,18 +5659,18 @@
         <v>23435</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -5700,13 +5682,13 @@
         <v>43035</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="H7" s="7">
         <v>33</v>
@@ -5715,13 +5697,13 @@
         <v>39848</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="M7" s="7">
         <v>64</v>
@@ -5730,13 +5712,13 @@
         <v>82883</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5751,13 +5733,13 @@
         <v>15397</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="H8" s="7">
         <v>15</v>
@@ -5766,13 +5748,13 @@
         <v>16049</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="M8" s="7">
         <v>26</v>
@@ -5781,13 +5763,13 @@
         <v>31446</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5802,13 +5784,13 @@
         <v>58432</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H9" s="7">
         <v>48</v>
@@ -5817,13 +5799,13 @@
         <v>55897</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M9" s="7">
         <v>90</v>
@@ -5832,18 +5814,18 @@
         <v>114329</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -5855,13 +5837,13 @@
         <v>54087</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="H10" s="7">
         <v>69</v>
@@ -5870,13 +5852,13 @@
         <v>49168</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>206</v>
+        <v>368</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="M10" s="7">
         <v>120</v>
@@ -5885,13 +5867,13 @@
         <v>103254</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5906,13 +5888,13 @@
         <v>44653</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="H11" s="7">
         <v>48</v>
@@ -5921,13 +5903,13 @@
         <v>31882</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>213</v>
+        <v>376</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="M11" s="7">
         <v>94</v>
@@ -5936,13 +5918,13 @@
         <v>76536</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5957,13 +5939,13 @@
         <v>98740</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H12" s="7">
         <v>117</v>
@@ -5972,13 +5954,13 @@
         <v>81050</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M12" s="7">
         <v>214</v>
@@ -5987,18 +5969,18 @@
         <v>179790</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -6010,13 +5992,13 @@
         <v>72834</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="H13" s="7">
         <v>133</v>
@@ -6025,13 +6007,13 @@
         <v>89008</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>28</v>
+        <v>386</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="M13" s="7">
         <v>202</v>
@@ -6040,13 +6022,13 @@
         <v>161843</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>391</v>
+        <v>332</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6061,13 +6043,13 @@
         <v>41760</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="H14" s="7">
         <v>58</v>
@@ -6076,13 +6058,13 @@
         <v>55023</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>19</v>
+        <v>394</v>
       </c>
       <c r="M14" s="7">
         <v>102</v>
@@ -6091,13 +6073,13 @@
         <v>96783</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>398</v>
+        <v>324</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6112,13 +6094,13 @@
         <v>114594</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H15" s="7">
         <v>191</v>
@@ -6127,13 +6109,13 @@
         <v>144031</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M15" s="7">
         <v>304</v>
@@ -6142,18 +6124,18 @@
         <v>258626</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6165,13 +6147,13 @@
         <v>45986</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="H16" s="7">
         <v>66</v>
@@ -6180,13 +6162,13 @@
         <v>40012</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="M16" s="7">
         <v>114</v>
@@ -6195,13 +6177,13 @@
         <v>85998</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6216,13 +6198,13 @@
         <v>25777</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="H17" s="7">
         <v>36</v>
@@ -6231,13 +6213,13 @@
         <v>20053</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="M17" s="7">
         <v>65</v>
@@ -6246,13 +6228,13 @@
         <v>45830</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6267,13 +6249,13 @@
         <v>71763</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H18" s="7">
         <v>102</v>
@@ -6282,13 +6264,13 @@
         <v>60065</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M18" s="7">
         <v>179</v>
@@ -6297,18 +6279,18 @@
         <v>131828</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6320,13 +6302,13 @@
         <v>801</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="H19" s="7">
         <v>4</v>
@@ -6335,13 +6317,13 @@
         <v>2054</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="M19" s="7">
         <v>5</v>
@@ -6350,13 +6332,13 @@
         <v>2855</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6371,13 +6353,13 @@
         <v>2289</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
@@ -6386,13 +6368,13 @@
         <v>1077</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="M20" s="7">
         <v>6</v>
@@ -6401,13 +6383,13 @@
         <v>3366</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6422,13 +6404,13 @@
         <v>3090</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H21" s="7">
         <v>6</v>
@@ -6437,13 +6419,13 @@
         <v>3131</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M21" s="7">
         <v>11</v>
@@ -6452,13 +6434,13 @@
         <v>6221</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6475,13 +6457,13 @@
         <v>220248</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>432</v>
+        <v>63</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="H22" s="7">
         <v>313</v>
@@ -6490,13 +6472,13 @@
         <v>234711</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="M22" s="7">
         <v>515</v>
@@ -6505,13 +6487,13 @@
         <v>454958</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6526,13 +6508,13 @@
         <v>132770</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>440</v>
+        <v>53</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H23" s="7">
         <v>161</v>
@@ -6541,13 +6523,13 @@
         <v>126500</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="M23" s="7">
         <v>297</v>
@@ -6556,13 +6538,13 @@
         <v>259270</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6577,13 +6559,13 @@
         <v>353018</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H24" s="7">
         <v>474</v>
@@ -6592,13 +6574,13 @@
         <v>361211</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M24" s="7">
         <v>812</v>
@@ -6607,18 +6589,18 @@
         <v>714228</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6902-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P6902-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0F851F2F-CA7E-49CF-8C81-B88749564DE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B33DCFDF-BDEA-4561-87CC-1778727AEE7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6C7C8904-83A7-4FA8-AB98-CB6E154AAD71}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A15D6EF8-D583-45FA-84E6-6A8571DB8E08}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="456">
   <si>
     <t>Población según si su trabajo le afecta de manera que se siente nervioso y estresado en 2007 (Tasa respuesta: 10,21%)</t>
   </si>
@@ -71,34 +71,34 @@
     <t>16/24</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>39,09%</t>
   </si>
   <si>
-    <t>26,53%</t>
-  </si>
-  <si>
-    <t>55,42%</t>
+    <t>26,41%</t>
+  </si>
+  <si>
+    <t>55,12%</t>
   </si>
   <si>
     <t>47,61%</t>
   </si>
   <si>
-    <t>28,23%</t>
-  </si>
-  <si>
-    <t>71,22%</t>
+    <t>27,49%</t>
+  </si>
+  <si>
+    <t>70,92%</t>
   </si>
   <si>
     <t>41,65%</t>
   </si>
   <si>
-    <t>28,78%</t>
-  </si>
-  <si>
-    <t>53,9%</t>
+    <t>29,57%</t>
+  </si>
+  <si>
+    <t>54,15%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,22 +107,28 @@
     <t>60,91%</t>
   </si>
   <si>
-    <t>44,58%</t>
-  </si>
-  <si>
-    <t>73,47%</t>
+    <t>44,88%</t>
+  </si>
+  <si>
+    <t>73,59%</t>
   </si>
   <si>
     <t>52,39%</t>
   </si>
   <si>
-    <t>71,77%</t>
+    <t>29,08%</t>
+  </si>
+  <si>
+    <t>72,51%</t>
   </si>
   <si>
     <t>58,35%</t>
   </si>
   <si>
-    <t>46,1%</t>
+    <t>45,85%</t>
+  </si>
+  <si>
+    <t>70,43%</t>
   </si>
   <si>
     <t>100%</t>
@@ -134,1237 +140,1273 @@
     <t>43,78%</t>
   </si>
   <si>
-    <t>36,37%</t>
-  </si>
-  <si>
-    <t>52,92%</t>
+    <t>34,5%</t>
+  </si>
+  <si>
+    <t>53,28%</t>
   </si>
   <si>
     <t>56,62%</t>
   </si>
   <si>
-    <t>44,53%</t>
-  </si>
-  <si>
-    <t>67,63%</t>
+    <t>45,48%</t>
+  </si>
+  <si>
+    <t>67,65%</t>
   </si>
   <si>
     <t>48,37%</t>
   </si>
   <si>
+    <t>41,48%</t>
+  </si>
+  <si>
+    <t>55,24%</t>
+  </si>
+  <si>
+    <t>56,22%</t>
+  </si>
+  <si>
+    <t>46,72%</t>
+  </si>
+  <si>
+    <t>65,5%</t>
+  </si>
+  <si>
+    <t>43,38%</t>
+  </si>
+  <si>
+    <t>32,35%</t>
+  </si>
+  <si>
+    <t>54,52%</t>
+  </si>
+  <si>
+    <t>51,63%</t>
+  </si>
+  <si>
+    <t>44,76%</t>
+  </si>
+  <si>
+    <t>58,52%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>46,27%</t>
+  </si>
+  <si>
+    <t>36,59%</t>
+  </si>
+  <si>
+    <t>55,23%</t>
+  </si>
+  <si>
+    <t>50,35%</t>
+  </si>
+  <si>
+    <t>38,1%</t>
+  </si>
+  <si>
+    <t>61,22%</t>
+  </si>
+  <si>
+    <t>47,73%</t>
+  </si>
+  <si>
+    <t>40,5%</t>
+  </si>
+  <si>
+    <t>54,73%</t>
+  </si>
+  <si>
+    <t>53,73%</t>
+  </si>
+  <si>
+    <t>44,77%</t>
+  </si>
+  <si>
+    <t>63,41%</t>
+  </si>
+  <si>
+    <t>49,65%</t>
+  </si>
+  <si>
+    <t>38,78%</t>
+  </si>
+  <si>
+    <t>61,9%</t>
+  </si>
+  <si>
+    <t>52,27%</t>
+  </si>
+  <si>
+    <t>45,27%</t>
+  </si>
+  <si>
+    <t>59,5%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>46,57%</t>
+  </si>
+  <si>
+    <t>37,01%</t>
+  </si>
+  <si>
+    <t>56,52%</t>
+  </si>
+  <si>
+    <t>49,66%</t>
+  </si>
+  <si>
+    <t>34,24%</t>
+  </si>
+  <si>
+    <t>66,77%</t>
+  </si>
+  <si>
+    <t>47,34%</t>
+  </si>
+  <si>
+    <t>39,19%</t>
+  </si>
+  <si>
+    <t>56,74%</t>
+  </si>
+  <si>
+    <t>53,43%</t>
+  </si>
+  <si>
+    <t>43,48%</t>
+  </si>
+  <si>
+    <t>62,99%</t>
+  </si>
+  <si>
+    <t>50,34%</t>
+  </si>
+  <si>
+    <t>33,23%</t>
+  </si>
+  <si>
+    <t>65,76%</t>
+  </si>
+  <si>
+    <t>52,66%</t>
+  </si>
+  <si>
+    <t>43,26%</t>
+  </si>
+  <si>
+    <t>60,81%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>30,17%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>45,34%</t>
+  </si>
+  <si>
+    <t>36,11%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>64,66%</t>
+  </si>
+  <si>
+    <t>31,55%</t>
+  </si>
+  <si>
+    <t>20,68%</t>
+  </si>
+  <si>
+    <t>44,79%</t>
+  </si>
+  <si>
+    <t>69,83%</t>
+  </si>
+  <si>
+    <t>54,66%</t>
+  </si>
+  <si>
+    <t>82,17%</t>
+  </si>
+  <si>
+    <t>63,89%</t>
+  </si>
+  <si>
+    <t>35,34%</t>
+  </si>
+  <si>
+    <t>85,57%</t>
+  </si>
+  <si>
+    <t>68,45%</t>
+  </si>
+  <si>
+    <t>55,21%</t>
+  </si>
+  <si>
+    <t>79,32%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>43,42%</t>
+  </si>
+  <si>
+    <t>38,46%</t>
+  </si>
+  <si>
+    <t>48,43%</t>
+  </si>
+  <si>
+    <t>51,34%</t>
+  </si>
+  <si>
+    <t>44,12%</t>
+  </si>
+  <si>
+    <t>57,5%</t>
+  </si>
+  <si>
+    <t>45,94%</t>
+  </si>
+  <si>
+    <t>41,73%</t>
+  </si>
+  <si>
+    <t>49,52%</t>
+  </si>
+  <si>
+    <t>56,58%</t>
+  </si>
+  <si>
+    <t>51,57%</t>
+  </si>
+  <si>
+    <t>61,54%</t>
+  </si>
+  <si>
+    <t>48,66%</t>
+  </si>
+  <si>
+    <t>42,5%</t>
+  </si>
+  <si>
+    <t>55,88%</t>
+  </si>
+  <si>
+    <t>54,06%</t>
+  </si>
+  <si>
+    <t>50,48%</t>
+  </si>
+  <si>
+    <t>58,27%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo le afecta de manera que se siente nervioso y estresado en 2012 (Tasa respuesta: 7,84%)</t>
+  </si>
+  <si>
+    <t>67,61%</t>
+  </si>
+  <si>
+    <t>31,45%</t>
+  </si>
+  <si>
+    <t>91,02%</t>
+  </si>
+  <si>
+    <t>58,86%</t>
+  </si>
+  <si>
+    <t>27,62%</t>
+  </si>
+  <si>
+    <t>88,41%</t>
+  </si>
+  <si>
+    <t>63,3%</t>
+  </si>
+  <si>
+    <t>37,94%</t>
+  </si>
+  <si>
+    <t>81,05%</t>
+  </si>
+  <si>
+    <t>32,39%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>68,55%</t>
+  </si>
+  <si>
     <t>41,14%</t>
   </si>
   <si>
-    <t>54,6%</t>
-  </si>
-  <si>
-    <t>56,22%</t>
-  </si>
-  <si>
-    <t>47,08%</t>
-  </si>
-  <si>
-    <t>63,63%</t>
-  </si>
-  <si>
-    <t>43,38%</t>
-  </si>
-  <si>
-    <t>32,37%</t>
-  </si>
-  <si>
-    <t>55,47%</t>
-  </si>
-  <si>
-    <t>51,63%</t>
-  </si>
-  <si>
-    <t>45,4%</t>
-  </si>
-  <si>
-    <t>58,86%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>46,27%</t>
-  </si>
-  <si>
-    <t>37,9%</t>
-  </si>
-  <si>
-    <t>55,75%</t>
-  </si>
-  <si>
-    <t>50,35%</t>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>72,38%</t>
+  </si>
+  <si>
+    <t>36,7%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>62,06%</t>
+  </si>
+  <si>
+    <t>53,18%</t>
+  </si>
+  <si>
+    <t>42,09%</t>
+  </si>
+  <si>
+    <t>64,26%</t>
+  </si>
+  <si>
+    <t>54,74%</t>
+  </si>
+  <si>
+    <t>41,89%</t>
+  </si>
+  <si>
+    <t>67,48%</t>
+  </si>
+  <si>
+    <t>53,86%</t>
+  </si>
+  <si>
+    <t>45,38%</t>
+  </si>
+  <si>
+    <t>46,82%</t>
+  </si>
+  <si>
+    <t>35,74%</t>
+  </si>
+  <si>
+    <t>57,91%</t>
+  </si>
+  <si>
+    <t>45,26%</t>
+  </si>
+  <si>
+    <t>32,52%</t>
+  </si>
+  <si>
+    <t>58,11%</t>
+  </si>
+  <si>
+    <t>46,14%</t>
+  </si>
+  <si>
+    <t>54,62%</t>
+  </si>
+  <si>
+    <t>47,38%</t>
+  </si>
+  <si>
+    <t>37,57%</t>
+  </si>
+  <si>
+    <t>57,44%</t>
+  </si>
+  <si>
+    <t>61,53%</t>
+  </si>
+  <si>
+    <t>49,88%</t>
+  </si>
+  <si>
+    <t>72,94%</t>
+  </si>
+  <si>
+    <t>53,41%</t>
+  </si>
+  <si>
+    <t>45,69%</t>
+  </si>
+  <si>
+    <t>61,3%</t>
+  </si>
+  <si>
+    <t>52,62%</t>
+  </si>
+  <si>
+    <t>42,56%</t>
+  </si>
+  <si>
+    <t>62,43%</t>
+  </si>
+  <si>
+    <t>38,47%</t>
+  </si>
+  <si>
+    <t>27,06%</t>
+  </si>
+  <si>
+    <t>50,12%</t>
+  </si>
+  <si>
+    <t>46,59%</t>
+  </si>
+  <si>
+    <t>38,7%</t>
+  </si>
+  <si>
+    <t>54,31%</t>
+  </si>
+  <si>
+    <t>38,36%</t>
+  </si>
+  <si>
+    <t>28,44%</t>
+  </si>
+  <si>
+    <t>49,71%</t>
+  </si>
+  <si>
+    <t>51,21%</t>
+  </si>
+  <si>
+    <t>36,05%</t>
+  </si>
+  <si>
+    <t>68,18%</t>
+  </si>
+  <si>
+    <t>42,45%</t>
+  </si>
+  <si>
+    <t>33,79%</t>
+  </si>
+  <si>
+    <t>52,11%</t>
+  </si>
+  <si>
+    <t>61,64%</t>
+  </si>
+  <si>
+    <t>50,29%</t>
+  </si>
+  <si>
+    <t>71,56%</t>
+  </si>
+  <si>
+    <t>48,79%</t>
+  </si>
+  <si>
+    <t>31,82%</t>
+  </si>
+  <si>
+    <t>63,95%</t>
+  </si>
+  <si>
+    <t>57,55%</t>
+  </si>
+  <si>
+    <t>47,89%</t>
+  </si>
+  <si>
+    <t>66,21%</t>
+  </si>
+  <si>
+    <t>45,59%</t>
+  </si>
+  <si>
+    <t>31,22%</t>
+  </si>
+  <si>
+    <t>60,85%</t>
+  </si>
+  <si>
+    <t>63,53%</t>
+  </si>
+  <si>
+    <t>41,37%</t>
+  </si>
+  <si>
+    <t>82,51%</t>
+  </si>
+  <si>
+    <t>52,23%</t>
+  </si>
+  <si>
+    <t>39,31%</t>
+  </si>
+  <si>
+    <t>64,39%</t>
+  </si>
+  <si>
+    <t>54,41%</t>
+  </si>
+  <si>
+    <t>39,15%</t>
+  </si>
+  <si>
+    <t>68,78%</t>
+  </si>
+  <si>
+    <t>36,47%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>58,63%</t>
+  </si>
+  <si>
+    <t>47,77%</t>
+  </si>
+  <si>
+    <t>35,61%</t>
+  </si>
+  <si>
+    <t>60,69%</t>
+  </si>
+  <si>
+    <t>46,87%</t>
+  </si>
+  <si>
+    <t>41,03%</t>
+  </si>
+  <si>
+    <t>52,06%</t>
+  </si>
+  <si>
+    <t>57,54%</t>
+  </si>
+  <si>
+    <t>49,47%</t>
+  </si>
+  <si>
+    <t>63,88%</t>
+  </si>
+  <si>
+    <t>51,13%</t>
+  </si>
+  <si>
+    <t>47,09%</t>
+  </si>
+  <si>
+    <t>55,93%</t>
+  </si>
+  <si>
+    <t>53,13%</t>
+  </si>
+  <si>
+    <t>47,94%</t>
+  </si>
+  <si>
+    <t>58,97%</t>
+  </si>
+  <si>
+    <t>42,46%</t>
+  </si>
+  <si>
+    <t>36,12%</t>
+  </si>
+  <si>
+    <t>50,53%</t>
+  </si>
+  <si>
+    <t>48,87%</t>
+  </si>
+  <si>
+    <t>44,07%</t>
+  </si>
+  <si>
+    <t>52,91%</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo le afecta de manera que se siente nervioso y estresado en 2016 (Tasa respuesta: 8,05%)</t>
+  </si>
+  <si>
+    <t>34,09%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>62,83%</t>
+  </si>
+  <si>
+    <t>66,12%</t>
+  </si>
+  <si>
+    <t>32,84%</t>
+  </si>
+  <si>
+    <t>91,44%</t>
+  </si>
+  <si>
+    <t>47,04%</t>
+  </si>
+  <si>
+    <t>28,26%</t>
+  </si>
+  <si>
+    <t>65,58%</t>
+  </si>
+  <si>
+    <t>65,91%</t>
+  </si>
+  <si>
+    <t>37,17%</t>
+  </si>
+  <si>
+    <t>87,27%</t>
+  </si>
+  <si>
+    <t>33,88%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>67,16%</t>
+  </si>
+  <si>
+    <t>52,96%</t>
+  </si>
+  <si>
+    <t>34,42%</t>
+  </si>
+  <si>
+    <t>71,74%</t>
+  </si>
+  <si>
+    <t>36,35%</t>
+  </si>
+  <si>
+    <t>26,09%</t>
+  </si>
+  <si>
+    <t>47,29%</t>
+  </si>
+  <si>
+    <t>60,14%</t>
+  </si>
+  <si>
+    <t>44,0%</t>
+  </si>
+  <si>
+    <t>73,2%</t>
+  </si>
+  <si>
+    <t>44,97%</t>
+  </si>
+  <si>
+    <t>35,89%</t>
+  </si>
+  <si>
+    <t>53,78%</t>
+  </si>
+  <si>
+    <t>63,65%</t>
+  </si>
+  <si>
+    <t>52,71%</t>
+  </si>
+  <si>
+    <t>73,91%</t>
+  </si>
+  <si>
+    <t>39,86%</t>
+  </si>
+  <si>
+    <t>26,8%</t>
+  </si>
+  <si>
+    <t>56,0%</t>
+  </si>
+  <si>
+    <t>55,03%</t>
+  </si>
+  <si>
+    <t>46,22%</t>
+  </si>
+  <si>
+    <t>64,11%</t>
+  </si>
+  <si>
+    <t>38,57%</t>
+  </si>
+  <si>
+    <t>29,02%</t>
+  </si>
+  <si>
+    <t>48,45%</t>
+  </si>
+  <si>
+    <t>62,26%</t>
+  </si>
+  <si>
+    <t>51,65%</t>
+  </si>
+  <si>
+    <t>72,69%</t>
+  </si>
+  <si>
+    <t>47,74%</t>
+  </si>
+  <si>
+    <t>40,29%</t>
+  </si>
+  <si>
+    <t>54,84%</t>
+  </si>
+  <si>
+    <t>61,43%</t>
+  </si>
+  <si>
+    <t>51,55%</t>
+  </si>
+  <si>
+    <t>70,98%</t>
+  </si>
+  <si>
+    <t>37,74%</t>
+  </si>
+  <si>
+    <t>27,31%</t>
+  </si>
+  <si>
+    <t>48,35%</t>
+  </si>
+  <si>
+    <t>52,26%</t>
+  </si>
+  <si>
+    <t>45,16%</t>
+  </si>
+  <si>
+    <t>59,71%</t>
+  </si>
+  <si>
+    <t>50,64%</t>
+  </si>
+  <si>
+    <t>39,1%</t>
+  </si>
+  <si>
+    <t>61,56%</t>
+  </si>
+  <si>
+    <t>55,95%</t>
+  </si>
+  <si>
+    <t>42,38%</t>
+  </si>
+  <si>
+    <t>68,71%</t>
+  </si>
+  <si>
+    <t>43,2%</t>
+  </si>
+  <si>
+    <t>61,48%</t>
+  </si>
+  <si>
+    <t>49,36%</t>
+  </si>
+  <si>
+    <t>38,44%</t>
+  </si>
+  <si>
+    <t>60,9%</t>
+  </si>
+  <si>
+    <t>44,05%</t>
+  </si>
+  <si>
+    <t>31,29%</t>
+  </si>
+  <si>
+    <t>57,62%</t>
+  </si>
+  <si>
+    <t>38,52%</t>
+  </si>
+  <si>
+    <t>56,8%</t>
+  </si>
+  <si>
+    <t>55,05%</t>
+  </si>
+  <si>
+    <t>68,81%</t>
+  </si>
+  <si>
+    <t>63,68%</t>
+  </si>
+  <si>
+    <t>42,42%</t>
+  </si>
+  <si>
+    <t>82,29%</t>
+  </si>
+  <si>
+    <t>58,56%</t>
+  </si>
+  <si>
+    <t>45,67%</t>
+  </si>
+  <si>
+    <t>69,5%</t>
+  </si>
+  <si>
+    <t>44,95%</t>
+  </si>
+  <si>
+    <t>31,19%</t>
+  </si>
+  <si>
+    <t>36,32%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>57,58%</t>
+  </si>
+  <si>
+    <t>41,44%</t>
+  </si>
+  <si>
+    <t>30,5%</t>
+  </si>
+  <si>
+    <t>54,33%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>43,43%</t>
+  </si>
+  <si>
+    <t>38,13%</t>
+  </si>
+  <si>
+    <t>49,1%</t>
+  </si>
+  <si>
+    <t>60,58%</t>
+  </si>
+  <si>
+    <t>53,42%</t>
+  </si>
+  <si>
+    <t>66,65%</t>
+  </si>
+  <si>
+    <t>49,98%</t>
+  </si>
+  <si>
+    <t>45,54%</t>
+  </si>
+  <si>
+    <t>54,18%</t>
+  </si>
+  <si>
+    <t>56,57%</t>
+  </si>
+  <si>
+    <t>50,9%</t>
+  </si>
+  <si>
+    <t>61,87%</t>
+  </si>
+  <si>
+    <t>39,42%</t>
+  </si>
+  <si>
+    <t>33,35%</t>
+  </si>
+  <si>
+    <t>46,58%</t>
+  </si>
+  <si>
+    <t>50,02%</t>
+  </si>
+  <si>
+    <t>45,82%</t>
+  </si>
+  <si>
+    <t>54,46%</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo le afecta de manera que se siente nervioso y estresado en 2023 (Tasa respuesta: 9,29%)</t>
+  </si>
+  <si>
+    <t>54,78%</t>
+  </si>
+  <si>
+    <t>85,82%</t>
+  </si>
+  <si>
+    <t>53,21%</t>
+  </si>
+  <si>
+    <t>77,35%</t>
+  </si>
+  <si>
+    <t>46,51%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>45,22%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>46,79%</t>
+  </si>
+  <si>
+    <t>22,65%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>53,49%</t>
+  </si>
+  <si>
+    <t>73,65%</t>
+  </si>
+  <si>
+    <t>57,93%</t>
+  </si>
+  <si>
+    <t>86,17%</t>
+  </si>
+  <si>
+    <t>71,29%</t>
+  </si>
+  <si>
+    <t>58,37%</t>
+  </si>
+  <si>
+    <t>83,54%</t>
+  </si>
+  <si>
+    <t>72,5%</t>
+  </si>
+  <si>
+    <t>61,32%</t>
+  </si>
+  <si>
+    <t>81,6%</t>
+  </si>
+  <si>
+    <t>26,35%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>42,07%</t>
+  </si>
+  <si>
+    <t>28,71%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>41,63%</t>
+  </si>
+  <si>
+    <t>27,5%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>38,68%</t>
+  </si>
+  <si>
+    <t>44,63%</t>
+  </si>
+  <si>
+    <t>64,79%</t>
+  </si>
+  <si>
+    <t>60,66%</t>
+  </si>
+  <si>
+    <t>51,44%</t>
+  </si>
+  <si>
+    <t>69,31%</t>
+  </si>
+  <si>
+    <t>57,43%</t>
+  </si>
+  <si>
+    <t>50,24%</t>
+  </si>
+  <si>
+    <t>64,23%</t>
+  </si>
+  <si>
+    <t>35,21%</t>
+  </si>
+  <si>
+    <t>55,37%</t>
+  </si>
+  <si>
+    <t>39,34%</t>
+  </si>
+  <si>
+    <t>30,69%</t>
+  </si>
+  <si>
+    <t>48,56%</t>
+  </si>
+  <si>
+    <t>42,57%</t>
+  </si>
+  <si>
+    <t>35,77%</t>
+  </si>
+  <si>
+    <t>49,76%</t>
+  </si>
+  <si>
+    <t>63,56%</t>
+  </si>
+  <si>
+    <t>72,6%</t>
+  </si>
+  <si>
+    <t>61,8%</t>
+  </si>
+  <si>
+    <t>71,53%</t>
+  </si>
+  <si>
+    <t>62,58%</t>
+  </si>
+  <si>
+    <t>53,5%</t>
+  </si>
+  <si>
+    <t>36,44%</t>
+  </si>
+  <si>
+    <t>27,4%</t>
+  </si>
+  <si>
+    <t>38,2%</t>
+  </si>
+  <si>
+    <t>28,47%</t>
+  </si>
+  <si>
+    <t>37,42%</t>
+  </si>
+  <si>
+    <t>46,5%</t>
+  </si>
+  <si>
+    <t>64,08%</t>
+  </si>
+  <si>
+    <t>51,97%</t>
+  </si>
+  <si>
+    <t>74,9%</t>
+  </si>
+  <si>
+    <t>66,61%</t>
+  </si>
+  <si>
+    <t>56,88%</t>
+  </si>
+  <si>
+    <t>74,77%</t>
+  </si>
+  <si>
+    <t>65,24%</t>
+  </si>
+  <si>
+    <t>57,95%</t>
+  </si>
+  <si>
+    <t>72,44%</t>
+  </si>
+  <si>
+    <t>35,92%</t>
+  </si>
+  <si>
+    <t>25,1%</t>
+  </si>
+  <si>
+    <t>48,03%</t>
+  </si>
+  <si>
+    <t>33,39%</t>
+  </si>
+  <si>
+    <t>25,23%</t>
+  </si>
+  <si>
+    <t>43,12%</t>
+  </si>
+  <si>
+    <t>34,76%</t>
+  </si>
+  <si>
+    <t>27,56%</t>
+  </si>
+  <si>
+    <t>42,05%</t>
+  </si>
+  <si>
+    <t>25,91%</t>
+  </si>
+  <si>
+    <t>88,29%</t>
+  </si>
+  <si>
+    <t>65,6%</t>
+  </si>
+  <si>
+    <t>25,27%</t>
+  </si>
+  <si>
+    <t>45,88%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>76,81%</t>
+  </si>
+  <si>
+    <t>74,09%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>34,4%</t>
+  </si>
+  <si>
+    <t>74,73%</t>
+  </si>
+  <si>
+    <t>54,12%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>82,37%</t>
+  </si>
+  <si>
+    <t>62,39%</t>
+  </si>
+  <si>
+    <t>56,43%</t>
+  </si>
+  <si>
+    <t>67,18%</t>
+  </si>
+  <si>
+    <t>64,98%</t>
+  </si>
+  <si>
+    <t>57,3%</t>
+  </si>
+  <si>
+    <t>70,0%</t>
+  </si>
+  <si>
+    <t>63,7%</t>
+  </si>
+  <si>
+    <t>58,81%</t>
+  </si>
+  <si>
+    <t>67,57%</t>
   </si>
   <si>
     <t>37,61%</t>
   </si>
   <si>
-    <t>62,09%</t>
-  </si>
-  <si>
-    <t>47,73%</t>
-  </si>
-  <si>
-    <t>40,29%</t>
-  </si>
-  <si>
-    <t>54,64%</t>
-  </si>
-  <si>
-    <t>53,73%</t>
-  </si>
-  <si>
-    <t>44,25%</t>
-  </si>
-  <si>
-    <t>62,1%</t>
-  </si>
-  <si>
-    <t>49,65%</t>
-  </si>
-  <si>
-    <t>37,91%</t>
-  </si>
-  <si>
-    <t>62,39%</t>
-  </si>
-  <si>
-    <t>52,27%</t>
-  </si>
-  <si>
-    <t>45,36%</t>
-  </si>
-  <si>
-    <t>59,71%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>46,57%</t>
-  </si>
-  <si>
-    <t>37,21%</t>
-  </si>
-  <si>
-    <t>57,26%</t>
-  </si>
-  <si>
-    <t>49,66%</t>
-  </si>
-  <si>
-    <t>32,62%</t>
-  </si>
-  <si>
-    <t>65,23%</t>
-  </si>
-  <si>
-    <t>47,34%</t>
-  </si>
-  <si>
-    <t>38,66%</t>
-  </si>
-  <si>
-    <t>55,31%</t>
-  </si>
-  <si>
-    <t>53,43%</t>
-  </si>
-  <si>
-    <t>42,74%</t>
-  </si>
-  <si>
-    <t>62,79%</t>
-  </si>
-  <si>
-    <t>50,34%</t>
-  </si>
-  <si>
-    <t>34,77%</t>
-  </si>
-  <si>
-    <t>67,38%</t>
-  </si>
-  <si>
-    <t>52,66%</t>
-  </si>
-  <si>
-    <t>44,69%</t>
-  </si>
-  <si>
-    <t>61,34%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>30,17%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>44,73%</t>
-  </si>
-  <si>
-    <t>36,11%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>65,17%</t>
-  </si>
-  <si>
-    <t>31,55%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>43,48%</t>
-  </si>
-  <si>
-    <t>69,83%</t>
-  </si>
-  <si>
-    <t>55,27%</t>
-  </si>
-  <si>
-    <t>82,44%</t>
-  </si>
-  <si>
-    <t>63,89%</t>
-  </si>
-  <si>
-    <t>34,83%</t>
-  </si>
-  <si>
-    <t>85,47%</t>
-  </si>
-  <si>
-    <t>68,45%</t>
-  </si>
-  <si>
-    <t>56,52%</t>
-  </si>
-  <si>
-    <t>79,85%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>43,42%</t>
-  </si>
-  <si>
-    <t>38,54%</t>
-  </si>
-  <si>
-    <t>48,64%</t>
-  </si>
-  <si>
-    <t>51,34%</t>
-  </si>
-  <si>
-    <t>44,47%</t>
-  </si>
-  <si>
-    <t>57,62%</t>
-  </si>
-  <si>
-    <t>45,94%</t>
-  </si>
-  <si>
-    <t>42,05%</t>
-  </si>
-  <si>
-    <t>49,44%</t>
-  </si>
-  <si>
-    <t>56,58%</t>
-  </si>
-  <si>
-    <t>51,36%</t>
-  </si>
-  <si>
-    <t>61,46%</t>
-  </si>
-  <si>
-    <t>48,66%</t>
-  </si>
-  <si>
-    <t>42,38%</t>
-  </si>
-  <si>
-    <t>55,53%</t>
-  </si>
-  <si>
-    <t>54,06%</t>
-  </si>
-  <si>
-    <t>50,56%</t>
-  </si>
-  <si>
-    <t>57,95%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo le afecta de manera que se siente nervioso y estresado en 2012 (Tasa respuesta: 7,84%)</t>
-  </si>
-  <si>
-    <t>67,61%</t>
-  </si>
-  <si>
-    <t>30,58%</t>
-  </si>
-  <si>
-    <t>91,1%</t>
-  </si>
-  <si>
-    <t>28,24%</t>
-  </si>
-  <si>
-    <t>89,36%</t>
-  </si>
-  <si>
-    <t>63,3%</t>
-  </si>
-  <si>
-    <t>39,32%</t>
-  </si>
-  <si>
-    <t>83,73%</t>
-  </si>
-  <si>
-    <t>32,39%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>69,42%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>71,76%</t>
-  </si>
-  <si>
-    <t>36,7%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>60,68%</t>
-  </si>
-  <si>
-    <t>53,18%</t>
-  </si>
-  <si>
-    <t>42,67%</t>
-  </si>
-  <si>
-    <t>64,24%</t>
-  </si>
-  <si>
-    <t>54,74%</t>
-  </si>
-  <si>
-    <t>42,92%</t>
-  </si>
-  <si>
-    <t>65,88%</t>
-  </si>
-  <si>
-    <t>53,86%</t>
-  </si>
-  <si>
-    <t>45,84%</t>
-  </si>
-  <si>
-    <t>62,12%</t>
-  </si>
-  <si>
-    <t>46,82%</t>
-  </si>
-  <si>
-    <t>35,76%</t>
-  </si>
-  <si>
-    <t>57,33%</t>
-  </si>
-  <si>
-    <t>45,26%</t>
-  </si>
-  <si>
-    <t>34,12%</t>
-  </si>
-  <si>
-    <t>57,08%</t>
-  </si>
-  <si>
-    <t>46,14%</t>
-  </si>
-  <si>
-    <t>37,88%</t>
-  </si>
-  <si>
-    <t>54,16%</t>
-  </si>
-  <si>
-    <t>47,38%</t>
-  </si>
-  <si>
-    <t>37,1%</t>
-  </si>
-  <si>
-    <t>58,17%</t>
-  </si>
-  <si>
-    <t>61,53%</t>
-  </si>
-  <si>
-    <t>49,77%</t>
-  </si>
-  <si>
-    <t>73,95%</t>
-  </si>
-  <si>
-    <t>53,41%</t>
-  </si>
-  <si>
-    <t>45,77%</t>
-  </si>
-  <si>
-    <t>52,62%</t>
-  </si>
-  <si>
-    <t>41,83%</t>
-  </si>
-  <si>
-    <t>62,9%</t>
-  </si>
-  <si>
-    <t>38,47%</t>
-  </si>
-  <si>
-    <t>26,05%</t>
-  </si>
-  <si>
-    <t>50,23%</t>
-  </si>
-  <si>
-    <t>46,59%</t>
-  </si>
-  <si>
-    <t>54,23%</t>
-  </si>
-  <si>
-    <t>38,36%</t>
-  </si>
-  <si>
-    <t>28,3%</t>
-  </si>
-  <si>
-    <t>49,1%</t>
-  </si>
-  <si>
-    <t>51,21%</t>
-  </si>
-  <si>
-    <t>34,61%</t>
-  </si>
-  <si>
-    <t>67,72%</t>
-  </si>
-  <si>
-    <t>42,45%</t>
-  </si>
-  <si>
-    <t>33,77%</t>
-  </si>
-  <si>
-    <t>51,88%</t>
-  </si>
-  <si>
-    <t>61,64%</t>
-  </si>
-  <si>
-    <t>50,9%</t>
-  </si>
-  <si>
-    <t>71,7%</t>
-  </si>
-  <si>
-    <t>48,79%</t>
-  </si>
-  <si>
-    <t>32,28%</t>
-  </si>
-  <si>
-    <t>65,39%</t>
-  </si>
-  <si>
-    <t>57,55%</t>
-  </si>
-  <si>
-    <t>48,12%</t>
-  </si>
-  <si>
-    <t>66,23%</t>
-  </si>
-  <si>
-    <t>45,59%</t>
-  </si>
-  <si>
-    <t>31,22%</t>
-  </si>
-  <si>
-    <t>60,52%</t>
-  </si>
-  <si>
-    <t>63,53%</t>
-  </si>
-  <si>
-    <t>42,29%</t>
-  </si>
-  <si>
-    <t>84,23%</t>
-  </si>
-  <si>
-    <t>52,23%</t>
-  </si>
-  <si>
-    <t>40,63%</t>
-  </si>
-  <si>
-    <t>65,08%</t>
-  </si>
-  <si>
-    <t>54,41%</t>
-  </si>
-  <si>
-    <t>39,48%</t>
-  </si>
-  <si>
-    <t>68,78%</t>
-  </si>
-  <si>
-    <t>36,47%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>57,71%</t>
-  </si>
-  <si>
-    <t>47,77%</t>
-  </si>
-  <si>
-    <t>34,92%</t>
-  </si>
-  <si>
-    <t>59,37%</t>
-  </si>
-  <si>
-    <t>46,87%</t>
-  </si>
-  <si>
-    <t>41,61%</t>
-  </si>
-  <si>
-    <t>57,54%</t>
-  </si>
-  <si>
-    <t>49,89%</t>
-  </si>
-  <si>
-    <t>64,06%</t>
-  </si>
-  <si>
-    <t>51,13%</t>
-  </si>
-  <si>
-    <t>46,92%</t>
-  </si>
-  <si>
-    <t>55,89%</t>
-  </si>
-  <si>
-    <t>53,13%</t>
-  </si>
-  <si>
-    <t>58,39%</t>
-  </si>
-  <si>
-    <t>42,46%</t>
-  </si>
-  <si>
-    <t>35,94%</t>
-  </si>
-  <si>
-    <t>50,11%</t>
-  </si>
-  <si>
-    <t>48,87%</t>
-  </si>
-  <si>
-    <t>44,11%</t>
-  </si>
-  <si>
-    <t>53,08%</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo le afecta de manera que se siente nervioso y estresado en 2016 (Tasa respuesta: 8,05%)</t>
-  </si>
-  <si>
-    <t>34,09%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>60,58%</t>
-  </si>
-  <si>
-    <t>66,12%</t>
-  </si>
-  <si>
-    <t>33,41%</t>
-  </si>
-  <si>
-    <t>87,06%</t>
-  </si>
-  <si>
-    <t>47,04%</t>
-  </si>
-  <si>
-    <t>28,69%</t>
-  </si>
-  <si>
-    <t>64,61%</t>
-  </si>
-  <si>
-    <t>65,91%</t>
-  </si>
-  <si>
-    <t>39,42%</t>
-  </si>
-  <si>
-    <t>87,24%</t>
-  </si>
-  <si>
-    <t>33,88%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>66,59%</t>
-  </si>
-  <si>
-    <t>52,96%</t>
-  </si>
-  <si>
-    <t>35,39%</t>
-  </si>
-  <si>
-    <t>71,31%</t>
-  </si>
-  <si>
-    <t>36,35%</t>
-  </si>
-  <si>
-    <t>27,36%</t>
-  </si>
-  <si>
-    <t>48,3%</t>
-  </si>
-  <si>
-    <t>60,14%</t>
-  </si>
-  <si>
-    <t>44,13%</t>
-  </si>
-  <si>
-    <t>73,96%</t>
-  </si>
-  <si>
-    <t>44,97%</t>
-  </si>
-  <si>
-    <t>52,88%</t>
-  </si>
-  <si>
-    <t>63,65%</t>
-  </si>
-  <si>
-    <t>51,7%</t>
-  </si>
-  <si>
-    <t>72,64%</t>
-  </si>
-  <si>
-    <t>39,86%</t>
-  </si>
-  <si>
-    <t>26,04%</t>
-  </si>
-  <si>
-    <t>55,87%</t>
-  </si>
-  <si>
-    <t>55,03%</t>
-  </si>
-  <si>
-    <t>47,12%</t>
-  </si>
-  <si>
-    <t>38,57%</t>
-  </si>
-  <si>
-    <t>29,73%</t>
-  </si>
-  <si>
-    <t>48,47%</t>
-  </si>
-  <si>
-    <t>62,26%</t>
-  </si>
-  <si>
-    <t>49,99%</t>
-  </si>
-  <si>
-    <t>73,32%</t>
-  </si>
-  <si>
-    <t>47,74%</t>
-  </si>
-  <si>
-    <t>39,52%</t>
-  </si>
-  <si>
-    <t>54,88%</t>
-  </si>
-  <si>
-    <t>61,43%</t>
-  </si>
-  <si>
-    <t>51,53%</t>
-  </si>
-  <si>
-    <t>70,27%</t>
-  </si>
-  <si>
-    <t>37,74%</t>
-  </si>
-  <si>
-    <t>26,68%</t>
-  </si>
-  <si>
-    <t>50,01%</t>
-  </si>
-  <si>
-    <t>52,26%</t>
-  </si>
-  <si>
-    <t>45,12%</t>
-  </si>
-  <si>
-    <t>60,48%</t>
-  </si>
-  <si>
-    <t>50,64%</t>
-  </si>
-  <si>
-    <t>39,84%</t>
-  </si>
-  <si>
-    <t>61,54%</t>
-  </si>
-  <si>
-    <t>55,95%</t>
-  </si>
-  <si>
-    <t>42,42%</t>
-  </si>
-  <si>
-    <t>68,94%</t>
-  </si>
-  <si>
-    <t>44,31%</t>
-  </si>
-  <si>
-    <t>61,33%</t>
-  </si>
-  <si>
-    <t>49,36%</t>
-  </si>
-  <si>
-    <t>38,46%</t>
-  </si>
-  <si>
-    <t>60,16%</t>
-  </si>
-  <si>
-    <t>44,05%</t>
-  </si>
-  <si>
-    <t>31,06%</t>
-  </si>
-  <si>
-    <t>57,58%</t>
-  </si>
-  <si>
-    <t>38,67%</t>
-  </si>
-  <si>
-    <t>55,69%</t>
-  </si>
-  <si>
-    <t>55,05%</t>
-  </si>
-  <si>
-    <t>39,23%</t>
-  </si>
-  <si>
-    <t>70,66%</t>
-  </si>
-  <si>
-    <t>63,68%</t>
-  </si>
-  <si>
-    <t>44,34%</t>
-  </si>
-  <si>
-    <t>80,27%</t>
-  </si>
-  <si>
-    <t>58,56%</t>
-  </si>
-  <si>
-    <t>46,78%</t>
-  </si>
-  <si>
-    <t>70,02%</t>
-  </si>
-  <si>
-    <t>44,95%</t>
-  </si>
-  <si>
-    <t>29,34%</t>
-  </si>
-  <si>
-    <t>60,77%</t>
-  </si>
-  <si>
-    <t>36,32%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>55,66%</t>
-  </si>
-  <si>
-    <t>41,44%</t>
-  </si>
-  <si>
-    <t>29,98%</t>
-  </si>
-  <si>
-    <t>53,22%</t>
-  </si>
-  <si>
-    <t>43,07%</t>
-  </si>
-  <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>43,43%</t>
-  </si>
-  <si>
-    <t>37,42%</t>
-  </si>
-  <si>
-    <t>49,09%</t>
-  </si>
-  <si>
-    <t>53,57%</t>
-  </si>
-  <si>
-    <t>67,32%</t>
-  </si>
-  <si>
-    <t>49,98%</t>
-  </si>
-  <si>
-    <t>45,91%</t>
-  </si>
-  <si>
-    <t>56,57%</t>
-  </si>
-  <si>
-    <t>50,91%</t>
-  </si>
-  <si>
-    <t>62,58%</t>
-  </si>
-  <si>
-    <t>32,68%</t>
-  </si>
-  <si>
-    <t>46,43%</t>
-  </si>
-  <si>
-    <t>50,02%</t>
-  </si>
-  <si>
-    <t>54,09%</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo le afecta de manera que se siente nervioso y estresado en 2023 (Tasa respuesta: 9,29%)</t>
-  </si>
-  <si>
-    <t>54,78%</t>
-  </si>
-  <si>
-    <t>85,82%</t>
-  </si>
-  <si>
-    <t>52,2%</t>
-  </si>
-  <si>
-    <t>77,35%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>45,22%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>47,8%</t>
-  </si>
-  <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>73,65%</t>
-  </si>
-  <si>
-    <t>57,44%</t>
-  </si>
-  <si>
-    <t>87,03%</t>
-  </si>
-  <si>
-    <t>71,29%</t>
-  </si>
-  <si>
-    <t>57,46%</t>
-  </si>
-  <si>
-    <t>82,29%</t>
-  </si>
-  <si>
-    <t>72,5%</t>
-  </si>
-  <si>
-    <t>61,06%</t>
-  </si>
-  <si>
-    <t>81,67%</t>
-  </si>
-  <si>
-    <t>26,35%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>42,56%</t>
-  </si>
-  <si>
-    <t>28,71%</t>
-  </si>
-  <si>
-    <t>17,71%</t>
-  </si>
-  <si>
-    <t>42,54%</t>
-  </si>
-  <si>
-    <t>27,5%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>38,94%</t>
-  </si>
-  <si>
-    <t>42,71%</t>
-  </si>
-  <si>
-    <t>65,02%</t>
-  </si>
-  <si>
-    <t>60,66%</t>
-  </si>
-  <si>
-    <t>51,37%</t>
-  </si>
-  <si>
-    <t>69,58%</t>
-  </si>
-  <si>
-    <t>57,43%</t>
-  </si>
-  <si>
-    <t>50,31%</t>
-  </si>
-  <si>
-    <t>64,39%</t>
-  </si>
-  <si>
-    <t>34,98%</t>
-  </si>
-  <si>
-    <t>57,29%</t>
-  </si>
-  <si>
-    <t>39,34%</t>
-  </si>
-  <si>
-    <t>30,42%</t>
-  </si>
-  <si>
-    <t>48,63%</t>
-  </si>
-  <si>
-    <t>42,57%</t>
-  </si>
-  <si>
-    <t>35,61%</t>
-  </si>
-  <si>
-    <t>49,69%</t>
-  </si>
-  <si>
-    <t>63,56%</t>
-  </si>
-  <si>
-    <t>54,21%</t>
-  </si>
-  <si>
-    <t>73,25%</t>
-  </si>
-  <si>
-    <t>61,8%</t>
-  </si>
-  <si>
-    <t>47,18%</t>
-  </si>
-  <si>
-    <t>71,88%</t>
-  </si>
-  <si>
-    <t>69,45%</t>
-  </si>
-  <si>
-    <t>36,44%</t>
-  </si>
-  <si>
-    <t>26,75%</t>
-  </si>
-  <si>
-    <t>45,79%</t>
-  </si>
-  <si>
-    <t>38,2%</t>
-  </si>
-  <si>
-    <t>28,12%</t>
-  </si>
-  <si>
-    <t>52,82%</t>
-  </si>
-  <si>
-    <t>30,55%</t>
-  </si>
-  <si>
-    <t>64,08%</t>
-  </si>
-  <si>
-    <t>52,09%</t>
-  </si>
-  <si>
-    <t>74,61%</t>
-  </si>
-  <si>
-    <t>66,61%</t>
-  </si>
-  <si>
-    <t>57,51%</t>
-  </si>
-  <si>
-    <t>75,01%</t>
-  </si>
-  <si>
-    <t>65,24%</t>
-  </si>
-  <si>
-    <t>57,47%</t>
-  </si>
-  <si>
-    <t>72,42%</t>
-  </si>
-  <si>
-    <t>35,92%</t>
-  </si>
-  <si>
-    <t>25,39%</t>
-  </si>
-  <si>
-    <t>47,91%</t>
-  </si>
-  <si>
-    <t>33,39%</t>
-  </si>
-  <si>
-    <t>24,99%</t>
-  </si>
-  <si>
-    <t>42,49%</t>
-  </si>
-  <si>
-    <t>34,76%</t>
-  </si>
-  <si>
-    <t>27,58%</t>
-  </si>
-  <si>
-    <t>42,53%</t>
-  </si>
-  <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>88,29%</t>
-  </si>
-  <si>
-    <t>65,6%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>45,88%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>80,86%</t>
-  </si>
-  <si>
-    <t>74,09%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>34,4%</t>
-  </si>
-  <si>
-    <t>87,05%</t>
-  </si>
-  <si>
-    <t>54,12%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>81,57%</t>
-  </si>
-  <si>
-    <t>67,46%</t>
-  </si>
-  <si>
-    <t>64,98%</t>
-  </si>
-  <si>
-    <t>57,15%</t>
-  </si>
-  <si>
-    <t>69,7%</t>
-  </si>
-  <si>
-    <t>63,7%</t>
-  </si>
-  <si>
-    <t>59,1%</t>
-  </si>
-  <si>
-    <t>67,4%</t>
-  </si>
-  <si>
-    <t>32,54%</t>
+    <t>32,82%</t>
+  </si>
+  <si>
+    <t>43,57%</t>
   </si>
   <si>
     <t>35,02%</t>
   </si>
   <si>
-    <t>30,3%</t>
-  </si>
-  <si>
-    <t>42,85%</t>
+    <t>30,0%</t>
+  </si>
+  <si>
+    <t>42,7%</t>
   </si>
   <si>
     <t>36,3%</t>
   </si>
   <si>
-    <t>32,6%</t>
-  </si>
-  <si>
-    <t>40,9%</t>
+    <t>32,43%</t>
+  </si>
+  <si>
+    <t>41,19%</t>
   </si>
 </sst>
 </file>
@@ -1776,7 +1818,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8925B0FC-1486-49EB-829C-6D7CE6929326}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFC66961-CCCA-4D29-A87F-DFD3FB654471}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1969,10 +2011,10 @@
         <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
         <v>40</v>
@@ -1981,13 +2023,13 @@
         <v>38528</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2002,13 +2044,13 @@
         <v>46172</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
         <v>21</v>
@@ -2017,13 +2059,13 @@
         <v>19859</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
         <v>67</v>
@@ -2032,18 +2074,18 @@
         <v>66031</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -2055,13 +2097,13 @@
         <v>62296</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7">
         <v>43</v>
@@ -2070,13 +2112,13 @@
         <v>44884</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7">
         <v>100</v>
@@ -2085,13 +2127,13 @@
         <v>107180</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2106,13 +2148,13 @@
         <v>79995</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>33</v>
@@ -2121,13 +2163,13 @@
         <v>34391</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>109</v>
@@ -2136,13 +2178,13 @@
         <v>114386</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2157,13 +2199,13 @@
         <v>142291</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
         <v>76</v>
@@ -2172,13 +2214,13 @@
         <v>79275</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
         <v>209</v>
@@ -2187,18 +2229,18 @@
         <v>221566</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2210,13 +2252,13 @@
         <v>58315</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>34</v>
@@ -2225,13 +2267,13 @@
         <v>35266</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>90</v>
@@ -2240,13 +2282,13 @@
         <v>93580</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2261,13 +2303,13 @@
         <v>67713</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>33</v>
@@ -2276,13 +2318,13 @@
         <v>34776</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>99</v>
@@ -2291,13 +2333,13 @@
         <v>102490</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2312,13 +2354,13 @@
         <v>126028</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
         <v>67</v>
@@ -2327,13 +2369,13 @@
         <v>70042</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
         <v>189</v>
@@ -2342,18 +2384,18 @@
         <v>196070</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2365,13 +2407,13 @@
         <v>51740</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>19</v>
@@ -2380,13 +2422,13 @@
         <v>18391</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>65</v>
@@ -2395,13 +2437,13 @@
         <v>70131</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2416,13 +2458,13 @@
         <v>59370</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>18</v>
@@ -2431,13 +2473,13 @@
         <v>18646</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>73</v>
@@ -2446,13 +2488,13 @@
         <v>78016</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2467,13 +2509,13 @@
         <v>111110</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
         <v>37</v>
@@ -2482,13 +2524,13 @@
         <v>37037</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
         <v>138</v>
@@ -2497,18 +2539,18 @@
         <v>148147</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2520,13 +2562,13 @@
         <v>13841</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>5</v>
@@ -2535,13 +2577,13 @@
         <v>5022</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>19</v>
@@ -2550,13 +2592,13 @@
         <v>18863</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2571,13 +2613,13 @@
         <v>32041</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>9</v>
@@ -2586,13 +2628,13 @@
         <v>8887</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>42</v>
@@ -2601,13 +2643,13 @@
         <v>40928</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2622,13 +2664,13 @@
         <v>45882</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
         <v>14</v>
@@ -2637,13 +2679,13 @@
         <v>13909</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
         <v>61</v>
@@ -2652,18 +2694,18 @@
         <v>59791</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2675,26 +2717,26 @@
         <v>821</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
       </c>
       <c r="I19" s="7"/>
       <c r="J19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M19" s="7">
         <v>1</v>
@@ -2703,13 +2745,13 @@
         <v>821</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2724,26 +2766,26 @@
         <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
       </c>
       <c r="I20" s="7"/>
       <c r="J20" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -2752,13 +2794,13 @@
         <v>0</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2773,26 +2815,26 @@
         <v>821</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
       </c>
       <c r="I21" s="7"/>
       <c r="J21" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M21" s="7">
         <v>1</v>
@@ -2801,13 +2843,13 @@
         <v>821</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2824,13 +2866,13 @@
         <v>205061</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H22" s="7">
         <v>111</v>
@@ -2839,13 +2881,13 @@
         <v>113018</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="M22" s="7">
         <v>302</v>
@@ -2854,13 +2896,13 @@
         <v>318079</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2875,13 +2917,13 @@
         <v>267244</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H23" s="7">
         <v>104</v>
@@ -2890,13 +2932,13 @@
         <v>107103</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="M23" s="7">
         <v>363</v>
@@ -2905,13 +2947,13 @@
         <v>374348</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2926,13 +2968,13 @@
         <v>472305</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H24" s="7">
         <v>215</v>
@@ -2941,13 +2983,13 @@
         <v>220121</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M24" s="7">
         <v>665</v>
@@ -2956,18 +2998,18 @@
         <v>692427</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -2989,7 +3031,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76C3A783-CF77-4605-B957-3F8A9B894238}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38E9DF59-CD3C-4DB9-83A0-20A28B12A7A4}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3006,7 +3048,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3113,13 +3155,13 @@
         <v>6982</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H4" s="7">
         <v>6</v>
@@ -3128,13 +3170,13 @@
         <v>5919</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>47</v>
+        <v>137</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="M4" s="7">
         <v>13</v>
@@ -3143,13 +3185,13 @@
         <v>12901</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3164,13 +3206,13 @@
         <v>3345</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="H5" s="7">
         <v>4</v>
@@ -3179,13 +3221,13 @@
         <v>4137</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>37</v>
+        <v>146</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="M5" s="7">
         <v>7</v>
@@ -3194,13 +3236,13 @@
         <v>7482</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3215,13 +3257,13 @@
         <v>10327</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
         <v>10</v>
@@ -3230,13 +3272,13 @@
         <v>10056</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
         <v>20</v>
@@ -3245,18 +3287,18 @@
         <v>20383</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -3268,13 +3310,13 @@
         <v>45888</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="H7" s="7">
         <v>33</v>
@@ -3283,13 +3325,13 @@
         <v>36735</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="M7" s="7">
         <v>76</v>
@@ -3298,13 +3340,13 @@
         <v>82624</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3319,13 +3361,13 @@
         <v>40400</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="H8" s="7">
         <v>28</v>
@@ -3334,13 +3376,13 @@
         <v>30377</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="M8" s="7">
         <v>68</v>
@@ -3349,13 +3391,13 @@
         <v>70776</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>164</v>
+        <v>141</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3370,13 +3412,13 @@
         <v>86288</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
         <v>61</v>
@@ -3385,13 +3427,13 @@
         <v>67112</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
         <v>144</v>
@@ -3400,18 +3442,18 @@
         <v>153400</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3423,13 +3465,13 @@
         <v>46375</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="H10" s="7">
         <v>43</v>
@@ -3438,13 +3480,13 @@
         <v>44690</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="M10" s="7">
         <v>86</v>
@@ -3453,13 +3495,13 @@
         <v>91065</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>21</v>
+        <v>176</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3474,13 +3516,13 @@
         <v>51501</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="H11" s="7">
         <v>25</v>
@@ -3489,13 +3531,13 @@
         <v>27941</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="M11" s="7">
         <v>78</v>
@@ -3504,13 +3546,13 @@
         <v>79442</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>11</v>
+        <v>184</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3525,13 +3567,13 @@
         <v>97876</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
         <v>68</v>
@@ -3540,13 +3582,13 @@
         <v>72631</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
         <v>164</v>
@@ -3555,18 +3597,18 @@
         <v>170507</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3578,13 +3620,13 @@
         <v>34053</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="H13" s="7">
         <v>19</v>
@@ -3593,13 +3635,13 @@
         <v>21224</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="M13" s="7">
         <v>52</v>
@@ -3608,13 +3650,13 @@
         <v>55277</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3629,13 +3671,13 @@
         <v>54727</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="H14" s="7">
         <v>18</v>
@@ -3644,13 +3686,13 @@
         <v>20222</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="M14" s="7">
         <v>67</v>
@@ -3659,13 +3701,13 @@
         <v>74949</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3680,13 +3722,13 @@
         <v>88780</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
         <v>37</v>
@@ -3695,13 +3737,13 @@
         <v>41446</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
         <v>119</v>
@@ -3710,18 +3752,18 @@
         <v>130226</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3733,13 +3775,13 @@
         <v>19073</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="H16" s="7">
         <v>14</v>
@@ -3748,13 +3790,13 @@
         <v>15617</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="M16" s="7">
         <v>33</v>
@@ -3763,13 +3805,13 @@
         <v>34690</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3784,13 +3826,13 @@
         <v>22761</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="H17" s="7">
         <v>8</v>
@@ -3799,13 +3841,13 @@
         <v>8965</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="M17" s="7">
         <v>30</v>
@@ -3814,13 +3856,13 @@
         <v>31726</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3835,13 +3877,13 @@
         <v>41834</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
         <v>22</v>
@@ -3850,13 +3892,13 @@
         <v>24582</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
         <v>63</v>
@@ -3865,18 +3907,18 @@
         <v>66416</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3886,39 +3928,39 @@
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
       </c>
       <c r="I19" s="7"/>
       <c r="J19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
       </c>
       <c r="N19" s="7"/>
       <c r="O19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3931,39 +3973,39 @@
       </c>
       <c r="D20" s="7"/>
       <c r="E20" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
       </c>
       <c r="I20" s="7"/>
       <c r="J20" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
       </c>
       <c r="N20" s="7"/>
       <c r="O20" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3976,39 +4018,39 @@
       </c>
       <c r="D21" s="7"/>
       <c r="E21" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
       </c>
       <c r="I21" s="7"/>
       <c r="J21" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
       </c>
       <c r="N21" s="7"/>
       <c r="O21" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4025,13 +4067,13 @@
         <v>152372</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>172</v>
+        <v>224</v>
       </c>
       <c r="H22" s="7">
         <v>115</v>
@@ -4040,13 +4082,13 @@
         <v>124186</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="M22" s="7">
         <v>260</v>
@@ -4055,13 +4097,13 @@
         <v>276557</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4076,13 +4118,13 @@
         <v>172733</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>180</v>
+        <v>232</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="H23" s="7">
         <v>83</v>
@@ -4091,13 +4133,13 @@
         <v>91642</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="M23" s="7">
         <v>250</v>
@@ -4106,13 +4148,13 @@
         <v>264375</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4127,13 +4169,13 @@
         <v>325105</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H24" s="7">
         <v>198</v>
@@ -4142,13 +4184,13 @@
         <v>215828</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M24" s="7">
         <v>510</v>
@@ -4157,18 +4199,18 @@
         <v>540932</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -4190,7 +4232,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F2BBB07-E184-4EB2-AF2D-F49889B7B28D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA6700F7-3DAA-48B5-BD43-86C72F3EF509}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4207,7 +4249,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4314,13 +4356,13 @@
         <v>5846</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="H4" s="7">
         <v>8</v>
@@ -4329,13 +4371,13 @@
         <v>7698</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="M4" s="7">
         <v>13</v>
@@ -4344,13 +4386,13 @@
         <v>13544</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4365,13 +4407,13 @@
         <v>11305</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="H5" s="7">
         <v>4</v>
@@ -4380,13 +4422,13 @@
         <v>3945</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="M5" s="7">
         <v>15</v>
@@ -4395,13 +4437,13 @@
         <v>15250</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4416,13 +4458,13 @@
         <v>17151</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
         <v>12</v>
@@ -4431,13 +4473,13 @@
         <v>11643</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
         <v>28</v>
@@ -4446,18 +4488,18 @@
         <v>28794</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -4469,13 +4511,13 @@
         <v>29655</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="H7" s="7">
         <v>29</v>
@@ -4484,13 +4526,13 @@
         <v>27839</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="M7" s="7">
         <v>57</v>
@@ -4499,13 +4541,13 @@
         <v>57494</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>31</v>
+        <v>266</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4520,13 +4562,13 @@
         <v>51917</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="H8" s="7">
         <v>19</v>
@@ -4535,13 +4577,13 @@
         <v>18452</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="M8" s="7">
         <v>67</v>
@@ -4550,13 +4592,13 @@
         <v>70369</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>41</v>
+        <v>276</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4571,13 +4613,13 @@
         <v>81572</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
         <v>48</v>
@@ -4586,13 +4628,13 @@
         <v>46291</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
         <v>124</v>
@@ -4601,18 +4643,18 @@
         <v>127863</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -4624,13 +4666,13 @@
         <v>43626</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="H10" s="7">
         <v>44</v>
@@ -4639,13 +4681,13 @@
         <v>44490</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="M10" s="7">
         <v>83</v>
@@ -4654,13 +4696,13 @@
         <v>88117</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4675,13 +4717,13 @@
         <v>69497</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="H11" s="7">
         <v>27</v>
@@ -4690,13 +4732,13 @@
         <v>26968</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="M11" s="7">
         <v>94</v>
@@ -4705,13 +4747,13 @@
         <v>96464</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4726,13 +4768,13 @@
         <v>113123</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
         <v>71</v>
@@ -4741,13 +4783,13 @@
         <v>71458</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
         <v>177</v>
@@ -4756,18 +4798,18 @@
         <v>184581</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4779,13 +4821,13 @@
         <v>46301</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="H13" s="7">
         <v>27</v>
@@ -4794,13 +4836,13 @@
         <v>31394</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="M13" s="7">
         <v>68</v>
@@ -4809,13 +4851,13 @@
         <v>77695</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4830,13 +4872,13 @@
         <v>45127</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="H14" s="7">
         <v>23</v>
@@ -4845,13 +4887,13 @@
         <v>24713</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="M14" s="7">
         <v>64</v>
@@ -4860,13 +4902,13 @@
         <v>69840</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4881,13 +4923,13 @@
         <v>91428</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
         <v>50</v>
@@ -4896,13 +4938,13 @@
         <v>56107</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
         <v>132</v>
@@ -4911,18 +4953,18 @@
         <v>147535</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4934,13 +4976,13 @@
         <v>24687</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>304</v>
+        <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="H16" s="7">
         <v>17</v>
@@ -4949,13 +4991,13 @@
         <v>19613</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="M16" s="7">
         <v>39</v>
@@ -4964,13 +5006,13 @@
         <v>44300</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4985,13 +5027,13 @@
         <v>20161</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>314</v>
+        <v>21</v>
       </c>
       <c r="H17" s="7">
         <v>9</v>
@@ -5000,13 +5042,13 @@
         <v>11186</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="M17" s="7">
         <v>27</v>
@@ -5015,13 +5057,13 @@
         <v>31346</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5036,13 +5078,13 @@
         <v>44848</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
         <v>26</v>
@@ -5051,13 +5093,13 @@
         <v>30799</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
         <v>66</v>
@@ -5066,18 +5108,18 @@
         <v>75646</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5089,26 +5131,26 @@
         <v>1880</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
       </c>
       <c r="I19" s="7"/>
       <c r="J19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M19" s="7">
         <v>2</v>
@@ -5117,13 +5159,13 @@
         <v>1880</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5138,26 +5180,26 @@
         <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
       </c>
       <c r="I20" s="7"/>
       <c r="J20" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -5166,13 +5208,13 @@
         <v>0</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5187,26 +5229,26 @@
         <v>1880</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
       </c>
       <c r="I21" s="7"/>
       <c r="J21" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M21" s="7">
         <v>2</v>
@@ -5215,13 +5257,13 @@
         <v>1880</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5238,13 +5280,13 @@
         <v>151995</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="H22" s="7">
         <v>125</v>
@@ -5253,13 +5295,13 @@
         <v>131034</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>237</v>
+        <v>332</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="M22" s="7">
         <v>262</v>
@@ -5268,13 +5310,13 @@
         <v>283029</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>38</v>
+        <v>337</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5289,13 +5331,13 @@
         <v>198006</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="H23" s="7">
         <v>82</v>
@@ -5304,13 +5346,13 @@
         <v>85264</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>245</v>
+        <v>341</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>334</v>
+        <v>343</v>
       </c>
       <c r="M23" s="7">
         <v>267</v>
@@ -5319,13 +5361,13 @@
         <v>283270</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>335</v>
+        <v>344</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>46</v>
+        <v>345</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>336</v>
+        <v>346</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5340,13 +5382,13 @@
         <v>350001</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H24" s="7">
         <v>207</v>
@@ -5355,13 +5397,13 @@
         <v>216298</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M24" s="7">
         <v>529</v>
@@ -5370,18 +5412,18 @@
         <v>566299</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -5403,7 +5445,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83B1159A-D467-4383-BD84-4CCA8FCADDE4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36D14AD8-076D-4E70-8900-738403E7A265}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5420,7 +5462,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>337</v>
+        <v>347</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5527,13 +5569,13 @@
         <v>3505</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>338</v>
+        <v>348</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H4" s="7">
         <v>8</v>
@@ -5542,13 +5584,13 @@
         <v>14621</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>339</v>
+        <v>349</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="M4" s="7">
         <v>10</v>
@@ -5557,13 +5599,13 @@
         <v>18126</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>341</v>
+        <v>351</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>56</v>
+        <v>352</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>342</v>
+        <v>353</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5578,13 +5620,13 @@
         <v>2893</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>343</v>
+        <v>354</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H5" s="7">
         <v>2</v>
@@ -5593,13 +5635,13 @@
         <v>2416</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>344</v>
+        <v>355</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>345</v>
+        <v>356</v>
       </c>
       <c r="M5" s="7">
         <v>4</v>
@@ -5608,13 +5650,13 @@
         <v>5309</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>346</v>
+        <v>357</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>347</v>
+        <v>358</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>66</v>
+        <v>359</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5629,13 +5671,13 @@
         <v>6398</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
         <v>10</v>
@@ -5644,13 +5686,13 @@
         <v>17037</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
         <v>14</v>
@@ -5659,18 +5701,18 @@
         <v>23435</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -5682,13 +5724,13 @@
         <v>43035</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>348</v>
+        <v>360</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>349</v>
+        <v>361</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>350</v>
+        <v>362</v>
       </c>
       <c r="H7" s="7">
         <v>33</v>
@@ -5697,13 +5739,13 @@
         <v>39848</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>351</v>
+        <v>363</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>352</v>
+        <v>364</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>353</v>
+        <v>365</v>
       </c>
       <c r="M7" s="7">
         <v>64</v>
@@ -5712,13 +5754,13 @@
         <v>82883</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>354</v>
+        <v>366</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>355</v>
+        <v>367</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>356</v>
+        <v>368</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5733,13 +5775,13 @@
         <v>15397</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>357</v>
+        <v>369</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>358</v>
+        <v>370</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>359</v>
+        <v>371</v>
       </c>
       <c r="H8" s="7">
         <v>15</v>
@@ -5748,13 +5790,13 @@
         <v>16049</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>360</v>
+        <v>372</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>361</v>
+        <v>373</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>362</v>
+        <v>374</v>
       </c>
       <c r="M8" s="7">
         <v>26</v>
@@ -5763,13 +5805,13 @@
         <v>31446</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>363</v>
+        <v>375</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>364</v>
+        <v>376</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>365</v>
+        <v>377</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5784,13 +5826,13 @@
         <v>58432</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
         <v>48</v>
@@ -5799,13 +5841,13 @@
         <v>55897</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
         <v>90</v>
@@ -5814,18 +5856,18 @@
         <v>114329</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -5837,13 +5879,13 @@
         <v>54087</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>338</v>
+        <v>348</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>366</v>
+        <v>378</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>367</v>
+        <v>379</v>
       </c>
       <c r="H10" s="7">
         <v>69</v>
@@ -5852,13 +5894,13 @@
         <v>49168</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>368</v>
+        <v>380</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>369</v>
+        <v>381</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>370</v>
+        <v>382</v>
       </c>
       <c r="M10" s="7">
         <v>120</v>
@@ -5867,13 +5909,13 @@
         <v>103254</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>371</v>
+        <v>383</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>372</v>
+        <v>384</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>373</v>
+        <v>385</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5888,13 +5930,13 @@
         <v>44653</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>343</v>
+        <v>354</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>374</v>
+        <v>386</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>375</v>
+        <v>387</v>
       </c>
       <c r="H11" s="7">
         <v>48</v>
@@ -5903,13 +5945,13 @@
         <v>31882</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>376</v>
+        <v>388</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>377</v>
+        <v>389</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>378</v>
+        <v>390</v>
       </c>
       <c r="M11" s="7">
         <v>94</v>
@@ -5918,13 +5960,13 @@
         <v>76536</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>379</v>
+        <v>391</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>380</v>
+        <v>392</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>381</v>
+        <v>393</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5939,13 +5981,13 @@
         <v>98740</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
         <v>117</v>
@@ -5954,13 +5996,13 @@
         <v>81050</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
         <v>214</v>
@@ -5969,18 +6011,18 @@
         <v>179790</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -5992,13 +6034,13 @@
         <v>72834</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>382</v>
+        <v>394</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>383</v>
+        <v>19</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>384</v>
+        <v>395</v>
       </c>
       <c r="H13" s="7">
         <v>133</v>
@@ -6007,13 +6049,13 @@
         <v>89008</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>385</v>
+        <v>396</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>386</v>
+        <v>76</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>387</v>
+        <v>397</v>
       </c>
       <c r="M13" s="7">
         <v>202</v>
@@ -6022,13 +6064,13 @@
         <v>161843</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>332</v>
+        <v>398</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>206</v>
+        <v>399</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>388</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6043,13 +6085,13 @@
         <v>41760</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>389</v>
+        <v>400</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>390</v>
+        <v>401</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>391</v>
+        <v>28</v>
       </c>
       <c r="H14" s="7">
         <v>58</v>
@@ -6058,13 +6100,13 @@
         <v>55023</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>392</v>
+        <v>402</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>393</v>
+        <v>403</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>394</v>
+        <v>85</v>
       </c>
       <c r="M14" s="7">
         <v>102</v>
@@ -6073,13 +6115,13 @@
         <v>96783</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>324</v>
+        <v>404</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>395</v>
+        <v>89</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>215</v>
+        <v>405</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6094,13 +6136,13 @@
         <v>114594</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
         <v>191</v>
@@ -6109,13 +6151,13 @@
         <v>144031</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
         <v>304</v>
@@ -6124,18 +6166,18 @@
         <v>258626</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6147,13 +6189,13 @@
         <v>45986</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>396</v>
+        <v>406</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>397</v>
+        <v>407</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>398</v>
+        <v>408</v>
       </c>
       <c r="H16" s="7">
         <v>66</v>
@@ -6162,13 +6204,13 @@
         <v>40012</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>399</v>
+        <v>409</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>401</v>
+        <v>411</v>
       </c>
       <c r="M16" s="7">
         <v>114</v>
@@ -6177,13 +6219,13 @@
         <v>85998</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>402</v>
+        <v>412</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>403</v>
+        <v>413</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>404</v>
+        <v>414</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6198,13 +6240,13 @@
         <v>25777</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>405</v>
+        <v>415</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>406</v>
+        <v>416</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>407</v>
+        <v>417</v>
       </c>
       <c r="H17" s="7">
         <v>36</v>
@@ -6213,13 +6255,13 @@
         <v>20053</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>408</v>
+        <v>418</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>409</v>
+        <v>419</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>410</v>
+        <v>420</v>
       </c>
       <c r="M17" s="7">
         <v>65</v>
@@ -6228,13 +6270,13 @@
         <v>45830</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>411</v>
+        <v>421</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>412</v>
+        <v>422</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>413</v>
+        <v>423</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6249,13 +6291,13 @@
         <v>71763</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
         <v>102</v>
@@ -6264,13 +6306,13 @@
         <v>60065</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
         <v>179</v>
@@ -6279,18 +6321,18 @@
         <v>131828</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6302,13 +6344,13 @@
         <v>801</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>414</v>
+        <v>424</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>415</v>
+        <v>425</v>
       </c>
       <c r="H19" s="7">
         <v>4</v>
@@ -6317,13 +6359,13 @@
         <v>2054</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>416</v>
+        <v>426</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>417</v>
+        <v>427</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="M19" s="7">
         <v>5</v>
@@ -6332,13 +6374,13 @@
         <v>2855</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>418</v>
+        <v>428</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>419</v>
+        <v>429</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>420</v>
+        <v>430</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6353,13 +6395,13 @@
         <v>2289</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>421</v>
+        <v>431</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
@@ -6368,13 +6410,13 @@
         <v>1077</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>423</v>
+        <v>433</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>424</v>
+        <v>434</v>
       </c>
       <c r="M20" s="7">
         <v>6</v>
@@ -6383,13 +6425,13 @@
         <v>3366</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>425</v>
+        <v>435</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>426</v>
+        <v>436</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>427</v>
+        <v>437</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6404,13 +6446,13 @@
         <v>3090</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H21" s="7">
         <v>6</v>
@@ -6419,13 +6461,13 @@
         <v>3131</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M21" s="7">
         <v>11</v>
@@ -6434,13 +6476,13 @@
         <v>6221</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6457,13 +6499,13 @@
         <v>220248</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>63</v>
+        <v>438</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>39</v>
+        <v>439</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="H22" s="7">
         <v>313</v>
@@ -6472,13 +6514,13 @@
         <v>234711</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>429</v>
+        <v>441</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>430</v>
+        <v>442</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>431</v>
+        <v>443</v>
       </c>
       <c r="M22" s="7">
         <v>515</v>
@@ -6487,13 +6529,13 @@
         <v>454958</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>432</v>
+        <v>444</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>433</v>
+        <v>445</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>434</v>
+        <v>446</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6508,13 +6550,13 @@
         <v>132770</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>53</v>
+        <v>447</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>435</v>
+        <v>448</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>30</v>
+        <v>449</v>
       </c>
       <c r="H23" s="7">
         <v>161</v>
@@ -6523,13 +6565,13 @@
         <v>126500</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>436</v>
+        <v>450</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>437</v>
+        <v>451</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>438</v>
+        <v>452</v>
       </c>
       <c r="M23" s="7">
         <v>297</v>
@@ -6538,13 +6580,13 @@
         <v>259270</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>439</v>
+        <v>453</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>440</v>
+        <v>454</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>441</v>
+        <v>455</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6559,13 +6601,13 @@
         <v>353018</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H24" s="7">
         <v>474</v>
@@ -6574,13 +6616,13 @@
         <v>361211</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M24" s="7">
         <v>812</v>
@@ -6589,18 +6631,18 @@
         <v>714228</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6902-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P6902-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B33DCFDF-BDEA-4561-87CC-1778727AEE7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{704C1333-0731-4E7B-8FCA-FA630ED16FE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A15D6EF8-D583-45FA-84E6-6A8571DB8E08}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{82F5B983-06AA-4E1E-AB1D-D95EC9ADBE81}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="455">
   <si>
     <t>Población según si su trabajo le afecta de manera que se siente nervioso y estresado en 2007 (Tasa respuesta: 10,21%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Sí</t>
@@ -134,7 +134,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>43,78%</t>
@@ -191,7 +191,7 @@
     <t>58,52%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>46,27%</t>
@@ -248,7 +248,7 @@
     <t>59,5%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>46,57%</t>
@@ -305,7 +305,7 @@
     <t>60,81%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>30,17%</t>
@@ -362,7 +362,13 @@
     <t>79,32%</t>
   </si>
   <si>
-    <t>65 y más</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -371,9 +377,6 @@
     <t>22,85%</t>
   </si>
   <si>
-    <t>—%</t>
-  </si>
-  <si>
     <t>0,0%</t>
   </si>
   <si>
@@ -1085,328 +1088,322 @@
     <t>Población según si su trabajo le afecta de manera que se siente nervioso y estresado en 2023 (Tasa respuesta: 9,29%)</t>
   </si>
   <si>
-    <t>54,78%</t>
-  </si>
-  <si>
-    <t>85,82%</t>
-  </si>
-  <si>
-    <t>53,21%</t>
-  </si>
-  <si>
-    <t>77,35%</t>
-  </si>
-  <si>
-    <t>46,51%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>45,22%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>46,79%</t>
-  </si>
-  <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>53,49%</t>
-  </si>
-  <si>
-    <t>73,65%</t>
-  </si>
-  <si>
-    <t>57,93%</t>
-  </si>
-  <si>
-    <t>86,17%</t>
-  </si>
-  <si>
-    <t>71,29%</t>
-  </si>
-  <si>
-    <t>58,37%</t>
-  </si>
-  <si>
-    <t>83,54%</t>
-  </si>
-  <si>
-    <t>72,5%</t>
-  </si>
-  <si>
-    <t>61,32%</t>
-  </si>
-  <si>
-    <t>81,6%</t>
-  </si>
-  <si>
-    <t>26,35%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>42,07%</t>
-  </si>
-  <si>
-    <t>28,71%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>41,63%</t>
-  </si>
-  <si>
-    <t>27,5%</t>
-  </si>
-  <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>38,68%</t>
-  </si>
-  <si>
-    <t>44,63%</t>
-  </si>
-  <si>
-    <t>64,79%</t>
-  </si>
-  <si>
-    <t>60,66%</t>
-  </si>
-  <si>
-    <t>51,44%</t>
-  </si>
-  <si>
-    <t>69,31%</t>
-  </si>
-  <si>
-    <t>57,43%</t>
-  </si>
-  <si>
-    <t>50,24%</t>
-  </si>
-  <si>
-    <t>64,23%</t>
-  </si>
-  <si>
-    <t>35,21%</t>
-  </si>
-  <si>
-    <t>55,37%</t>
-  </si>
-  <si>
-    <t>39,34%</t>
-  </si>
-  <si>
-    <t>30,69%</t>
-  </si>
-  <si>
-    <t>48,56%</t>
-  </si>
-  <si>
-    <t>42,57%</t>
-  </si>
-  <si>
-    <t>35,77%</t>
-  </si>
-  <si>
-    <t>49,76%</t>
-  </si>
-  <si>
-    <t>63,56%</t>
-  </si>
-  <si>
-    <t>72,6%</t>
-  </si>
-  <si>
-    <t>61,8%</t>
-  </si>
-  <si>
-    <t>71,53%</t>
-  </si>
-  <si>
-    <t>62,58%</t>
-  </si>
-  <si>
-    <t>53,5%</t>
-  </si>
-  <si>
-    <t>36,44%</t>
-  </si>
-  <si>
-    <t>27,4%</t>
-  </si>
-  <si>
-    <t>38,2%</t>
-  </si>
-  <si>
-    <t>28,47%</t>
-  </si>
-  <si>
-    <t>37,42%</t>
-  </si>
-  <si>
-    <t>46,5%</t>
-  </si>
-  <si>
-    <t>64,08%</t>
-  </si>
-  <si>
-    <t>51,97%</t>
-  </si>
-  <si>
-    <t>74,9%</t>
-  </si>
-  <si>
-    <t>66,61%</t>
-  </si>
-  <si>
-    <t>56,88%</t>
-  </si>
-  <si>
-    <t>74,77%</t>
-  </si>
-  <si>
-    <t>65,24%</t>
-  </si>
-  <si>
-    <t>57,95%</t>
-  </si>
-  <si>
-    <t>72,44%</t>
-  </si>
-  <si>
-    <t>35,92%</t>
-  </si>
-  <si>
-    <t>25,1%</t>
-  </si>
-  <si>
-    <t>48,03%</t>
-  </si>
-  <si>
-    <t>33,39%</t>
-  </si>
-  <si>
-    <t>25,23%</t>
-  </si>
-  <si>
-    <t>43,12%</t>
-  </si>
-  <si>
-    <t>34,76%</t>
-  </si>
-  <si>
-    <t>27,56%</t>
-  </si>
-  <si>
-    <t>42,05%</t>
-  </si>
-  <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>88,29%</t>
-  </si>
-  <si>
-    <t>65,6%</t>
-  </si>
-  <si>
-    <t>25,27%</t>
-  </si>
-  <si>
-    <t>45,88%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>76,81%</t>
-  </si>
-  <si>
-    <t>74,09%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>34,4%</t>
-  </si>
-  <si>
-    <t>74,73%</t>
-  </si>
-  <si>
-    <t>54,12%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>82,37%</t>
-  </si>
-  <si>
-    <t>62,39%</t>
-  </si>
-  <si>
-    <t>56,43%</t>
+    <t>50,0%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>84,92%</t>
+  </si>
+  <si>
+    <t>75,11%</t>
+  </si>
+  <si>
+    <t>41,06%</t>
+  </si>
+  <si>
+    <t>94,77%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>24,89%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>58,94%</t>
+  </si>
+  <si>
+    <t>74,27%</t>
+  </si>
+  <si>
+    <t>58,47%</t>
+  </si>
+  <si>
+    <t>86,66%</t>
+  </si>
+  <si>
+    <t>70,86%</t>
+  </si>
+  <si>
+    <t>57,51%</t>
+  </si>
+  <si>
+    <t>82,74%</t>
+  </si>
+  <si>
+    <t>72,71%</t>
+  </si>
+  <si>
+    <t>61,2%</t>
+  </si>
+  <si>
+    <t>81,71%</t>
+  </si>
+  <si>
+    <t>25,73%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>41,53%</t>
+  </si>
+  <si>
+    <t>29,14%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>42,49%</t>
+  </si>
+  <si>
+    <t>27,29%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>38,8%</t>
+  </si>
+  <si>
+    <t>54,03%</t>
+  </si>
+  <si>
+    <t>43,86%</t>
+  </si>
+  <si>
+    <t>64,1%</t>
+  </si>
+  <si>
+    <t>60,44%</t>
+  </si>
+  <si>
+    <t>51,31%</t>
+  </si>
+  <si>
+    <t>68,92%</t>
+  </si>
+  <si>
+    <t>56,86%</t>
+  </si>
+  <si>
+    <t>49,63%</t>
+  </si>
+  <si>
+    <t>63,6%</t>
+  </si>
+  <si>
+    <t>45,97%</t>
+  </si>
+  <si>
+    <t>35,9%</t>
+  </si>
+  <si>
+    <t>56,14%</t>
+  </si>
+  <si>
+    <t>39,56%</t>
+  </si>
+  <si>
+    <t>31,08%</t>
+  </si>
+  <si>
+    <t>48,69%</t>
+  </si>
+  <si>
+    <t>43,14%</t>
+  </si>
+  <si>
+    <t>36,4%</t>
+  </si>
+  <si>
+    <t>50,37%</t>
+  </si>
+  <si>
+    <t>62,62%</t>
+  </si>
+  <si>
+    <t>71,77%</t>
+  </si>
+  <si>
+    <t>52,56%</t>
+  </si>
+  <si>
+    <t>26,96%</t>
+  </si>
+  <si>
+    <t>70,14%</t>
+  </si>
+  <si>
+    <t>56,71%</t>
+  </si>
+  <si>
+    <t>34,86%</t>
   </si>
   <si>
     <t>67,18%</t>
   </si>
   <si>
-    <t>64,98%</t>
-  </si>
-  <si>
-    <t>57,3%</t>
-  </si>
-  <si>
-    <t>70,0%</t>
-  </si>
-  <si>
-    <t>63,7%</t>
-  </si>
-  <si>
-    <t>58,81%</t>
-  </si>
-  <si>
-    <t>67,57%</t>
-  </si>
-  <si>
-    <t>37,61%</t>
+    <t>37,38%</t>
+  </si>
+  <si>
+    <t>28,23%</t>
+  </si>
+  <si>
+    <t>47,44%</t>
+  </si>
+  <si>
+    <t>29,86%</t>
+  </si>
+  <si>
+    <t>73,04%</t>
+  </si>
+  <si>
+    <t>43,29%</t>
   </si>
   <si>
     <t>32,82%</t>
   </si>
   <si>
-    <t>43,57%</t>
-  </si>
-  <si>
-    <t>35,02%</t>
-  </si>
-  <si>
-    <t>30,0%</t>
-  </si>
-  <si>
-    <t>42,7%</t>
-  </si>
-  <si>
-    <t>36,3%</t>
-  </si>
-  <si>
-    <t>32,43%</t>
-  </si>
-  <si>
-    <t>41,19%</t>
+    <t>65,14%</t>
+  </si>
+  <si>
+    <t>51,16%</t>
+  </si>
+  <si>
+    <t>73,98%</t>
+  </si>
+  <si>
+    <t>66,42%</t>
+  </si>
+  <si>
+    <t>74,48%</t>
+  </si>
+  <si>
+    <t>64,77%</t>
+  </si>
+  <si>
+    <t>72,08%</t>
+  </si>
+  <si>
+    <t>26,02%</t>
+  </si>
+  <si>
+    <t>48,84%</t>
+  </si>
+  <si>
+    <t>33,58%</t>
+  </si>
+  <si>
+    <t>25,52%</t>
+  </si>
+  <si>
+    <t>35,23%</t>
+  </si>
+  <si>
+    <t>27,92%</t>
+  </si>
+  <si>
+    <t>25,39%</t>
+  </si>
+  <si>
+    <t>86,98%</t>
+  </si>
+  <si>
+    <t>65,7%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>45,51%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>76,46%</t>
+  </si>
+  <si>
+    <t>74,61%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>34,3%</t>
+  </si>
+  <si>
+    <t>74,98%</t>
+  </si>
+  <si>
+    <t>54,49%</t>
+  </si>
+  <si>
+    <t>23,54%</t>
+  </si>
+  <si>
+    <t>82,73%</t>
+  </si>
+  <si>
+    <t>61,84%</t>
+  </si>
+  <si>
+    <t>55,75%</t>
+  </si>
+  <si>
+    <t>66,69%</t>
+  </si>
+  <si>
+    <t>60,51%</t>
+  </si>
+  <si>
+    <t>43,77%</t>
+  </si>
+  <si>
+    <t>68,61%</t>
+  </si>
+  <si>
+    <t>61,16%</t>
+  </si>
+  <si>
+    <t>50,28%</t>
+  </si>
+  <si>
+    <t>65,88%</t>
+  </si>
+  <si>
+    <t>38,16%</t>
+  </si>
+  <si>
+    <t>33,31%</t>
+  </si>
+  <si>
+    <t>44,25%</t>
+  </si>
+  <si>
+    <t>39,49%</t>
+  </si>
+  <si>
+    <t>31,39%</t>
+  </si>
+  <si>
+    <t>56,23%</t>
+  </si>
+  <si>
+    <t>38,84%</t>
+  </si>
+  <si>
+    <t>34,12%</t>
+  </si>
+  <si>
+    <t>49,72%</t>
   </si>
 </sst>
 </file>
@@ -1818,8 +1815,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFC66961-CCCA-4D29-A87F-DFD3FB654471}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A2C0A9E-6D73-4F1E-A9C1-29E542D046C5}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2711,47 +2708,43 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>1</v>
-      </c>
-      <c r="D19" s="7">
-        <v>821</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D19" s="7"/>
       <c r="E19" s="7" t="s">
         <v>108</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>30</v>
+        <v>108</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
       </c>
       <c r="I19" s="7"/>
       <c r="J19" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M19" s="7">
-        <v>1</v>
-      </c>
-      <c r="N19" s="7">
-        <v>821</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N19" s="7"/>
       <c r="O19" s="7" t="s">
         <v>108</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>30</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2762,45 +2755,41 @@
       <c r="C20" s="7">
         <v>0</v>
       </c>
-      <c r="D20" s="7">
-        <v>0</v>
-      </c>
+      <c r="D20" s="7"/>
       <c r="E20" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
       </c>
       <c r="I20" s="7"/>
       <c r="J20" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
       </c>
-      <c r="N20" s="7">
-        <v>0</v>
-      </c>
+      <c r="N20" s="7"/>
       <c r="O20" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2809,100 +2798,94 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>1</v>
-      </c>
-      <c r="D21" s="7">
-        <v>821</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D21" s="7"/>
       <c r="E21" s="7" t="s">
-        <v>30</v>
+        <v>108</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>30</v>
+        <v>108</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>30</v>
+        <v>108</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
       </c>
       <c r="I21" s="7"/>
       <c r="J21" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M21" s="7">
-        <v>1</v>
-      </c>
-      <c r="N21" s="7">
-        <v>821</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N21" s="7"/>
       <c r="O21" s="7" t="s">
-        <v>30</v>
+        <v>108</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>30</v>
+        <v>108</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>30</v>
+        <v>108</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>109</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>191</v>
+        <v>1</v>
       </c>
       <c r="D22" s="7">
-        <v>205061</v>
+        <v>821</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>116</v>
+        <v>30</v>
       </c>
       <c r="H22" s="7">
+        <v>0</v>
+      </c>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="M22" s="7">
+        <v>1</v>
+      </c>
+      <c r="N22" s="7">
+        <v>821</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="I22" s="7">
-        <v>113018</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="M22" s="7">
-        <v>302</v>
-      </c>
-      <c r="N22" s="7">
-        <v>318079</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>121</v>
-      </c>
       <c r="Q22" s="7" t="s">
-        <v>122</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2911,49 +2894,47 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>259</v>
+        <v>0</v>
       </c>
       <c r="D23" s="7">
-        <v>267244</v>
+        <v>0</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="H23" s="7">
-        <v>104</v>
-      </c>
-      <c r="I23" s="7">
-        <v>107103</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" s="7"/>
       <c r="J23" s="7" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="M23" s="7">
-        <v>363</v>
+        <v>0</v>
       </c>
       <c r="N23" s="7">
-        <v>374348</v>
+        <v>0</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2962,63 +2943,217 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>1</v>
+      </c>
+      <c r="D24" s="7">
+        <v>821</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>0</v>
+      </c>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="M24" s="7">
+        <v>1</v>
+      </c>
+      <c r="N24" s="7">
+        <v>821</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>191</v>
+      </c>
+      <c r="D25" s="7">
+        <v>205061</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="H25" s="7">
+        <v>111</v>
+      </c>
+      <c r="I25" s="7">
+        <v>113018</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="M25" s="7">
+        <v>302</v>
+      </c>
+      <c r="N25" s="7">
+        <v>318079</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>259</v>
+      </c>
+      <c r="D26" s="7">
+        <v>267244</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="H26" s="7">
+        <v>104</v>
+      </c>
+      <c r="I26" s="7">
+        <v>107103</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="M26" s="7">
+        <v>363</v>
+      </c>
+      <c r="N26" s="7">
+        <v>374348</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>450</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>472305</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>215</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>220121</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>665</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>692427</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>132</v>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>133</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3031,8 +3166,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38E9DF59-CD3C-4DB9-83A0-20A28B12A7A4}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1051B9C2-274B-44A0-9F49-FAA1382DE85F}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3048,7 +3183,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3155,13 +3290,13 @@
         <v>6982</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H4" s="7">
         <v>6</v>
@@ -3170,13 +3305,13 @@
         <v>5919</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M4" s="7">
         <v>13</v>
@@ -3185,13 +3320,13 @@
         <v>12901</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3206,13 +3341,13 @@
         <v>3345</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H5" s="7">
         <v>4</v>
@@ -3221,13 +3356,13 @@
         <v>4137</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M5" s="7">
         <v>7</v>
@@ -3236,13 +3371,13 @@
         <v>7482</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3310,13 +3445,13 @@
         <v>45888</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H7" s="7">
         <v>33</v>
@@ -3325,13 +3460,13 @@
         <v>36735</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M7" s="7">
         <v>76</v>
@@ -3340,13 +3475,13 @@
         <v>82624</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3361,13 +3496,13 @@
         <v>40400</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H8" s="7">
         <v>28</v>
@@ -3376,13 +3511,13 @@
         <v>30377</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M8" s="7">
         <v>68</v>
@@ -3391,13 +3526,13 @@
         <v>70776</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3465,13 +3600,13 @@
         <v>46375</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H10" s="7">
         <v>43</v>
@@ -3480,13 +3615,13 @@
         <v>44690</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M10" s="7">
         <v>86</v>
@@ -3495,13 +3630,13 @@
         <v>91065</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3516,13 +3651,13 @@
         <v>51501</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H11" s="7">
         <v>25</v>
@@ -3531,13 +3666,13 @@
         <v>27941</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M11" s="7">
         <v>78</v>
@@ -3546,13 +3681,13 @@
         <v>79442</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3620,13 +3755,13 @@
         <v>34053</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H13" s="7">
         <v>19</v>
@@ -3635,13 +3770,13 @@
         <v>21224</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M13" s="7">
         <v>52</v>
@@ -3650,13 +3785,13 @@
         <v>55277</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3671,13 +3806,13 @@
         <v>54727</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H14" s="7">
         <v>18</v>
@@ -3686,13 +3821,13 @@
         <v>20222</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M14" s="7">
         <v>67</v>
@@ -3701,13 +3836,13 @@
         <v>74949</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3775,13 +3910,13 @@
         <v>19073</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H16" s="7">
         <v>14</v>
@@ -3790,13 +3925,13 @@
         <v>15617</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M16" s="7">
         <v>33</v>
@@ -3805,13 +3940,13 @@
         <v>34690</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3826,13 +3961,13 @@
         <v>22761</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H17" s="7">
         <v>8</v>
@@ -3841,13 +3976,13 @@
         <v>8965</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M17" s="7">
         <v>30</v>
@@ -3856,13 +3991,13 @@
         <v>31726</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3928,39 +4063,39 @@
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
       </c>
       <c r="I19" s="7"/>
       <c r="J19" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
       </c>
       <c r="N19" s="7"/>
       <c r="O19" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3973,39 +4108,39 @@
       </c>
       <c r="D20" s="7"/>
       <c r="E20" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
       </c>
       <c r="I20" s="7"/>
       <c r="J20" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
       </c>
       <c r="N20" s="7"/>
       <c r="O20" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4018,92 +4153,86 @@
       </c>
       <c r="D21" s="7"/>
       <c r="E21" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
       </c>
       <c r="I21" s="7"/>
       <c r="J21" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
       </c>
       <c r="N21" s="7"/>
       <c r="O21" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>109</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>145</v>
-      </c>
-      <c r="D22" s="7">
-        <v>152372</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D22" s="7"/>
       <c r="E22" s="7" t="s">
-        <v>222</v>
+        <v>108</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>223</v>
+        <v>108</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>224</v>
+        <v>108</v>
       </c>
       <c r="H22" s="7">
-        <v>115</v>
-      </c>
-      <c r="I22" s="7">
-        <v>124186</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I22" s="7"/>
       <c r="J22" s="7" t="s">
-        <v>225</v>
+        <v>108</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>226</v>
+        <v>108</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>227</v>
+        <v>108</v>
       </c>
       <c r="M22" s="7">
-        <v>260</v>
-      </c>
-      <c r="N22" s="7">
-        <v>276557</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N22" s="7"/>
       <c r="O22" s="7" t="s">
-        <v>228</v>
+        <v>108</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>229</v>
+        <v>108</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>230</v>
+        <v>108</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4112,49 +4241,43 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>167</v>
-      </c>
-      <c r="D23" s="7">
-        <v>172733</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D23" s="7"/>
       <c r="E23" s="7" t="s">
-        <v>231</v>
+        <v>108</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>232</v>
+        <v>108</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>233</v>
+        <v>108</v>
       </c>
       <c r="H23" s="7">
-        <v>83</v>
-      </c>
-      <c r="I23" s="7">
-        <v>91642</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" s="7"/>
       <c r="J23" s="7" t="s">
-        <v>234</v>
+        <v>108</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>235</v>
+        <v>108</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>236</v>
+        <v>108</v>
       </c>
       <c r="M23" s="7">
-        <v>250</v>
-      </c>
-      <c r="N23" s="7">
-        <v>264375</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N23" s="7"/>
       <c r="O23" s="7" t="s">
-        <v>237</v>
+        <v>108</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>238</v>
+        <v>108</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>239</v>
+        <v>108</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4163,63 +4286,213 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>0</v>
+      </c>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="H24" s="7">
+        <v>0</v>
+      </c>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="M24" s="7">
+        <v>0</v>
+      </c>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>145</v>
+      </c>
+      <c r="D25" s="7">
+        <v>152372</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="H25" s="7">
+        <v>115</v>
+      </c>
+      <c r="I25" s="7">
+        <v>124186</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="M25" s="7">
+        <v>260</v>
+      </c>
+      <c r="N25" s="7">
+        <v>276558</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>167</v>
+      </c>
+      <c r="D26" s="7">
+        <v>172733</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="H26" s="7">
+        <v>83</v>
+      </c>
+      <c r="I26" s="7">
+        <v>91642</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="M26" s="7">
+        <v>250</v>
+      </c>
+      <c r="N26" s="7">
+        <v>264375</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>312</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>325105</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>198</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>215828</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>510</v>
       </c>
-      <c r="N24" s="7">
-        <v>540932</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>132</v>
+      <c r="N27" s="7">
+        <v>540933</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>133</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4232,8 +4505,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA6700F7-3DAA-48B5-BD43-86C72F3EF509}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D812C2A-C012-40A3-93A8-48E66D416EF3}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4249,7 +4522,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4356,13 +4629,13 @@
         <v>5846</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H4" s="7">
         <v>8</v>
@@ -4371,13 +4644,13 @@
         <v>7698</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="M4" s="7">
         <v>13</v>
@@ -4386,13 +4659,13 @@
         <v>13544</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4407,13 +4680,13 @@
         <v>11305</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="H5" s="7">
         <v>4</v>
@@ -4422,13 +4695,13 @@
         <v>3945</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="M5" s="7">
         <v>15</v>
@@ -4437,13 +4710,13 @@
         <v>15250</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4511,13 +4784,13 @@
         <v>29655</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H7" s="7">
         <v>29</v>
@@ -4526,13 +4799,13 @@
         <v>27839</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="M7" s="7">
         <v>57</v>
@@ -4541,13 +4814,13 @@
         <v>57494</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4562,13 +4835,13 @@
         <v>51917</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H8" s="7">
         <v>19</v>
@@ -4577,13 +4850,13 @@
         <v>18452</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M8" s="7">
         <v>67</v>
@@ -4592,13 +4865,13 @@
         <v>70369</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4666,13 +4939,13 @@
         <v>43626</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H10" s="7">
         <v>44</v>
@@ -4681,13 +4954,13 @@
         <v>44490</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="M10" s="7">
         <v>83</v>
@@ -4696,13 +4969,13 @@
         <v>88117</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4717,13 +4990,13 @@
         <v>69497</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H11" s="7">
         <v>27</v>
@@ -4732,13 +5005,13 @@
         <v>26968</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="M11" s="7">
         <v>94</v>
@@ -4747,13 +5020,13 @@
         <v>96464</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4821,13 +5094,13 @@
         <v>46301</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H13" s="7">
         <v>27</v>
@@ -4836,13 +5109,13 @@
         <v>31394</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M13" s="7">
         <v>68</v>
@@ -4854,10 +5127,10 @@
         <v>85</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4872,13 +5145,13 @@
         <v>45127</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H14" s="7">
         <v>23</v>
@@ -4887,13 +5160,13 @@
         <v>24713</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="M14" s="7">
         <v>64</v>
@@ -4905,10 +5178,10 @@
         <v>76</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4976,13 +5249,13 @@
         <v>24687</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H16" s="7">
         <v>17</v>
@@ -4991,13 +5264,13 @@
         <v>19613</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="M16" s="7">
         <v>39</v>
@@ -5006,13 +5279,13 @@
         <v>44300</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5027,10 +5300,10 @@
         <v>20161</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>21</v>
@@ -5042,13 +5315,13 @@
         <v>11186</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="M17" s="7">
         <v>27</v>
@@ -5057,13 +5330,13 @@
         <v>31346</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5131,10 +5404,10 @@
         <v>1880</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>30</v>
@@ -5144,13 +5417,13 @@
       </c>
       <c r="I19" s="7"/>
       <c r="J19" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M19" s="7">
         <v>2</v>
@@ -5159,10 +5432,10 @@
         <v>1880</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>30</v>
@@ -5180,26 +5453,26 @@
         <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
       </c>
       <c r="I20" s="7"/>
       <c r="J20" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -5208,13 +5481,13 @@
         <v>0</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5242,13 +5515,13 @@
       </c>
       <c r="I21" s="7"/>
       <c r="J21" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M21" s="7">
         <v>2</v>
@@ -5268,55 +5541,49 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>109</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>137</v>
-      </c>
-      <c r="D22" s="7">
-        <v>151995</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D22" s="7"/>
       <c r="E22" s="7" t="s">
-        <v>329</v>
+        <v>108</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>330</v>
+        <v>108</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>331</v>
+        <v>108</v>
       </c>
       <c r="H22" s="7">
-        <v>125</v>
-      </c>
-      <c r="I22" s="7">
-        <v>131034</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I22" s="7"/>
       <c r="J22" s="7" t="s">
-        <v>332</v>
+        <v>108</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>333</v>
+        <v>108</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>334</v>
+        <v>108</v>
       </c>
       <c r="M22" s="7">
-        <v>262</v>
-      </c>
-      <c r="N22" s="7">
-        <v>283029</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N22" s="7"/>
       <c r="O22" s="7" t="s">
-        <v>335</v>
+        <v>108</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>336</v>
+        <v>108</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>337</v>
+        <v>108</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5325,49 +5592,43 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>185</v>
-      </c>
-      <c r="D23" s="7">
-        <v>198006</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D23" s="7"/>
       <c r="E23" s="7" t="s">
-        <v>338</v>
+        <v>108</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>339</v>
+        <v>108</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>340</v>
+        <v>108</v>
       </c>
       <c r="H23" s="7">
-        <v>82</v>
-      </c>
-      <c r="I23" s="7">
-        <v>85264</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" s="7"/>
       <c r="J23" s="7" t="s">
-        <v>341</v>
+        <v>108</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>342</v>
+        <v>108</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>343</v>
+        <v>108</v>
       </c>
       <c r="M23" s="7">
-        <v>267</v>
-      </c>
-      <c r="N23" s="7">
-        <v>283270</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N23" s="7"/>
       <c r="O23" s="7" t="s">
-        <v>344</v>
+        <v>108</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>345</v>
+        <v>108</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>346</v>
+        <v>108</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5376,63 +5637,213 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>0</v>
+      </c>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="H24" s="7">
+        <v>0</v>
+      </c>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="M24" s="7">
+        <v>0</v>
+      </c>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>137</v>
+      </c>
+      <c r="D25" s="7">
+        <v>151995</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="H25" s="7">
+        <v>125</v>
+      </c>
+      <c r="I25" s="7">
+        <v>131034</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="M25" s="7">
+        <v>262</v>
+      </c>
+      <c r="N25" s="7">
+        <v>283029</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>185</v>
+      </c>
+      <c r="D26" s="7">
+        <v>198006</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="H26" s="7">
+        <v>82</v>
+      </c>
+      <c r="I26" s="7">
+        <v>85264</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="M26" s="7">
+        <v>267</v>
+      </c>
+      <c r="N26" s="7">
+        <v>283270</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>322</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>350001</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>207</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>216298</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>529</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>566299</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>132</v>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>133</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -5445,8 +5856,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36D14AD8-076D-4E70-8900-738403E7A265}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0AF1E96-B7B5-486F-A227-6D757B2C0016}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -5462,7 +5873,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5566,46 +5977,46 @@
         <v>2</v>
       </c>
       <c r="D4" s="7">
-        <v>3505</v>
+        <v>2994</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>108</v>
+        <v>350</v>
       </c>
       <c r="H4" s="7">
         <v>8</v>
       </c>
       <c r="I4" s="7">
-        <v>14621</v>
+        <v>13030</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>350</v>
+        <v>60</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M4" s="7">
         <v>10</v>
       </c>
       <c r="N4" s="7">
-        <v>18126</v>
+        <v>16024</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5617,31 +6028,31 @@
         <v>2</v>
       </c>
       <c r="D5" s="7">
-        <v>2893</v>
+        <v>2995</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H5" s="7">
         <v>2</v>
       </c>
       <c r="I5" s="7">
-        <v>2416</v>
+        <v>2314</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>355</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>356</v>
+        <v>51</v>
       </c>
       <c r="M5" s="7">
         <v>4</v>
@@ -5650,13 +6061,13 @@
         <v>5309</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>357</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>358</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5668,7 +6079,7 @@
         <v>4</v>
       </c>
       <c r="D6" s="7">
-        <v>6398</v>
+        <v>5989</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -5683,7 +6094,7 @@
         <v>10</v>
       </c>
       <c r="I6" s="7">
-        <v>17037</v>
+        <v>15344</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -5698,7 +6109,7 @@
         <v>14</v>
       </c>
       <c r="N6" s="7">
-        <v>23435</v>
+        <v>21333</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -5721,46 +6132,46 @@
         <v>31</v>
       </c>
       <c r="D7" s="7">
-        <v>43035</v>
+        <v>43875</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>360</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>361</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>362</v>
       </c>
       <c r="H7" s="7">
         <v>33</v>
       </c>
       <c r="I7" s="7">
-        <v>39848</v>
+        <v>35394</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>363</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>364</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>365</v>
       </c>
       <c r="M7" s="7">
         <v>64</v>
       </c>
       <c r="N7" s="7">
-        <v>82883</v>
+        <v>79269</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>366</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>367</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5772,46 +6183,46 @@
         <v>11</v>
       </c>
       <c r="D8" s="7">
-        <v>15397</v>
+        <v>15199</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>369</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>370</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>371</v>
       </c>
       <c r="H8" s="7">
         <v>15</v>
       </c>
       <c r="I8" s="7">
-        <v>16049</v>
+        <v>14555</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>372</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>373</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>374</v>
       </c>
       <c r="M8" s="7">
         <v>26</v>
       </c>
       <c r="N8" s="7">
-        <v>31446</v>
+        <v>29753</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>375</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>376</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5823,7 +6234,7 @@
         <v>42</v>
       </c>
       <c r="D9" s="7">
-        <v>58432</v>
+        <v>59074</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -5838,7 +6249,7 @@
         <v>48</v>
       </c>
       <c r="I9" s="7">
-        <v>55897</v>
+        <v>49949</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -5853,7 +6264,7 @@
         <v>90</v>
       </c>
       <c r="N9" s="7">
-        <v>114329</v>
+        <v>109022</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -5876,10 +6287,10 @@
         <v>51</v>
       </c>
       <c r="D10" s="7">
-        <v>54087</v>
+        <v>51614</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>348</v>
+        <v>377</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>378</v>
@@ -5891,7 +6302,7 @@
         <v>69</v>
       </c>
       <c r="I10" s="7">
-        <v>49168</v>
+        <v>45666</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>380</v>
@@ -5906,7 +6317,7 @@
         <v>120</v>
       </c>
       <c r="N10" s="7">
-        <v>103254</v>
+        <v>97280</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>383</v>
@@ -5927,46 +6338,46 @@
         <v>46</v>
       </c>
       <c r="D11" s="7">
-        <v>44653</v>
+        <v>43917</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>354</v>
+        <v>386</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H11" s="7">
         <v>48</v>
       </c>
       <c r="I11" s="7">
-        <v>31882</v>
+        <v>29886</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="M11" s="7">
         <v>94</v>
       </c>
       <c r="N11" s="7">
-        <v>76536</v>
+        <v>73804</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5978,7 +6389,7 @@
         <v>97</v>
       </c>
       <c r="D12" s="7">
-        <v>98740</v>
+        <v>95531</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -5993,7 +6404,7 @@
         <v>117</v>
       </c>
       <c r="I12" s="7">
-        <v>81050</v>
+        <v>75552</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -6008,7 +6419,7 @@
         <v>214</v>
       </c>
       <c r="N12" s="7">
-        <v>179790</v>
+        <v>171084</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -6031,46 +6442,46 @@
         <v>69</v>
       </c>
       <c r="D13" s="7">
-        <v>72834</v>
+        <v>67977</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>19</v>
+        <v>232</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H13" s="7">
         <v>133</v>
       </c>
       <c r="I13" s="7">
-        <v>89008</v>
+        <v>81449</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>76</v>
+        <v>398</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="M13" s="7">
         <v>202</v>
       </c>
       <c r="N13" s="7">
-        <v>161843</v>
+        <v>149426</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>98</v>
+        <v>402</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6082,46 +6493,46 @@
         <v>44</v>
       </c>
       <c r="D14" s="7">
-        <v>41760</v>
+        <v>40576</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>28</v>
+        <v>223</v>
       </c>
       <c r="H14" s="7">
         <v>58</v>
       </c>
       <c r="I14" s="7">
-        <v>55023</v>
+        <v>73500</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>85</v>
+        <v>407</v>
       </c>
       <c r="M14" s="7">
         <v>102</v>
       </c>
       <c r="N14" s="7">
-        <v>96783</v>
+        <v>114076</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>89</v>
+        <v>409</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6133,7 +6544,7 @@
         <v>113</v>
       </c>
       <c r="D15" s="7">
-        <v>114594</v>
+        <v>108553</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -6148,7 +6559,7 @@
         <v>191</v>
       </c>
       <c r="I15" s="7">
-        <v>144031</v>
+        <v>154949</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -6163,7 +6574,7 @@
         <v>304</v>
       </c>
       <c r="N15" s="7">
-        <v>258626</v>
+        <v>263502</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -6186,46 +6597,46 @@
         <v>48</v>
       </c>
       <c r="D16" s="7">
-        <v>45986</v>
+        <v>42764</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>406</v>
+        <v>62</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="H16" s="7">
         <v>66</v>
       </c>
       <c r="I16" s="7">
-        <v>40012</v>
+        <v>36869</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>410</v>
+        <v>124</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="M16" s="7">
         <v>114</v>
       </c>
       <c r="N16" s="7">
-        <v>85998</v>
+        <v>79633</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>413</v>
+        <v>324</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6237,37 +6648,37 @@
         <v>29</v>
       </c>
       <c r="D17" s="7">
-        <v>25777</v>
+        <v>24672</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>415</v>
+        <v>52</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H17" s="7">
         <v>36</v>
       </c>
       <c r="I17" s="7">
-        <v>20053</v>
+        <v>18638</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>420</v>
+        <v>115</v>
       </c>
       <c r="M17" s="7">
         <v>65</v>
       </c>
       <c r="N17" s="7">
-        <v>45830</v>
+        <v>43310</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>421</v>
@@ -6276,7 +6687,7 @@
         <v>422</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>423</v>
+        <v>315</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6288,7 +6699,7 @@
         <v>77</v>
       </c>
       <c r="D18" s="7">
-        <v>71763</v>
+        <v>67436</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -6303,7 +6714,7 @@
         <v>102</v>
       </c>
       <c r="I18" s="7">
-        <v>60065</v>
+        <v>55507</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -6318,7 +6729,7 @@
         <v>179</v>
       </c>
       <c r="N18" s="7">
-        <v>131828</v>
+        <v>122943</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -6341,46 +6752,46 @@
         <v>1</v>
       </c>
       <c r="D19" s="7">
-        <v>801</v>
+        <v>742</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>424</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>425</v>
       </c>
       <c r="H19" s="7">
         <v>4</v>
       </c>
       <c r="I19" s="7">
-        <v>2054</v>
+        <v>1915</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>426</v>
       </c>
-      <c r="K19" s="7" t="s">
-        <v>427</v>
-      </c>
       <c r="L19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M19" s="7">
         <v>5</v>
       </c>
       <c r="N19" s="7">
-        <v>2855</v>
+        <v>2656</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>428</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>429</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6392,46 +6803,46 @@
         <v>4</v>
       </c>
       <c r="D20" s="7">
-        <v>2289</v>
+        <v>2181</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>431</v>
       </c>
-      <c r="F20" s="7" t="s">
-        <v>432</v>
-      </c>
       <c r="G20" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
       </c>
       <c r="I20" s="7">
-        <v>1077</v>
+        <v>999</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>433</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>434</v>
       </c>
       <c r="M20" s="7">
         <v>6</v>
       </c>
       <c r="N20" s="7">
-        <v>3366</v>
+        <v>3180</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>435</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>436</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>437</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6443,7 +6854,7 @@
         <v>5</v>
       </c>
       <c r="D21" s="7">
-        <v>3090</v>
+        <v>2923</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -6458,7 +6869,7 @@
         <v>6</v>
       </c>
       <c r="I21" s="7">
-        <v>3131</v>
+        <v>2914</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -6473,7 +6884,7 @@
         <v>11</v>
       </c>
       <c r="N21" s="7">
-        <v>6221</v>
+        <v>5836</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -6487,55 +6898,49 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>109</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>202</v>
-      </c>
-      <c r="D22" s="7">
-        <v>220248</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D22" s="7"/>
       <c r="E22" s="7" t="s">
-        <v>438</v>
+        <v>108</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>439</v>
+        <v>108</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>440</v>
+        <v>108</v>
       </c>
       <c r="H22" s="7">
-        <v>313</v>
-      </c>
-      <c r="I22" s="7">
-        <v>234711</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I22" s="7"/>
       <c r="J22" s="7" t="s">
-        <v>441</v>
+        <v>108</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>442</v>
+        <v>108</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>443</v>
+        <v>108</v>
       </c>
       <c r="M22" s="7">
-        <v>515</v>
-      </c>
-      <c r="N22" s="7">
-        <v>454958</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N22" s="7"/>
       <c r="O22" s="7" t="s">
-        <v>444</v>
+        <v>108</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>445</v>
+        <v>108</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>446</v>
+        <v>108</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6544,49 +6949,43 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>136</v>
-      </c>
-      <c r="D23" s="7">
-        <v>132770</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D23" s="7"/>
       <c r="E23" s="7" t="s">
-        <v>447</v>
+        <v>108</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>448</v>
+        <v>108</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>449</v>
+        <v>108</v>
       </c>
       <c r="H23" s="7">
-        <v>161</v>
-      </c>
-      <c r="I23" s="7">
-        <v>126500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" s="7"/>
       <c r="J23" s="7" t="s">
-        <v>450</v>
+        <v>108</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>451</v>
+        <v>108</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>452</v>
+        <v>108</v>
       </c>
       <c r="M23" s="7">
-        <v>297</v>
-      </c>
-      <c r="N23" s="7">
-        <v>259270</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N23" s="7"/>
       <c r="O23" s="7" t="s">
-        <v>453</v>
+        <v>108</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>454</v>
+        <v>108</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>455</v>
+        <v>108</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6595,63 +6994,213 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>0</v>
+      </c>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="H24" s="7">
+        <v>0</v>
+      </c>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="M24" s="7">
+        <v>0</v>
+      </c>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>202</v>
+      </c>
+      <c r="D25" s="7">
+        <v>209966</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="H25" s="7">
+        <v>313</v>
+      </c>
+      <c r="I25" s="7">
+        <v>214322</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="M25" s="7">
+        <v>515</v>
+      </c>
+      <c r="N25" s="7">
+        <v>424288</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>136</v>
+      </c>
+      <c r="D26" s="7">
+        <v>129539</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="H26" s="7">
+        <v>161</v>
+      </c>
+      <c r="I26" s="7">
+        <v>139893</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="M26" s="7">
+        <v>297</v>
+      </c>
+      <c r="N26" s="7">
+        <v>269432</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>338</v>
       </c>
-      <c r="D24" s="7">
-        <v>353018</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>339505</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>474</v>
       </c>
-      <c r="I24" s="7">
-        <v>361211</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>354215</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>812</v>
       </c>
-      <c r="N24" s="7">
-        <v>714228</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>132</v>
+      <c r="N27" s="7">
+        <v>693720</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>133</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
